--- a/Dot NET/VS Projects/VS Projects Templates.xlsx
+++ b/Dot NET/VS Projects/VS Projects Templates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ronniekleinfeld/Dev/White-Paper/Dot NET/VS Projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4A2A2C-68C5-3844-AE82-B28111E6B54B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80388EF5-361F-2F40-B00F-66E6A770CD3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12820" yWindow="500" windowWidth="23020" windowHeight="21000" xr2:uid="{E69DFE7B-62AC-9547-98A7-0DA9D773F21C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="86">
   <si>
     <t>Template</t>
   </si>
@@ -291,6 +291,9 @@
   </si>
   <si>
     <t>..</t>
+  </si>
+  <si>
+    <t>ManageController.cs</t>
   </si>
 </sst>
 </file>
@@ -661,13 +664,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6672138E-8361-2C4F-9571-743716B9ADF0}">
-  <dimension ref="A1:Y133"/>
+  <dimension ref="A1:AA134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="Q65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="O28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F78" sqref="F78"/>
+      <selection pane="bottomRight" activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -680,12 +683,13 @@
     <col min="7" max="8" width="7.5" style="2" hidden="1" customWidth="1"/>
     <col min="9" max="10" width="5.33203125" style="2" hidden="1" customWidth="1"/>
     <col min="11" max="12" width="6.33203125" style="2" hidden="1" customWidth="1"/>
-    <col min="13" max="18" width="5.1640625" style="2" hidden="1" customWidth="1"/>
-    <col min="19" max="22" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="10.83203125" style="2"/>
+    <col min="13" max="14" width="5.1640625" style="2" hidden="1" customWidth="1"/>
+    <col min="15" max="20" width="5.1640625" style="2" customWidth="1"/>
+    <col min="21" max="24" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>49</v>
       </c>
@@ -737,7 +741,7 @@
         <v>2013</v>
       </c>
       <c r="T1" s="3">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="U1" s="3">
         <v>2013</v>
@@ -745,8 +749,14 @@
       <c r="V1" s="3">
         <v>2015</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W1" s="3">
+        <v>2013</v>
+      </c>
+      <c r="X1" s="3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G2" s="3" t="s">
         <v>72</v>
       </c>
@@ -787,16 +797,22 @@
         <v>51</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="W2" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -813,7 +829,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -827,7 +843,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -841,7 +857,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -855,7 +871,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -869,7 +885,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -886,7 +902,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -900,7 +916,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -914,7 +930,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -928,7 +944,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -945,7 +961,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -959,7 +975,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -973,7 +989,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -987,7 +1003,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1001,7 +1017,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1015,7 +1031,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,7 +1045,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1043,7 +1059,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1060,7 +1076,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1074,7 +1090,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1088,7 +1104,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1102,7 +1118,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1116,7 +1132,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1130,7 +1146,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1144,7 +1160,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1158,7 +1174,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1184,16 +1200,22 @@
         <v>51</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="V28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="W28" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="V28" s="2" t="s">
+      <c r="X28" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1216,16 +1238,22 @@
         <v>51</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="V29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="W29" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="V29" s="2" t="s">
+      <c r="X29" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1248,16 +1276,22 @@
         <v>51</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U30" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="V30" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="W30" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="V30" s="2" t="s">
+      <c r="X30" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1271,7 +1305,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1285,7 +1319,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1299,7 +1333,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1313,7 +1347,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1327,7 +1361,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1341,7 +1375,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1355,7 +1389,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="E38" t="s">
         <v>84</v>
       </c>
@@ -1363,7 +1397,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -1386,10 +1420,16 @@
         <v>51</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="U39" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="V39" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -1412,10 +1452,16 @@
         <v>51</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="U40" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="V40" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -1438,10 +1484,16 @@
         <v>51</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="U41" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="V41" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -1458,10 +1510,16 @@
         <v>51</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="U42" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="V42" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="E43" t="s">
         <v>78</v>
       </c>
@@ -1474,8 +1532,11 @@
       <c r="R43" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V43" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>40</v>
       </c>
@@ -1498,10 +1559,16 @@
         <v>51</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="U44" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="V44" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>41</v>
       </c>
@@ -1523,8 +1590,14 @@
       <c r="S45" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T45" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V45" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>42</v>
       </c>
@@ -1537,11 +1610,14 @@
       <c r="P46" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="T46" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="V46" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>43</v>
       </c>
@@ -1551,11 +1627,14 @@
       <c r="O47" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="T47" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="V47" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>44</v>
       </c>
@@ -1578,10 +1657,16 @@
         <v>51</v>
       </c>
       <c r="T48" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="U48" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="V48" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>45</v>
       </c>
@@ -1604,10 +1689,16 @@
         <v>51</v>
       </c>
       <c r="T49" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="U49" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="V49" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>46</v>
       </c>
@@ -1630,10 +1721,16 @@
         <v>51</v>
       </c>
       <c r="T50" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="U50" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="V50" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>47</v>
       </c>
@@ -1656,10 +1753,16 @@
         <v>51</v>
       </c>
       <c r="T51" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="U51" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="V51" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>48</v>
       </c>
@@ -1676,10 +1779,16 @@
         <v>51</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="U52" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="V52" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>49</v>
       </c>
@@ -1695,8 +1804,14 @@
       <c r="S53" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T53" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V53" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>50</v>
       </c>
@@ -1713,884 +1828,1048 @@
         <v>51</v>
       </c>
       <c r="T54" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
-        <v>51</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="U54" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="V54" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="E55" t="s">
+        <v>85</v>
+      </c>
+      <c r="T55" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>51</v>
+      </c>
+      <c r="E56" t="s">
         <v>29</v>
       </c>
-      <c r="O55" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P55" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="T55" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
-        <v>52</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="O56" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P56" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U56" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="V56" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>52</v>
+      </c>
+      <c r="D57" t="s">
         <v>30</v>
       </c>
-      <c r="O56" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P56" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q56" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="R56" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="S56" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T56" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
-        <v>53</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="O57" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P57" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q57" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R57" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="S57" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T57" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U57" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="V57" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>53</v>
+      </c>
+      <c r="D58" t="s">
         <v>31</v>
       </c>
-      <c r="O57" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P57" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q57" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="R57" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="S57" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T57" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
+      <c r="O58" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P58" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q58" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R58" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="S58" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T58" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U58" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="V58" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
         <v>54</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E59" t="s">
         <v>32</v>
       </c>
-      <c r="O58" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P58" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="S58" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
+      <c r="O59" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P59" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S59" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T59" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V59" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
         <v>55</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E60" t="s">
         <v>55</v>
       </c>
-      <c r="O59" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P59" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q59" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="R59" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="S59" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
+      <c r="O60" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P60" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q60" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R60" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="S60" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T60" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V60" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
         <v>56</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E61" t="s">
         <v>33</v>
       </c>
-      <c r="O60" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P60" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="E61" t="s">
+      <c r="O61" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P61" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V61" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E62" t="s">
         <v>79</v>
       </c>
-      <c r="P61" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
+      <c r="P62" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T62" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
         <v>57</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D63" t="s">
         <v>34</v>
       </c>
-      <c r="O62" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
+      <c r="O63" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V63" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
         <v>58</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E64" t="s">
         <v>35</v>
       </c>
-      <c r="O63" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
+      <c r="O64" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V64" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
         <v>59</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D65" t="s">
         <v>36</v>
       </c>
-      <c r="O64" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
+      <c r="O65" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V65" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
         <v>60</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E66" t="s">
         <v>37</v>
       </c>
-      <c r="O65" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
+      <c r="O66" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V66" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
         <v>61</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D67" t="s">
         <v>38</v>
       </c>
-      <c r="O66" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P66" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q66" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="R66" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="S66" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T66" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="V66" s="2" t="s">
+      <c r="O67" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P67" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q67" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R67" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="S67" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T67" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U67" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="V67" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="X67" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
         <v>62</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D68" t="s">
         <v>39</v>
       </c>
-      <c r="O67" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P67" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="T67" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="E68" t="s">
+      <c r="O68" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P68" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U68" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="V68" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="E69" t="s">
         <v>66</v>
       </c>
-      <c r="P68" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A69" s="1">
+      <c r="P69" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T69" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
         <v>63</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E70" t="s">
         <v>40</v>
       </c>
-      <c r="O69" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P69" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="S69" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T69" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
+      <c r="O70" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P70" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S70" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T70" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U70" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="V70" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
         <v>64</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F71" t="s">
         <v>56</v>
       </c>
-      <c r="O70" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P70" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="S70" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A71" s="1">
+      <c r="O71" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P71" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S71" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T71" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
         <v>65</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F72" t="s">
         <v>57</v>
       </c>
-      <c r="O71" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P71" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="S71" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
+      <c r="O72" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P72" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S72" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T72" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
         <v>66</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F73" t="s">
         <v>41</v>
       </c>
-      <c r="O72" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P72" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="S72" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T72" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="E73" t="s">
+      <c r="O73" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P73" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S73" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T73" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U73" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="V73" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="E74" t="s">
         <v>80</v>
       </c>
-      <c r="P73" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A74" s="1">
+      <c r="P74" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T74" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
         <v>67</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E75" t="s">
         <v>42</v>
       </c>
-      <c r="O74" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P74" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="S74" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T74" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A75" s="1">
+      <c r="O75" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P75" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S75" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T75" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U75" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="V75" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
         <v>68</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F76" t="s">
         <v>43</v>
       </c>
-      <c r="O75" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P75" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="S75" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T75" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A76" s="1">
+      <c r="O76" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P76" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S76" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T76" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U76" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="V76" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
         <v>69</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F77" t="s">
         <v>58</v>
       </c>
-      <c r="O76" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P76" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="S76" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A77" s="1">
+      <c r="O77" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P77" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S77" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T77" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
         <v>70</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F78" t="s">
         <v>44</v>
       </c>
-      <c r="O77" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P77" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="S77" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T77" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="F78" t="s">
+      <c r="O78" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P78" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S78" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T78" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U78" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="V78" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="F79" t="s">
         <v>81</v>
       </c>
-      <c r="P78" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A79" s="1">
+      <c r="P79" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T79" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
         <v>71</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E80" t="s">
         <v>45</v>
       </c>
-      <c r="O79" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P79" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="T79" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A80" s="1">
+      <c r="O80" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P80" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T80" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U80" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="V80" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
         <v>72</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E81" t="s">
         <v>13</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P80" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="T80" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A81" s="1">
+      <c r="O81" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P81" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T81" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U81" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="V81" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
         <v>73</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D82" t="s">
         <v>59</v>
       </c>
-      <c r="Q81" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="R81" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="D82" t="s">
+      <c r="Q82" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R82" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="D83" t="s">
         <v>82</v>
       </c>
-      <c r="P82" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="R82" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="V82" s="2" t="s">
+      <c r="P83" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="R83" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="T83" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V83" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="X83" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A83" s="1">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
         <v>74</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D84" t="s">
         <v>60</v>
       </c>
-      <c r="Q83" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="R83" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A84" s="1">
+      <c r="Q84" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R84" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
         <v>75</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D85" t="s">
         <v>61</v>
       </c>
-      <c r="Q84" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="R84" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A85" s="1">
+      <c r="Q85" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R85" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
         <v>76</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D86" t="s">
         <v>62</v>
       </c>
-      <c r="Q85" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="R85" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A86" s="1">
+      <c r="Q86" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R86" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
         <v>77</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D87" t="s">
         <v>46</v>
       </c>
-      <c r="O86" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P86" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q86" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="R86" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="S86" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T86" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A87" s="1">
+      <c r="O87" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P87" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q87" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R87" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="S87" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T87" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U87" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="V87" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
         <v>78</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D88" t="s">
         <v>47</v>
       </c>
-      <c r="O87" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P87" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q87" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="R87" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="S87" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T87" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A88" s="1">
+      <c r="O88" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P88" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q88" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R88" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="S88" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T88" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U88" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="V88" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
         <v>79</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D89" t="s">
         <v>83</v>
       </c>
-      <c r="O88" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P88" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q88" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="R88" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="S88" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T88" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="V88" s="2" t="s">
+      <c r="O89" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P89" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q89" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R89" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="S89" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T89" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U89" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="V89" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="X89" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A89" s="1">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
         <v>80</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D90" t="s">
         <v>63</v>
       </c>
-      <c r="Q89" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="R89" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A90" s="1">
+      <c r="Q90" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R90" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
         <v>81</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D91" t="s">
         <v>64</v>
       </c>
-      <c r="Q90" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="R90" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A91" s="1">
+      <c r="Q91" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R91" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
         <v>82</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D92" t="s">
         <v>48</v>
       </c>
-      <c r="O91" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P91" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q91" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="R91" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="S91" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A92" s="1">
+      <c r="O92" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P92" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q92" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R92" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="S92" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T92" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V92" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
         <v>83</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D93" t="s">
         <v>65</v>
       </c>
-      <c r="Q92" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="R92" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A93" s="1">
+      <c r="Q93" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R93" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
         <v>84</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D94" t="s">
         <v>13</v>
       </c>
-      <c r="O93" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P93" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q93" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="R93" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="S93" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T93" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="U93" s="2" t="s">
+      <c r="O94" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P94" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q94" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R94" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="S94" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T94" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U94" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="V94" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="W94" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="V93" s="2" t="s">
+      <c r="X94" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A94" s="1">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
         <v>85</v>
       </c>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A95" s="1">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
         <v>86</v>
-      </c>
-    </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A96" s="1">
-        <v>87</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
         <v>124</v>
       </c>
     </row>

--- a/Dot NET/VS Projects/VS Projects Templates.xlsx
+++ b/Dot NET/VS Projects/VS Projects Templates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ronniekleinfeld/Dev/White-Paper/Dot NET/VS Projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C96EAF0-048B-8840-AF38-8D0F3B50890E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A56A868-3A5A-6D40-A21C-23AC883A5CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12820" yWindow="9200" windowWidth="23020" windowHeight="12360" xr2:uid="{E69DFE7B-62AC-9547-98A7-0DA9D773F21C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21000" xr2:uid="{E69DFE7B-62AC-9547-98A7-0DA9D773F21C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -467,12 +467,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -488,11 +485,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -810,10 +809,10 @@
   <dimension ref="A1:BX129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="BD99" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="3" topLeftCell="AI99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AS102" sqref="AS102"/>
+      <selection pane="bottomRight" activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -840,12 +839,12 @@
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
       <c r="H1" s="2">
         <v>2013</v>
       </c>
@@ -957,28 +956,28 @@
       <c r="AR1" s="2">
         <v>2022</v>
       </c>
-      <c r="AS1" s="13">
+      <c r="AS1" s="11">
         <v>2013</v>
       </c>
-      <c r="AT1" s="13">
+      <c r="AT1" s="11">
         <v>2015</v>
       </c>
-      <c r="AU1" s="13">
+      <c r="AU1" s="11">
         <v>2017</v>
       </c>
-      <c r="AV1" s="13">
+      <c r="AV1" s="11">
         <v>2019</v>
       </c>
-      <c r="AW1" s="13">
+      <c r="AW1" s="11">
         <v>2022</v>
       </c>
-      <c r="AX1" s="13">
+      <c r="AX1" s="11">
         <v>2017</v>
       </c>
-      <c r="AY1" s="13">
+      <c r="AY1" s="11">
         <v>2022</v>
       </c>
-      <c r="AZ1" s="13" t="s">
+      <c r="AZ1" s="11" t="s">
         <v>117</v>
       </c>
       <c r="BA1" s="2">
@@ -1166,28 +1165,28 @@
       <c r="AR2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AS2" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT2" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU2" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV2" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW2" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="AX2" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY2" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ2" s="13" t="s">
+      <c r="AS2" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT2" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU2" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV2" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW2" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AX2" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY2" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ2" s="11" t="s">
         <v>49</v>
       </c>
       <c r="BA2" s="2" t="s">
@@ -1375,28 +1374,28 @@
       <c r="AR3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AS3" s="13" t="s">
+      <c r="AS3" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="AT3" s="13" t="s">
+      <c r="AT3" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="AU3" s="13" t="s">
+      <c r="AU3" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="AV3" s="13" t="s">
+      <c r="AV3" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="AW3" s="13" t="s">
+      <c r="AW3" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="AX3" s="13" t="s">
+      <c r="AX3" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="AY3" s="13" t="s">
+      <c r="AY3" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="AZ3" s="13" t="s">
+      <c r="AZ3" s="11" t="s">
         <v>86</v>
       </c>
       <c r="BA3" s="2" t="s">
@@ -1472,766 +1471,766 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:76" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+    <row r="4" spans="1:76" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-    </row>
-    <row r="5" spans="1:76" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" spans="1:76" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="E5" s="5" t="s">
+      <c r="B5" s="3"/>
+      <c r="E5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-    </row>
-    <row r="6" spans="1:76" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" spans="1:76" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
         <v>3</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="D6" s="8" t="s">
+      <c r="B6" s="6"/>
+      <c r="D6" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="O6" s="9"/>
-    </row>
-    <row r="7" spans="1:76" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+      <c r="O6" s="8"/>
+    </row>
+    <row r="7" spans="1:76" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="D7" s="5" t="s">
+      <c r="B7" s="3"/>
+      <c r="D7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-    </row>
-    <row r="8" spans="1:76" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+    </row>
+    <row r="8" spans="1:76" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="D8" s="8" t="s">
+      <c r="B8" s="6"/>
+      <c r="D8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="L8" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="M8" s="9" t="s">
+      <c r="M8" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="N8" s="9" t="s">
+      <c r="N8" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="O8" s="9" t="s">
+      <c r="O8" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:76" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+    <row r="9" spans="1:76" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="P9" s="5" t="s">
+      <c r="P9" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="Q9" s="5" t="s">
+      <c r="Q9" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="R9" s="5" t="s">
+      <c r="R9" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="S9" s="5" t="s">
+      <c r="S9" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:76" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+    <row r="10" spans="1:76" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="E10" s="5" t="s">
+      <c r="B10" s="3"/>
+      <c r="E10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="P10" s="5" t="s">
+      <c r="P10" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="Q10" s="5" t="s">
+      <c r="Q10" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="R10" s="5" t="s">
+      <c r="R10" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="S10" s="5" t="s">
+      <c r="S10" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:76" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
+    <row r="11" spans="1:76" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="D11" s="8" t="s">
+      <c r="B11" s="6"/>
+      <c r="D11" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="P11" s="8" t="s">
+      <c r="P11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="Q11" s="8" t="s">
+      <c r="Q11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="R11" s="8" t="s">
+      <c r="R11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="S11" s="8" t="s">
+      <c r="S11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="T11" s="8" t="s">
+      <c r="T11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="U11" s="8" t="s">
+      <c r="U11" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:76" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
+    <row r="12" spans="1:76" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="D12" s="8" t="s">
+      <c r="B12" s="6"/>
+      <c r="D12" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="P12" s="8" t="s">
+      <c r="P12" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="Q12" s="8" t="s">
+      <c r="Q12" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="R12" s="8" t="s">
+      <c r="R12" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="S12" s="8" t="s">
+      <c r="S12" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="T12" s="8" t="s">
+      <c r="T12" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="U12" s="8" t="s">
+      <c r="U12" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="V12" s="8" t="s">
+      <c r="V12" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:76" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
+    <row r="13" spans="1:76" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
         <v>13</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="W13" s="5" t="s">
+      <c r="W13" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="X13" s="5" t="s">
+      <c r="X13" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="Y13" s="5" t="s">
+      <c r="Y13" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="Z13" s="5" t="s">
+      <c r="Z13" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:76" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
+    <row r="14" spans="1:76" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
         <v>14</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="E14" s="5" t="s">
+      <c r="B14" s="3"/>
+      <c r="E14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="W14" s="5" t="s">
+      <c r="W14" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="X14" s="5" t="s">
+      <c r="X14" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="Y14" s="5" t="s">
+      <c r="Y14" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="Z14" s="5" t="s">
+      <c r="Z14" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:76" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
+    <row r="15" spans="1:76" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
         <v>15</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="E15" s="5" t="s">
+      <c r="B15" s="3"/>
+      <c r="E15" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="W15" s="5" t="s">
+      <c r="W15" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="X15" s="5" t="s">
+      <c r="X15" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="Y15" s="5" t="s">
+      <c r="Y15" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="Z15" s="5" t="s">
+      <c r="Z15" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:76" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
+    <row r="16" spans="1:76" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
         <v>16</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="E16" s="5" t="s">
+      <c r="B16" s="3"/>
+      <c r="E16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="W16" s="5" t="s">
+      <c r="W16" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="X16" s="5" t="s">
+      <c r="X16" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="Y16" s="5" t="s">
+      <c r="Y16" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="Z16" s="5" t="s">
+      <c r="Z16" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:76" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
+    <row r="17" spans="1:76" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
         <v>17</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="D17" s="8" t="s">
+      <c r="B17" s="6"/>
+      <c r="D17" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="W17" s="8" t="s">
+      <c r="W17" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="X17" s="8" t="s">
+      <c r="X17" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="Y17" s="8" t="s">
+      <c r="Y17" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="Z17" s="8" t="s">
+      <c r="Z17" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="AA17" s="8" t="s">
+      <c r="AA17" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:76" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
+    <row r="18" spans="1:76" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
         <v>18</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="D18" s="5" t="s">
+      <c r="B18" s="3"/>
+      <c r="D18" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="W18" s="5" t="s">
+      <c r="W18" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="X18" s="5" t="s">
+      <c r="X18" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="Y18" s="5" t="s">
+      <c r="Y18" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="Z18" s="5" t="s">
+      <c r="Z18" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:76" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
+    <row r="19" spans="1:76" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
         <v>19</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="D19" s="8" t="s">
+      <c r="B19" s="6"/>
+      <c r="D19" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="W19" s="8" t="s">
+      <c r="W19" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="X19" s="8" t="s">
+      <c r="X19" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="Y19" s="8" t="s">
+      <c r="Y19" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="Z19" s="8" t="s">
+      <c r="Z19" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="AA19" s="8" t="s">
+      <c r="AA19" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="AB19" s="8" t="s">
+      <c r="AB19" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:76" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
+    <row r="20" spans="1:76" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
         <v>20</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="D20" s="8" t="s">
+      <c r="B20" s="6"/>
+      <c r="D20" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="W20" s="8" t="s">
+      <c r="W20" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="X20" s="8" t="s">
+      <c r="X20" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="Y20" s="8" t="s">
+      <c r="Y20" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="Z20" s="8" t="s">
+      <c r="Z20" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="AA20" s="8" t="s">
+      <c r="AA20" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="AB20" s="8" t="s">
+      <c r="AB20" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:76" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
+    <row r="21" spans="1:76" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
         <v>22</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5" t="s">
+      <c r="B21" s="3"/>
+      <c r="C21" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AC21" s="5" t="s">
+      <c r="AC21" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="AD21" s="5" t="s">
+      <c r="AD21" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="AE21" s="5" t="s">
+      <c r="AE21" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="AF21" s="5" t="s">
+      <c r="AF21" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:76" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="7">
+    <row r="22" spans="1:76" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
         <v>23</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="E22" s="8" t="s">
+      <c r="B22" s="6"/>
+      <c r="E22" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AC22" s="8" t="s">
+      <c r="AC22" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="AD22" s="8" t="s">
+      <c r="AD22" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="AE22" s="8" t="s">
+      <c r="AE22" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="AF22" s="8" t="s">
+      <c r="AF22" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="AH22" s="8" t="s">
+      <c r="AH22" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:76" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
+    <row r="23" spans="1:76" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
         <v>24</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="E23" s="5" t="s">
+      <c r="B23" s="3"/>
+      <c r="E23" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AC23" s="5" t="s">
+      <c r="AC23" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="AD23" s="5" t="s">
+      <c r="AD23" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="AE23" s="5" t="s">
+      <c r="AE23" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="AF23" s="5" t="s">
+      <c r="AF23" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:76" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
+    <row r="24" spans="1:76" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
         <v>25</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="E24" s="5" t="s">
+      <c r="B24" s="3"/>
+      <c r="E24" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AC24" s="5" t="s">
+      <c r="AC24" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="AD24" s="5" t="s">
+      <c r="AD24" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="AE24" s="5" t="s">
+      <c r="AE24" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="AF24" s="5" t="s">
+      <c r="AF24" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:76" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="7">
+    <row r="25" spans="1:76" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="6">
         <v>26</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="D25" s="8" t="s">
+      <c r="B25" s="6"/>
+      <c r="D25" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="AC25" s="8" t="s">
+      <c r="AC25" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="AD25" s="8" t="s">
+      <c r="AD25" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="AE25" s="8" t="s">
+      <c r="AE25" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="AF25" s="8" t="s">
+      <c r="AF25" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="AG25" s="8" t="s">
+      <c r="AG25" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:76" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
+    <row r="26" spans="1:76" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
         <v>27</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="D26" s="5" t="s">
+      <c r="B26" s="3"/>
+      <c r="D26" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AC26" s="5" t="s">
+      <c r="AC26" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="AD26" s="5" t="s">
+      <c r="AD26" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="AE26" s="5" t="s">
+      <c r="AE26" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="AF26" s="5" t="s">
+      <c r="AF26" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:76" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="7">
+    <row r="27" spans="1:76" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="6">
         <v>28</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="D27" s="8" t="s">
+      <c r="B27" s="6"/>
+      <c r="D27" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AC27" s="8" t="s">
+      <c r="AC27" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="AD27" s="8" t="s">
+      <c r="AD27" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="AE27" s="8" t="s">
+      <c r="AE27" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="AF27" s="8" t="s">
+      <c r="AF27" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="AG27" s="8" t="s">
+      <c r="AG27" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="AH27" s="8" t="s">
+      <c r="AH27" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:76" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="7">
+    <row r="28" spans="1:76" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="6">
         <v>29</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="D28" s="8" t="s">
+      <c r="B28" s="6"/>
+      <c r="D28" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="AC28" s="8" t="s">
+      <c r="AC28" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="AD28" s="8" t="s">
+      <c r="AD28" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="AE28" s="8" t="s">
+      <c r="AE28" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="AF28" s="8" t="s">
+      <c r="AF28" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="AG28" s="8" t="s">
+      <c r="AG28" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="AH28" s="8" t="s">
+      <c r="AH28" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:76" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="7">
+    <row r="29" spans="1:76" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="6">
         <v>31</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="8" t="s">
+      <c r="B29" s="6"/>
+      <c r="C29" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="AI29" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ29" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK29" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL29" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AM29" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AN29" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO29" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP29" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AQ29" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR29" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AS29" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT29" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU29" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV29" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW29" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AX29" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY29" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ29" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="BA29" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="BB29" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="BC29" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="BD29" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="BE29" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="BF29" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="BG29" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="BH29" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="BI29" s="8" t="s">
+      <c r="AI29" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ29" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK29" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL29" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM29" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN29" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO29" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP29" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ29" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR29" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS29" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT29" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU29" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV29" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW29" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AX29" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY29" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ29" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="BA29" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB29" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="BC29" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="BD29" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="BE29" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="BF29" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="BG29" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="BH29" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="BI29" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="BJ29" s="8" t="s">
+      <c r="BJ29" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="BK29" s="8" t="s">
+      <c r="BK29" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="BL29" s="8" t="s">
+      <c r="BL29" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="BM29" s="8" t="s">
+      <c r="BM29" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="BN29" s="8" t="s">
+      <c r="BN29" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="BO29" s="8" t="s">
+      <c r="BO29" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="BP29" s="8" t="s">
+      <c r="BP29" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="BQ29" s="8" t="s">
+      <c r="BQ29" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="BR29" s="8" t="s">
+      <c r="BR29" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="BS29" s="8" t="s">
+      <c r="BS29" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="BT29" s="8" t="s">
+      <c r="BT29" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="BU29" s="8" t="s">
+      <c r="BU29" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="BV29" s="8" t="s">
+      <c r="BV29" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="BW29" s="8" t="s">
+      <c r="BW29" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="BX29" s="8" t="s">
+      <c r="BX29" s="7" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2257,19 +2256,19 @@
       <c r="AM30" t="s">
         <v>48</v>
       </c>
-      <c r="AN30" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO30" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP30" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AQ30" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR30" s="8" t="s">
+      <c r="AN30" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO30" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP30" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ30" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR30" s="7" t="s">
         <v>51</v>
       </c>
       <c r="AS30" t="s">
@@ -2317,79 +2316,79 @@
       <c r="BM30" t="s">
         <v>52</v>
       </c>
-      <c r="BQ30" s="10"/>
-      <c r="BR30" s="10"/>
-      <c r="BS30" s="10"/>
-      <c r="BT30" s="10"/>
-      <c r="BU30" s="10"/>
-      <c r="BV30" s="10"/>
-      <c r="BW30" s="10"/>
-      <c r="BX30" s="10"/>
+      <c r="BQ30" s="9"/>
+      <c r="BR30" s="9"/>
+      <c r="BS30" s="9"/>
+      <c r="BT30" s="9"/>
+      <c r="BU30" s="9"/>
+      <c r="BV30" s="9"/>
+      <c r="BW30" s="9"/>
+      <c r="BX30" s="9"/>
     </row>
     <row r="31" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>33</v>
       </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10" t="s">
+      <c r="D31" s="9"/>
+      <c r="E31" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="AN31" s="8"/>
-      <c r="AO31" s="8"/>
-      <c r="AP31" s="8"/>
-      <c r="AQ31" s="8"/>
-      <c r="AR31" s="8"/>
-      <c r="AX31" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY31" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ31" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="BF31" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="BG31" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="BH31" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="BN31" s="10" t="s">
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="AN31" s="7"/>
+      <c r="AO31" s="7"/>
+      <c r="AP31" s="7"/>
+      <c r="AQ31" s="7"/>
+      <c r="AR31" s="7"/>
+      <c r="AX31" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY31" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ31" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="BF31" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="BG31" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="BH31" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="BN31" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="BO31" s="10" t="s">
+      <c r="BO31" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="BP31" s="10" t="s">
+      <c r="BP31" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="BQ31" s="10" t="s">
+      <c r="BQ31" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="BR31" s="10" t="s">
+      <c r="BR31" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="BS31" s="10" t="s">
+      <c r="BS31" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="BT31" s="10" t="s">
+      <c r="BT31" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="BU31" s="10" t="s">
+      <c r="BU31" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="BV31" s="10" t="s">
+      <c r="BV31" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="BW31" s="10" t="s">
+      <c r="BW31" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="BX31" s="10" t="s">
+      <c r="BX31" s="9" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2400,22 +2399,22 @@
       <c r="E32" t="s">
         <v>105</v>
       </c>
-      <c r="AN32" s="8"/>
-      <c r="AO32" s="8"/>
-      <c r="AP32" s="8"/>
-      <c r="AQ32" s="8"/>
-      <c r="AR32" s="8"/>
+      <c r="AN32" s="7"/>
+      <c r="AO32" s="7"/>
+      <c r="AP32" s="7"/>
+      <c r="AQ32" s="7"/>
+      <c r="AR32" s="7"/>
       <c r="AY32" t="s">
         <v>49</v>
       </c>
-      <c r="BQ32" s="10"/>
-      <c r="BR32" s="10"/>
-      <c r="BS32" s="10"/>
-      <c r="BT32" s="10"/>
-      <c r="BU32" s="10"/>
-      <c r="BV32" s="10"/>
-      <c r="BW32" s="10"/>
-      <c r="BX32" s="10" t="s">
+      <c r="BQ32" s="9"/>
+      <c r="BR32" s="9"/>
+      <c r="BS32" s="9"/>
+      <c r="BT32" s="9"/>
+      <c r="BU32" s="9"/>
+      <c r="BV32" s="9"/>
+      <c r="BW32" s="9"/>
+      <c r="BX32" s="9" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2426,11 +2425,11 @@
       <c r="D33" t="s">
         <v>98</v>
       </c>
-      <c r="AN33" s="8"/>
-      <c r="AO33" s="8"/>
-      <c r="AP33" s="8"/>
-      <c r="AQ33" s="8"/>
-      <c r="AR33" s="8"/>
+      <c r="AN33" s="7"/>
+      <c r="AO33" s="7"/>
+      <c r="AP33" s="7"/>
+      <c r="AQ33" s="7"/>
+      <c r="AR33" s="7"/>
       <c r="AX33" t="s">
         <v>49</v>
       </c>
@@ -2455,28 +2454,28 @@
       <c r="BP33" t="s">
         <v>52</v>
       </c>
-      <c r="BQ33" s="10" t="s">
+      <c r="BQ33" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="BR33" s="10" t="s">
+      <c r="BR33" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="BS33" s="10" t="s">
+      <c r="BS33" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="BT33" s="10" t="s">
+      <c r="BT33" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="BU33" s="10" t="s">
+      <c r="BU33" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="BV33" s="10" t="s">
+      <c r="BV33" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="BW33" s="10" t="s">
+      <c r="BW33" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="BX33" s="10" t="s">
+      <c r="BX33" s="9" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2502,19 +2501,19 @@
       <c r="AM34" t="s">
         <v>48</v>
       </c>
-      <c r="AN34" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO34" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP34" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AQ34" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR34" s="8" t="s">
+      <c r="AN34" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO34" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP34" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ34" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR34" s="7" t="s">
         <v>51</v>
       </c>
       <c r="AS34" t="s">
@@ -2580,24 +2579,24 @@
       <c r="BO34" t="s">
         <v>52</v>
       </c>
-      <c r="BQ34" s="10" t="s">
+      <c r="BQ34" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="BR34" s="10" t="s">
+      <c r="BR34" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="BS34" s="10" t="s">
+      <c r="BS34" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="BT34" s="10"/>
-      <c r="BU34" s="10" t="s">
+      <c r="BT34" s="9"/>
+      <c r="BU34" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="BV34" s="10"/>
-      <c r="BW34" s="10" t="s">
+      <c r="BV34" s="9"/>
+      <c r="BW34" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="BX34" s="10" t="s">
+      <c r="BX34" s="9" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2608,11 +2607,11 @@
       <c r="D35" t="s">
         <v>88</v>
       </c>
-      <c r="AN35" s="8"/>
-      <c r="AO35" s="8"/>
-      <c r="AP35" s="8"/>
-      <c r="AQ35" s="8"/>
-      <c r="AR35" s="8"/>
+      <c r="AN35" s="7"/>
+      <c r="AO35" s="7"/>
+      <c r="AP35" s="7"/>
+      <c r="AQ35" s="7"/>
+      <c r="AR35" s="7"/>
       <c r="AX35" t="s">
         <v>49</v>
       </c>
@@ -2628,22 +2627,22 @@
       <c r="BN35" t="s">
         <v>52</v>
       </c>
-      <c r="BQ35" s="10" t="s">
+      <c r="BQ35" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="BR35" s="10" t="s">
+      <c r="BR35" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="BS35" s="10" t="s">
+      <c r="BS35" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="BT35" s="10" t="s">
+      <c r="BT35" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="BU35" s="10"/>
-      <c r="BV35" s="10"/>
-      <c r="BW35" s="10"/>
-      <c r="BX35" s="10" t="s">
+      <c r="BU35" s="9"/>
+      <c r="BV35" s="9"/>
+      <c r="BW35" s="9"/>
+      <c r="BX35" s="9" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2654,11 +2653,11 @@
       <c r="E36" t="s">
         <v>89</v>
       </c>
-      <c r="AN36" s="8"/>
-      <c r="AO36" s="8"/>
-      <c r="AP36" s="8"/>
-      <c r="AQ36" s="8"/>
-      <c r="AR36" s="8"/>
+      <c r="AN36" s="7"/>
+      <c r="AO36" s="7"/>
+      <c r="AP36" s="7"/>
+      <c r="AQ36" s="7"/>
+      <c r="AR36" s="7"/>
       <c r="AX36" t="s">
         <v>49</v>
       </c>
@@ -2668,18 +2667,18 @@
       <c r="AZ36" t="s">
         <v>49</v>
       </c>
-      <c r="BQ36" s="10" t="s">
+      <c r="BQ36" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="BR36" s="10" t="s">
+      <c r="BR36" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="BS36" s="10"/>
-      <c r="BT36" s="10"/>
-      <c r="BU36" s="10"/>
-      <c r="BV36" s="10"/>
-      <c r="BW36" s="10"/>
-      <c r="BX36" s="10"/>
+      <c r="BS36" s="9"/>
+      <c r="BT36" s="9"/>
+      <c r="BU36" s="9"/>
+      <c r="BV36" s="9"/>
+      <c r="BW36" s="9"/>
+      <c r="BX36" s="9"/>
     </row>
     <row r="37" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
@@ -2688,24 +2687,24 @@
       <c r="E37" t="s">
         <v>90</v>
       </c>
-      <c r="AN37" s="8"/>
-      <c r="AO37" s="8"/>
-      <c r="AP37" s="8"/>
-      <c r="AQ37" s="8"/>
-      <c r="AR37" s="8"/>
+      <c r="AN37" s="7"/>
+      <c r="AO37" s="7"/>
+      <c r="AP37" s="7"/>
+      <c r="AQ37" s="7"/>
+      <c r="AR37" s="7"/>
       <c r="AX37" t="s">
         <v>49</v>
       </c>
-      <c r="BQ37" s="10" t="s">
+      <c r="BQ37" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="BR37" s="10"/>
-      <c r="BS37" s="10"/>
-      <c r="BT37" s="10"/>
-      <c r="BU37" s="10"/>
-      <c r="BV37" s="10"/>
-      <c r="BW37" s="10"/>
-      <c r="BX37" s="10"/>
+      <c r="BR37" s="9"/>
+      <c r="BS37" s="9"/>
+      <c r="BT37" s="9"/>
+      <c r="BU37" s="9"/>
+      <c r="BV37" s="9"/>
+      <c r="BW37" s="9"/>
+      <c r="BX37" s="9"/>
     </row>
     <row r="38" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
@@ -2714,11 +2713,11 @@
       <c r="E38" t="s">
         <v>91</v>
       </c>
-      <c r="AN38" s="8"/>
-      <c r="AO38" s="8"/>
-      <c r="AP38" s="8"/>
-      <c r="AQ38" s="8"/>
-      <c r="AR38" s="8"/>
+      <c r="AN38" s="7"/>
+      <c r="AO38" s="7"/>
+      <c r="AP38" s="7"/>
+      <c r="AQ38" s="7"/>
+      <c r="AR38" s="7"/>
       <c r="AX38" t="s">
         <v>49</v>
       </c>
@@ -2728,18 +2727,18 @@
       <c r="AZ38" t="s">
         <v>49</v>
       </c>
-      <c r="BQ38" s="10" t="s">
+      <c r="BQ38" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="BR38" s="10" t="s">
+      <c r="BR38" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="BS38" s="10"/>
-      <c r="BT38" s="10"/>
-      <c r="BU38" s="10"/>
-      <c r="BV38" s="10"/>
-      <c r="BW38" s="10"/>
-      <c r="BX38" s="10"/>
+      <c r="BS38" s="9"/>
+      <c r="BT38" s="9"/>
+      <c r="BU38" s="9"/>
+      <c r="BV38" s="9"/>
+      <c r="BW38" s="9"/>
+      <c r="BX38" s="9"/>
     </row>
     <row r="39" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
@@ -2748,11 +2747,11 @@
       <c r="E39" t="s">
         <v>92</v>
       </c>
-      <c r="AN39" s="8"/>
-      <c r="AO39" s="8"/>
-      <c r="AP39" s="8"/>
-      <c r="AQ39" s="8"/>
-      <c r="AR39" s="8"/>
+      <c r="AN39" s="7"/>
+      <c r="AO39" s="7"/>
+      <c r="AP39" s="7"/>
+      <c r="AQ39" s="7"/>
+      <c r="AR39" s="7"/>
       <c r="AX39" t="s">
         <v>49</v>
       </c>
@@ -2762,18 +2761,18 @@
       <c r="AZ39" t="s">
         <v>49</v>
       </c>
-      <c r="BQ39" s="10" t="s">
+      <c r="BQ39" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="BR39" s="10" t="s">
+      <c r="BR39" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="BS39" s="10"/>
-      <c r="BT39" s="10"/>
-      <c r="BU39" s="10"/>
-      <c r="BV39" s="10"/>
-      <c r="BW39" s="10"/>
-      <c r="BX39" s="10"/>
+      <c r="BS39" s="9"/>
+      <c r="BT39" s="9"/>
+      <c r="BU39" s="9"/>
+      <c r="BV39" s="9"/>
+      <c r="BW39" s="9"/>
+      <c r="BX39" s="9"/>
     </row>
     <row r="40" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
@@ -2782,19 +2781,19 @@
       <c r="E40" t="s">
         <v>112</v>
       </c>
-      <c r="AN40" s="8"/>
-      <c r="AO40" s="8"/>
-      <c r="AP40" s="8"/>
-      <c r="AQ40" s="8"/>
-      <c r="AR40" s="8"/>
-      <c r="BQ40" s="10"/>
-      <c r="BR40" s="10"/>
-      <c r="BS40" s="10"/>
-      <c r="BT40" s="10"/>
-      <c r="BU40" s="10"/>
-      <c r="BV40" s="10"/>
-      <c r="BW40" s="10"/>
-      <c r="BX40" s="10" t="s">
+      <c r="AN40" s="7"/>
+      <c r="AO40" s="7"/>
+      <c r="AP40" s="7"/>
+      <c r="AQ40" s="7"/>
+      <c r="AR40" s="7"/>
+      <c r="BQ40" s="9"/>
+      <c r="BR40" s="9"/>
+      <c r="BS40" s="9"/>
+      <c r="BT40" s="9"/>
+      <c r="BU40" s="9"/>
+      <c r="BV40" s="9"/>
+      <c r="BW40" s="9"/>
+      <c r="BX40" s="9" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2805,19 +2804,19 @@
       <c r="F41" t="s">
         <v>23</v>
       </c>
-      <c r="AN41" s="8"/>
-      <c r="AO41" s="8"/>
-      <c r="AP41" s="8"/>
-      <c r="AQ41" s="8"/>
-      <c r="AR41" s="8"/>
-      <c r="BQ41" s="10"/>
-      <c r="BR41" s="10"/>
-      <c r="BS41" s="10"/>
-      <c r="BT41" s="10"/>
-      <c r="BU41" s="10"/>
-      <c r="BV41" s="10"/>
-      <c r="BW41" s="10"/>
-      <c r="BX41" s="10" t="s">
+      <c r="AN41" s="7"/>
+      <c r="AO41" s="7"/>
+      <c r="AP41" s="7"/>
+      <c r="AQ41" s="7"/>
+      <c r="AR41" s="7"/>
+      <c r="BQ41" s="9"/>
+      <c r="BR41" s="9"/>
+      <c r="BS41" s="9"/>
+      <c r="BT41" s="9"/>
+      <c r="BU41" s="9"/>
+      <c r="BV41" s="9"/>
+      <c r="BW41" s="9"/>
+      <c r="BX41" s="9" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2828,19 +2827,19 @@
       <c r="E42" t="s">
         <v>113</v>
       </c>
-      <c r="AN42" s="8"/>
-      <c r="AO42" s="8"/>
-      <c r="AP42" s="8"/>
-      <c r="AQ42" s="8"/>
-      <c r="AR42" s="8"/>
-      <c r="BQ42" s="10"/>
-      <c r="BR42" s="10"/>
-      <c r="BS42" s="10"/>
-      <c r="BT42" s="10"/>
-      <c r="BU42" s="10"/>
-      <c r="BV42" s="10"/>
-      <c r="BW42" s="10"/>
-      <c r="BX42" s="10" t="s">
+      <c r="AN42" s="7"/>
+      <c r="AO42" s="7"/>
+      <c r="AP42" s="7"/>
+      <c r="AQ42" s="7"/>
+      <c r="AR42" s="7"/>
+      <c r="BQ42" s="9"/>
+      <c r="BR42" s="9"/>
+      <c r="BS42" s="9"/>
+      <c r="BT42" s="9"/>
+      <c r="BU42" s="9"/>
+      <c r="BV42" s="9"/>
+      <c r="BW42" s="9"/>
+      <c r="BX42" s="9" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2851,11 +2850,11 @@
       <c r="E43" t="s">
         <v>44</v>
       </c>
-      <c r="AN43" s="8"/>
-      <c r="AO43" s="8"/>
-      <c r="AP43" s="8"/>
-      <c r="AQ43" s="8"/>
-      <c r="AR43" s="8"/>
+      <c r="AN43" s="7"/>
+      <c r="AO43" s="7"/>
+      <c r="AP43" s="7"/>
+      <c r="AQ43" s="7"/>
+      <c r="AR43" s="7"/>
       <c r="AX43" t="s">
         <v>49</v>
       </c>
@@ -2865,22 +2864,22 @@
       <c r="AZ43" t="s">
         <v>49</v>
       </c>
-      <c r="BQ43" s="10" t="s">
+      <c r="BQ43" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="BR43" s="10" t="s">
+      <c r="BR43" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="BS43" s="10" t="s">
+      <c r="BS43" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="BT43" s="10" t="s">
+      <c r="BT43" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="BU43" s="10"/>
-      <c r="BV43" s="10"/>
-      <c r="BW43" s="10"/>
-      <c r="BX43" s="10" t="s">
+      <c r="BU43" s="9"/>
+      <c r="BV43" s="9"/>
+      <c r="BW43" s="9"/>
+      <c r="BX43" s="9" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2891,27 +2890,27 @@
       <c r="D44" t="s">
         <v>103</v>
       </c>
-      <c r="AN44" s="8"/>
-      <c r="AO44" s="8"/>
-      <c r="AP44" s="8"/>
-      <c r="AQ44" s="8"/>
-      <c r="AR44" s="8"/>
-      <c r="BQ44" s="10"/>
-      <c r="BR44" s="10"/>
-      <c r="BS44" s="10" t="s">
+      <c r="AN44" s="7"/>
+      <c r="AO44" s="7"/>
+      <c r="AP44" s="7"/>
+      <c r="AQ44" s="7"/>
+      <c r="AR44" s="7"/>
+      <c r="BQ44" s="9"/>
+      <c r="BR44" s="9"/>
+      <c r="BS44" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="BT44" s="10" t="s">
+      <c r="BT44" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="BU44" s="10" t="s">
+      <c r="BU44" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="BV44" s="10" t="s">
+      <c r="BV44" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="BW44" s="10"/>
-      <c r="BX44" s="10"/>
+      <c r="BW44" s="9"/>
+      <c r="BX44" s="9"/>
     </row>
     <row r="45" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
@@ -2920,12 +2919,12 @@
       <c r="D45" t="s">
         <v>114</v>
       </c>
-      <c r="AN45" s="8"/>
-      <c r="AO45" s="8"/>
-      <c r="AP45" s="8"/>
-      <c r="AQ45" s="8"/>
-      <c r="AR45" s="8"/>
-      <c r="BX45" s="10" t="s">
+      <c r="AN45" s="7"/>
+      <c r="AO45" s="7"/>
+      <c r="AP45" s="7"/>
+      <c r="AQ45" s="7"/>
+      <c r="AR45" s="7"/>
+      <c r="BX45" s="9" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2936,12 +2935,12 @@
       <c r="E46" t="s">
         <v>115</v>
       </c>
-      <c r="AN46" s="8"/>
-      <c r="AO46" s="8"/>
-      <c r="AP46" s="8"/>
-      <c r="AQ46" s="8"/>
-      <c r="AR46" s="8"/>
-      <c r="BX46" s="10" t="s">
+      <c r="AN46" s="7"/>
+      <c r="AO46" s="7"/>
+      <c r="AP46" s="7"/>
+      <c r="AQ46" s="7"/>
+      <c r="AR46" s="7"/>
+      <c r="BX46" s="9" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2952,12 +2951,12 @@
       <c r="E47" t="s">
         <v>100</v>
       </c>
-      <c r="AN47" s="8"/>
-      <c r="AO47" s="8"/>
-      <c r="AP47" s="8"/>
-      <c r="AQ47" s="8"/>
-      <c r="AR47" s="8"/>
-      <c r="BX47" s="10" t="s">
+      <c r="AN47" s="7"/>
+      <c r="AO47" s="7"/>
+      <c r="AP47" s="7"/>
+      <c r="AQ47" s="7"/>
+      <c r="AR47" s="7"/>
+      <c r="BX47" s="9" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2968,19 +2967,19 @@
       <c r="D48" t="s">
         <v>106</v>
       </c>
-      <c r="AN48" s="8"/>
-      <c r="AO48" s="8"/>
-      <c r="AP48" s="8"/>
-      <c r="AQ48" s="8"/>
-      <c r="AR48" s="8"/>
-      <c r="BQ48" s="10"/>
-      <c r="BR48" s="10"/>
-      <c r="BS48" s="10"/>
-      <c r="BT48" s="10"/>
-      <c r="BU48" s="10"/>
-      <c r="BV48" s="10"/>
-      <c r="BW48" s="10"/>
-      <c r="BX48" s="10" t="s">
+      <c r="AN48" s="7"/>
+      <c r="AO48" s="7"/>
+      <c r="AP48" s="7"/>
+      <c r="AQ48" s="7"/>
+      <c r="AR48" s="7"/>
+      <c r="BQ48" s="9"/>
+      <c r="BR48" s="9"/>
+      <c r="BS48" s="9"/>
+      <c r="BT48" s="9"/>
+      <c r="BU48" s="9"/>
+      <c r="BV48" s="9"/>
+      <c r="BW48" s="9"/>
+      <c r="BX48" s="9" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2991,27 +2990,27 @@
       <c r="D49" t="s">
         <v>64</v>
       </c>
-      <c r="AN49" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO49" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP49" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AQ49" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR49" s="8"/>
-      <c r="BQ49" s="10"/>
-      <c r="BR49" s="10"/>
-      <c r="BS49" s="10"/>
-      <c r="BT49" s="10"/>
-      <c r="BU49" s="10"/>
-      <c r="BV49" s="10"/>
-      <c r="BW49" s="10"/>
-      <c r="BX49" s="10"/>
+      <c r="AN49" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO49" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP49" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ49" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR49" s="7"/>
+      <c r="BQ49" s="9"/>
+      <c r="BR49" s="9"/>
+      <c r="BS49" s="9"/>
+      <c r="BT49" s="9"/>
+      <c r="BU49" s="9"/>
+      <c r="BV49" s="9"/>
+      <c r="BW49" s="9"/>
+      <c r="BX49" s="9"/>
     </row>
     <row r="50" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
@@ -3020,27 +3019,27 @@
       <c r="E50" t="s">
         <v>65</v>
       </c>
-      <c r="AN50" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO50" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP50" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AQ50" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR50" s="8"/>
-      <c r="BQ50" s="10"/>
-      <c r="BR50" s="10"/>
-      <c r="BS50" s="10"/>
-      <c r="BT50" s="10"/>
-      <c r="BU50" s="10"/>
-      <c r="BV50" s="10"/>
-      <c r="BW50" s="10"/>
-      <c r="BX50" s="10"/>
+      <c r="AN50" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO50" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP50" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ50" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR50" s="7"/>
+      <c r="BQ50" s="9"/>
+      <c r="BR50" s="9"/>
+      <c r="BS50" s="9"/>
+      <c r="BT50" s="9"/>
+      <c r="BU50" s="9"/>
+      <c r="BV50" s="9"/>
+      <c r="BW50" s="9"/>
+      <c r="BX50" s="9"/>
     </row>
     <row r="51" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
@@ -3049,27 +3048,27 @@
       <c r="E51" t="s">
         <v>66</v>
       </c>
-      <c r="AN51" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO51" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP51" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AQ51" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR51" s="8"/>
-      <c r="BQ51" s="10"/>
-      <c r="BR51" s="10"/>
-      <c r="BS51" s="10"/>
-      <c r="BT51" s="10"/>
-      <c r="BU51" s="10"/>
-      <c r="BV51" s="10"/>
-      <c r="BW51" s="10"/>
-      <c r="BX51" s="10"/>
+      <c r="AN51" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO51" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP51" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ51" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR51" s="7"/>
+      <c r="BQ51" s="9"/>
+      <c r="BR51" s="9"/>
+      <c r="BS51" s="9"/>
+      <c r="BT51" s="9"/>
+      <c r="BU51" s="9"/>
+      <c r="BV51" s="9"/>
+      <c r="BW51" s="9"/>
+      <c r="BX51" s="9"/>
     </row>
     <row r="52" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
@@ -3078,27 +3077,27 @@
       <c r="E52" t="s">
         <v>67</v>
       </c>
-      <c r="AN52" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO52" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP52" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AQ52" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR52" s="8"/>
-      <c r="BQ52" s="10"/>
-      <c r="BR52" s="10"/>
-      <c r="BS52" s="10"/>
-      <c r="BT52" s="10"/>
-      <c r="BU52" s="10"/>
-      <c r="BV52" s="10"/>
-      <c r="BW52" s="10"/>
-      <c r="BX52" s="10"/>
+      <c r="AN52" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO52" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP52" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ52" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR52" s="7"/>
+      <c r="BQ52" s="9"/>
+      <c r="BR52" s="9"/>
+      <c r="BS52" s="9"/>
+      <c r="BT52" s="9"/>
+      <c r="BU52" s="9"/>
+      <c r="BV52" s="9"/>
+      <c r="BW52" s="9"/>
+      <c r="BX52" s="9"/>
     </row>
     <row r="53" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
@@ -3107,27 +3106,27 @@
       <c r="E53" t="s">
         <v>68</v>
       </c>
-      <c r="AN53" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO53" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP53" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AQ53" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR53" s="8"/>
-      <c r="BQ53" s="10"/>
-      <c r="BR53" s="10"/>
-      <c r="BS53" s="10"/>
-      <c r="BT53" s="10"/>
-      <c r="BU53" s="10"/>
-      <c r="BV53" s="10"/>
-      <c r="BW53" s="10"/>
-      <c r="BX53" s="10"/>
+      <c r="AN53" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO53" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP53" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ53" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR53" s="7"/>
+      <c r="BQ53" s="9"/>
+      <c r="BR53" s="9"/>
+      <c r="BS53" s="9"/>
+      <c r="BT53" s="9"/>
+      <c r="BU53" s="9"/>
+      <c r="BV53" s="9"/>
+      <c r="BW53" s="9"/>
+      <c r="BX53" s="9"/>
     </row>
     <row r="54" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
@@ -3136,27 +3135,27 @@
       <c r="E54" t="s">
         <v>69</v>
       </c>
-      <c r="AN54" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO54" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP54" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AQ54" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR54" s="8"/>
-      <c r="BQ54" s="10"/>
-      <c r="BR54" s="10"/>
-      <c r="BS54" s="10"/>
-      <c r="BT54" s="10"/>
-      <c r="BU54" s="10"/>
-      <c r="BV54" s="10"/>
-      <c r="BW54" s="10"/>
-      <c r="BX54" s="10"/>
+      <c r="AN54" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO54" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP54" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ54" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR54" s="7"/>
+      <c r="BQ54" s="9"/>
+      <c r="BR54" s="9"/>
+      <c r="BS54" s="9"/>
+      <c r="BT54" s="9"/>
+      <c r="BU54" s="9"/>
+      <c r="BV54" s="9"/>
+      <c r="BW54" s="9"/>
+      <c r="BX54" s="9"/>
     </row>
     <row r="55" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
@@ -3165,27 +3164,27 @@
       <c r="E55" t="s">
         <v>11</v>
       </c>
-      <c r="AN55" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO55" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP55" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AQ55" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR55" s="8"/>
-      <c r="BQ55" s="10"/>
-      <c r="BR55" s="10"/>
-      <c r="BS55" s="10"/>
-      <c r="BT55" s="10"/>
-      <c r="BU55" s="10"/>
-      <c r="BV55" s="10"/>
-      <c r="BW55" s="10"/>
-      <c r="BX55" s="10"/>
+      <c r="AN55" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO55" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP55" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ55" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR55" s="7"/>
+      <c r="BQ55" s="9"/>
+      <c r="BR55" s="9"/>
+      <c r="BS55" s="9"/>
+      <c r="BT55" s="9"/>
+      <c r="BU55" s="9"/>
+      <c r="BV55" s="9"/>
+      <c r="BW55" s="9"/>
+      <c r="BX55" s="9"/>
     </row>
     <row r="56" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
@@ -3194,25 +3193,25 @@
       <c r="E56" t="s">
         <v>82</v>
       </c>
-      <c r="AN56" s="8"/>
-      <c r="AO56" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP56" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AQ56" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR56" s="8"/>
-      <c r="BQ56" s="10"/>
-      <c r="BR56" s="10"/>
-      <c r="BS56" s="10"/>
-      <c r="BT56" s="10"/>
-      <c r="BU56" s="10"/>
-      <c r="BV56" s="10"/>
-      <c r="BW56" s="10"/>
-      <c r="BX56" s="10"/>
+      <c r="AN56" s="7"/>
+      <c r="AO56" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP56" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ56" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR56" s="7"/>
+      <c r="BQ56" s="9"/>
+      <c r="BR56" s="9"/>
+      <c r="BS56" s="9"/>
+      <c r="BT56" s="9"/>
+      <c r="BU56" s="9"/>
+      <c r="BV56" s="9"/>
+      <c r="BW56" s="9"/>
+      <c r="BX56" s="9"/>
     </row>
     <row r="57" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
@@ -3236,19 +3235,19 @@
       <c r="AM57" t="s">
         <v>48</v>
       </c>
-      <c r="AN57" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO57" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP57" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AQ57" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR57" s="8" t="s">
+      <c r="AN57" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO57" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP57" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ57" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR57" s="7" t="s">
         <v>51</v>
       </c>
       <c r="AS57" t="s">
@@ -3286,70 +3285,70 @@
       <c r="A58" s="1">
         <v>59</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D58" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="AI58" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ58" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK58" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL58" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AM58" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AN58" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO58" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP58" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AQ58" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR58" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AS58" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT58" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU58" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV58" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW58" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="BA58" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="BB58" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="BC58" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="BD58" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="BE58" s="5" t="s">
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="AI58" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ58" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK58" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL58" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM58" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN58" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO58" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP58" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ58" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR58" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS58" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT58" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU58" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV58" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW58" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="BA58" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB58" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BC58" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BD58" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BE58" s="4" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3357,70 +3356,70 @@
       <c r="A59" s="1">
         <v>60</v>
       </c>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5" t="s">
+      <c r="D59" s="4"/>
+      <c r="E59" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="AI59" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ59" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK59" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL59" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AM59" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AN59" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO59" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP59" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AQ59" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR59" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AS59" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT59" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU59" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV59" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW59" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="BA59" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="BB59" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="BC59" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="BD59" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="BE59" s="5" t="s">
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="AI59" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ59" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK59" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL59" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM59" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN59" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO59" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP59" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ59" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR59" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS59" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT59" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU59" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV59" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW59" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="BA59" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB59" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BC59" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BD59" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BE59" s="4" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3428,60 +3427,60 @@
       <c r="A60" s="1">
         <v>61</v>
       </c>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5" t="s">
+      <c r="D60" s="4"/>
+      <c r="E60" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="AI60" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ60" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK60" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL60" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AM60" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AN60" s="8"/>
-      <c r="AO60" s="8"/>
-      <c r="AP60" s="8"/>
-      <c r="AQ60" s="8"/>
-      <c r="AR60" s="8"/>
-      <c r="AS60" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT60" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU60" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV60" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW60" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="BA60" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="BB60" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="BC60" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="BD60" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="BE60" s="5" t="s">
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="AI60" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ60" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK60" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL60" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM60" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN60" s="7"/>
+      <c r="AO60" s="7"/>
+      <c r="AP60" s="7"/>
+      <c r="AQ60" s="7"/>
+      <c r="AR60" s="7"/>
+      <c r="AS60" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT60" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU60" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV60" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW60" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="BA60" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB60" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BC60" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BD60" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BE60" s="4" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3489,42 +3488,42 @@
       <c r="A61" s="1">
         <v>62</v>
       </c>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5" t="s">
+      <c r="D61" s="4"/>
+      <c r="E61" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="AI61" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ61" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK61" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL61" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AM61" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AN61" s="8"/>
-      <c r="AO61" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP61" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AQ61" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR61" s="8"/>
-      <c r="BB61" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="BE61" s="5" t="s">
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="AI61" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ61" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK61" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL61" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM61" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN61" s="7"/>
+      <c r="AO61" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP61" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ61" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR61" s="7"/>
+      <c r="BB61" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BE61" s="4" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3532,70 +3531,70 @@
       <c r="A62" s="1">
         <v>63</v>
       </c>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5" t="s">
+      <c r="D62" s="4"/>
+      <c r="E62" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="AI62" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ62" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK62" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL62" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AM62" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AN62" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO62" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP62" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AQ62" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR62" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AS62" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT62" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU62" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV62" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW62" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="BA62" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="BB62" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="BC62" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="BD62" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="BE62" s="5" t="s">
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="AI62" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ62" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK62" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL62" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM62" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN62" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO62" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP62" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ62" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR62" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS62" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT62" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU62" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV62" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW62" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="BA62" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB62" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BC62" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BD62" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BE62" s="4" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3603,53 +3602,53 @@
       <c r="A63" s="1">
         <v>64</v>
       </c>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5" t="s">
+      <c r="D63" s="4"/>
+      <c r="E63" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="AI63" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ63" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK63" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL63" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AM63" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AN63" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO63" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP63" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AQ63" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR63" s="8"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="AI63" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ63" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK63" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL63" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM63" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN63" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO63" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP63" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ63" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR63" s="7"/>
       <c r="AS63" t="s">
         <v>49</v>
       </c>
       <c r="AT63" t="s">
         <v>49</v>
       </c>
-      <c r="BA63" s="5"/>
-      <c r="BB63" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="BC63" s="5"/>
-      <c r="BD63" s="5"/>
-      <c r="BE63" s="5" t="s">
+      <c r="BA63" s="4"/>
+      <c r="BB63" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BC63" s="4"/>
+      <c r="BD63" s="4"/>
+      <c r="BE63" s="4" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3657,45 +3656,45 @@
       <c r="A64" s="1">
         <v>65</v>
       </c>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5" t="s">
+      <c r="D64" s="4"/>
+      <c r="E64" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="AI64" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ64" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK64" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL64" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AM64" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AN64" s="8"/>
-      <c r="AO64" s="8"/>
-      <c r="AP64" s="8"/>
-      <c r="AQ64" s="8"/>
-      <c r="AR64" s="8"/>
-      <c r="BA64" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="BB64" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="BC64" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="BD64" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="BE64" s="5" t="s">
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="AI64" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ64" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK64" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL64" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM64" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN64" s="7"/>
+      <c r="AO64" s="7"/>
+      <c r="AP64" s="7"/>
+      <c r="AQ64" s="7"/>
+      <c r="AR64" s="7"/>
+      <c r="BA64" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB64" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BC64" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BD64" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BE64" s="4" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3709,11 +3708,11 @@
       <c r="AI65" t="s">
         <v>48</v>
       </c>
-      <c r="AN65" s="8"/>
-      <c r="AO65" s="8"/>
-      <c r="AP65" s="8"/>
-      <c r="AQ65" s="8"/>
-      <c r="AR65" s="8"/>
+      <c r="AN65" s="7"/>
+      <c r="AO65" s="7"/>
+      <c r="AP65" s="7"/>
+      <c r="AQ65" s="7"/>
+      <c r="AR65" s="7"/>
       <c r="AY65" t="s">
         <v>49</v>
       </c>
@@ -3732,14 +3731,14 @@
       <c r="BE65" t="s">
         <v>50</v>
       </c>
-      <c r="BQ65" s="10"/>
-      <c r="BR65" s="10"/>
-      <c r="BS65" s="10"/>
-      <c r="BT65" s="10"/>
-      <c r="BU65" s="10"/>
-      <c r="BV65" s="10"/>
-      <c r="BW65" s="10"/>
-      <c r="BX65" s="10"/>
+      <c r="BQ65" s="9"/>
+      <c r="BR65" s="9"/>
+      <c r="BS65" s="9"/>
+      <c r="BT65" s="9"/>
+      <c r="BU65" s="9"/>
+      <c r="BV65" s="9"/>
+      <c r="BW65" s="9"/>
+      <c r="BX65" s="9"/>
     </row>
     <row r="66" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
@@ -3748,22 +3747,22 @@
       <c r="E66" t="s">
         <v>76</v>
       </c>
-      <c r="AN66" s="8"/>
-      <c r="AO66" s="8"/>
-      <c r="AP66" s="8"/>
-      <c r="AQ66" s="8"/>
-      <c r="AR66" s="8"/>
+      <c r="AN66" s="7"/>
+      <c r="AO66" s="7"/>
+      <c r="AP66" s="7"/>
+      <c r="AQ66" s="7"/>
+      <c r="AR66" s="7"/>
       <c r="AY66" t="s">
         <v>49</v>
       </c>
-      <c r="BQ66" s="10"/>
-      <c r="BR66" s="10"/>
-      <c r="BS66" s="10"/>
-      <c r="BT66" s="10"/>
-      <c r="BU66" s="10"/>
-      <c r="BV66" s="10"/>
-      <c r="BW66" s="10"/>
-      <c r="BX66" s="10"/>
+      <c r="BQ66" s="9"/>
+      <c r="BR66" s="9"/>
+      <c r="BS66" s="9"/>
+      <c r="BT66" s="9"/>
+      <c r="BU66" s="9"/>
+      <c r="BV66" s="9"/>
+      <c r="BW66" s="9"/>
+      <c r="BX66" s="9"/>
     </row>
     <row r="67" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
@@ -3772,22 +3771,22 @@
       <c r="F67" t="s">
         <v>100</v>
       </c>
-      <c r="AN67" s="8"/>
-      <c r="AO67" s="8"/>
-      <c r="AP67" s="8"/>
-      <c r="AQ67" s="8"/>
-      <c r="AR67" s="8"/>
+      <c r="AN67" s="7"/>
+      <c r="AO67" s="7"/>
+      <c r="AP67" s="7"/>
+      <c r="AQ67" s="7"/>
+      <c r="AR67" s="7"/>
       <c r="AY67" t="s">
         <v>49</v>
       </c>
-      <c r="BQ67" s="10"/>
-      <c r="BR67" s="10"/>
-      <c r="BS67" s="10"/>
-      <c r="BT67" s="10"/>
-      <c r="BU67" s="10"/>
-      <c r="BV67" s="10"/>
-      <c r="BW67" s="10"/>
-      <c r="BX67" s="10"/>
+      <c r="BQ67" s="9"/>
+      <c r="BR67" s="9"/>
+      <c r="BS67" s="9"/>
+      <c r="BT67" s="9"/>
+      <c r="BU67" s="9"/>
+      <c r="BV67" s="9"/>
+      <c r="BW67" s="9"/>
+      <c r="BX67" s="9"/>
     </row>
     <row r="68" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
@@ -3796,22 +3795,22 @@
       <c r="G68" t="s">
         <v>43</v>
       </c>
-      <c r="AN68" s="8"/>
-      <c r="AO68" s="8"/>
-      <c r="AP68" s="8"/>
-      <c r="AQ68" s="8"/>
-      <c r="AR68" s="8"/>
+      <c r="AN68" s="7"/>
+      <c r="AO68" s="7"/>
+      <c r="AP68" s="7"/>
+      <c r="AQ68" s="7"/>
+      <c r="AR68" s="7"/>
       <c r="AY68" t="s">
         <v>49</v>
       </c>
-      <c r="BQ68" s="10"/>
-      <c r="BR68" s="10"/>
-      <c r="BS68" s="10"/>
-      <c r="BT68" s="10"/>
-      <c r="BU68" s="10"/>
-      <c r="BV68" s="10"/>
-      <c r="BW68" s="10"/>
-      <c r="BX68" s="10"/>
+      <c r="BQ68" s="9"/>
+      <c r="BR68" s="9"/>
+      <c r="BS68" s="9"/>
+      <c r="BT68" s="9"/>
+      <c r="BU68" s="9"/>
+      <c r="BV68" s="9"/>
+      <c r="BW68" s="9"/>
+      <c r="BX68" s="9"/>
     </row>
     <row r="69" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
@@ -3835,19 +3834,19 @@
       <c r="AM69" t="s">
         <v>48</v>
       </c>
-      <c r="AN69" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO69" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP69" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AQ69" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR69" s="8" t="s">
+      <c r="AN69" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO69" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP69" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ69" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR69" s="7" t="s">
         <v>51</v>
       </c>
       <c r="AS69" t="s">
@@ -3880,14 +3879,14 @@
       <c r="BE69" t="s">
         <v>50</v>
       </c>
-      <c r="BQ69" s="10"/>
-      <c r="BR69" s="10"/>
-      <c r="BS69" s="10"/>
-      <c r="BT69" s="10"/>
-      <c r="BU69" s="10"/>
-      <c r="BV69" s="10"/>
-      <c r="BW69" s="10"/>
-      <c r="BX69" s="10"/>
+      <c r="BQ69" s="9"/>
+      <c r="BR69" s="9"/>
+      <c r="BS69" s="9"/>
+      <c r="BT69" s="9"/>
+      <c r="BU69" s="9"/>
+      <c r="BV69" s="9"/>
+      <c r="BW69" s="9"/>
+      <c r="BX69" s="9"/>
     </row>
     <row r="70" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
@@ -3911,19 +3910,19 @@
       <c r="AM70" t="s">
         <v>48</v>
       </c>
-      <c r="AN70" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO70" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP70" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AQ70" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR70" s="8" t="s">
+      <c r="AN70" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO70" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP70" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ70" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR70" s="7" t="s">
         <v>51</v>
       </c>
       <c r="AS70" t="s">
@@ -3956,14 +3955,14 @@
       <c r="BE70" t="s">
         <v>50</v>
       </c>
-      <c r="BQ70" s="10"/>
-      <c r="BR70" s="10"/>
-      <c r="BS70" s="10"/>
-      <c r="BT70" s="10"/>
-      <c r="BU70" s="10"/>
-      <c r="BV70" s="10"/>
-      <c r="BW70" s="10"/>
-      <c r="BX70" s="10"/>
+      <c r="BQ70" s="9"/>
+      <c r="BR70" s="9"/>
+      <c r="BS70" s="9"/>
+      <c r="BT70" s="9"/>
+      <c r="BU70" s="9"/>
+      <c r="BV70" s="9"/>
+      <c r="BW70" s="9"/>
+      <c r="BX70" s="9"/>
     </row>
     <row r="71" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
@@ -3987,19 +3986,19 @@
       <c r="AM71" t="s">
         <v>48</v>
       </c>
-      <c r="AN71" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO71" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP71" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AQ71" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR71" s="8" t="s">
+      <c r="AN71" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO71" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP71" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ71" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR71" s="7" t="s">
         <v>51</v>
       </c>
       <c r="AS71" t="s">
@@ -4032,14 +4031,14 @@
       <c r="BE71" t="s">
         <v>50</v>
       </c>
-      <c r="BQ71" s="10"/>
-      <c r="BR71" s="10"/>
-      <c r="BS71" s="10"/>
-      <c r="BT71" s="10"/>
-      <c r="BU71" s="10"/>
-      <c r="BV71" s="10"/>
-      <c r="BW71" s="10"/>
-      <c r="BX71" s="10"/>
+      <c r="BQ71" s="9"/>
+      <c r="BR71" s="9"/>
+      <c r="BS71" s="9"/>
+      <c r="BT71" s="9"/>
+      <c r="BU71" s="9"/>
+      <c r="BV71" s="9"/>
+      <c r="BW71" s="9"/>
+      <c r="BX71" s="9"/>
     </row>
     <row r="72" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
@@ -4057,19 +4056,19 @@
       <c r="AM72" t="s">
         <v>48</v>
       </c>
-      <c r="AN72" s="8"/>
-      <c r="AO72" s="8"/>
-      <c r="AP72" s="8"/>
-      <c r="AQ72" s="8"/>
-      <c r="AR72" s="8"/>
-      <c r="BQ72" s="10"/>
-      <c r="BR72" s="10"/>
-      <c r="BS72" s="10"/>
-      <c r="BT72" s="10"/>
-      <c r="BU72" s="10"/>
-      <c r="BV72" s="10"/>
-      <c r="BW72" s="10"/>
-      <c r="BX72" s="10"/>
+      <c r="AN72" s="7"/>
+      <c r="AO72" s="7"/>
+      <c r="AP72" s="7"/>
+      <c r="AQ72" s="7"/>
+      <c r="AR72" s="7"/>
+      <c r="BQ72" s="9"/>
+      <c r="BR72" s="9"/>
+      <c r="BS72" s="9"/>
+      <c r="BT72" s="9"/>
+      <c r="BU72" s="9"/>
+      <c r="BV72" s="9"/>
+      <c r="BW72" s="9"/>
+      <c r="BX72" s="9"/>
     </row>
     <row r="73" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
@@ -4093,19 +4092,19 @@
       <c r="AM73" t="s">
         <v>48</v>
       </c>
-      <c r="AN73" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO73" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP73" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AQ73" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR73" s="8" t="s">
+      <c r="AN73" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO73" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP73" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ73" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR73" s="7" t="s">
         <v>51</v>
       </c>
       <c r="AS73" t="s">
@@ -4138,93 +4137,93 @@
       <c r="BE73" t="s">
         <v>50</v>
       </c>
-      <c r="BQ73" s="10"/>
-      <c r="BR73" s="10"/>
-      <c r="BS73" s="10"/>
-      <c r="BT73" s="10"/>
-      <c r="BU73" s="10"/>
-      <c r="BV73" s="10"/>
-      <c r="BW73" s="10"/>
-      <c r="BX73" s="10"/>
-    </row>
-    <row r="74" spans="1:76" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="7">
+      <c r="BQ73" s="9"/>
+      <c r="BR73" s="9"/>
+      <c r="BS73" s="9"/>
+      <c r="BT73" s="9"/>
+      <c r="BU73" s="9"/>
+      <c r="BV73" s="9"/>
+      <c r="BW73" s="9"/>
+      <c r="BX73" s="9"/>
+    </row>
+    <row r="74" spans="1:76" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="6">
         <v>75</v>
       </c>
-      <c r="B74" s="7"/>
-      <c r="D74" s="8" t="s">
+      <c r="B74" s="6"/>
+      <c r="D74" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AI74" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ74" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK74" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL74" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AM74" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="AS74" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT74" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU74" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV74" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW74" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AX74" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY74" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ74" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="BA74" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="BB74" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="BC74" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="BD74" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="BE74" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="BF74" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="BG74" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="BS74" s="8" t="s">
+      <c r="AI74" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ74" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK74" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL74" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM74" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS74" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT74" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU74" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV74" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW74" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AX74" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY74" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ74" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="BA74" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB74" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="BC74" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="BD74" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="BE74" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="BF74" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="BG74" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="BS74" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="BT74" s="8" t="s">
+      <c r="BT74" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="BU74" s="8" t="s">
+      <c r="BU74" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="BV74" s="8" t="s">
+      <c r="BV74" s="7" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4250,11 +4249,11 @@
       <c r="AM75" t="s">
         <v>48</v>
       </c>
-      <c r="AN75" s="8"/>
-      <c r="AO75" s="8"/>
-      <c r="AP75" s="8"/>
-      <c r="AQ75" s="8"/>
-      <c r="AR75" s="8"/>
+      <c r="AN75" s="7"/>
+      <c r="AO75" s="7"/>
+      <c r="AP75" s="7"/>
+      <c r="AQ75" s="7"/>
+      <c r="AR75" s="7"/>
       <c r="AS75" t="s">
         <v>49</v>
       </c>
@@ -4267,14 +4266,14 @@
       <c r="BE75" t="s">
         <v>50</v>
       </c>
-      <c r="BQ75" s="10"/>
-      <c r="BR75" s="10"/>
-      <c r="BS75" s="10"/>
-      <c r="BT75" s="10"/>
-      <c r="BU75" s="10"/>
-      <c r="BV75" s="10"/>
-      <c r="BW75" s="10"/>
-      <c r="BX75" s="10"/>
+      <c r="BQ75" s="9"/>
+      <c r="BR75" s="9"/>
+      <c r="BS75" s="9"/>
+      <c r="BT75" s="9"/>
+      <c r="BU75" s="9"/>
+      <c r="BV75" s="9"/>
+      <c r="BW75" s="9"/>
+      <c r="BX75" s="9"/>
     </row>
     <row r="76" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
@@ -4298,11 +4297,11 @@
       <c r="AM76" t="s">
         <v>48</v>
       </c>
-      <c r="AN76" s="8"/>
-      <c r="AO76" s="8"/>
-      <c r="AP76" s="8"/>
-      <c r="AQ76" s="8"/>
-      <c r="AR76" s="8"/>
+      <c r="AN76" s="7"/>
+      <c r="AO76" s="7"/>
+      <c r="AP76" s="7"/>
+      <c r="AQ76" s="7"/>
+      <c r="AR76" s="7"/>
       <c r="AS76" t="s">
         <v>49</v>
       </c>
@@ -4359,22 +4358,22 @@
       <c r="AM77" t="s">
         <v>48</v>
       </c>
-      <c r="AN77" s="8"/>
-      <c r="AO77" s="8"/>
-      <c r="AP77" s="8"/>
-      <c r="AQ77" s="8"/>
-      <c r="AR77" s="8"/>
+      <c r="AN77" s="7"/>
+      <c r="AO77" s="7"/>
+      <c r="AP77" s="7"/>
+      <c r="AQ77" s="7"/>
+      <c r="AR77" s="7"/>
       <c r="AT77" t="s">
         <v>49</v>
       </c>
-      <c r="BQ77" s="10"/>
-      <c r="BR77" s="10"/>
-      <c r="BS77" s="10"/>
-      <c r="BT77" s="10"/>
-      <c r="BU77" s="10"/>
-      <c r="BV77" s="10"/>
-      <c r="BW77" s="10"/>
-      <c r="BX77" s="10"/>
+      <c r="BQ77" s="9"/>
+      <c r="BR77" s="9"/>
+      <c r="BS77" s="9"/>
+      <c r="BT77" s="9"/>
+      <c r="BU77" s="9"/>
+      <c r="BV77" s="9"/>
+      <c r="BW77" s="9"/>
+      <c r="BX77" s="9"/>
     </row>
     <row r="78" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
@@ -4389,11 +4388,11 @@
       <c r="AJ78" t="s">
         <v>48</v>
       </c>
-      <c r="AN78" s="8"/>
-      <c r="AO78" s="8"/>
-      <c r="AP78" s="8"/>
-      <c r="AQ78" s="8"/>
-      <c r="AR78" s="8"/>
+      <c r="AN78" s="7"/>
+      <c r="AO78" s="7"/>
+      <c r="AP78" s="7"/>
+      <c r="AQ78" s="7"/>
+      <c r="AR78" s="7"/>
       <c r="BA78" t="s">
         <v>50</v>
       </c>
@@ -4415,10 +4414,10 @@
       <c r="BG78" t="s">
         <v>50</v>
       </c>
-      <c r="BT78" s="10" t="s">
+      <c r="BT78" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="BV78" s="10" t="s">
+      <c r="BV78" s="9" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4429,15 +4428,15 @@
       <c r="E79" t="s">
         <v>102</v>
       </c>
-      <c r="AN79" s="8"/>
-      <c r="AO79" s="8"/>
-      <c r="AP79" s="8"/>
-      <c r="AQ79" s="8"/>
-      <c r="AR79" s="8"/>
-      <c r="BS79" s="10" t="s">
+      <c r="AN79" s="7"/>
+      <c r="AO79" s="7"/>
+      <c r="AP79" s="7"/>
+      <c r="AQ79" s="7"/>
+      <c r="AR79" s="7"/>
+      <c r="BS79" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="BU79" s="10" t="s">
+      <c r="BU79" s="9" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4448,22 +4447,22 @@
       <c r="D80" t="s">
         <v>106</v>
       </c>
-      <c r="AN80" s="8"/>
-      <c r="AO80" s="8"/>
-      <c r="AP80" s="8"/>
-      <c r="AQ80" s="8"/>
-      <c r="AR80" s="8"/>
+      <c r="AN80" s="7"/>
+      <c r="AO80" s="7"/>
+      <c r="AP80" s="7"/>
+      <c r="AQ80" s="7"/>
+      <c r="AR80" s="7"/>
       <c r="AY80" t="s">
         <v>49</v>
       </c>
-      <c r="BQ80" s="10"/>
-      <c r="BR80" s="10"/>
-      <c r="BS80" s="10"/>
-      <c r="BT80" s="10"/>
-      <c r="BU80" s="10"/>
-      <c r="BV80" s="10"/>
-      <c r="BW80" s="10"/>
-      <c r="BX80" s="10"/>
+      <c r="BQ80" s="9"/>
+      <c r="BR80" s="9"/>
+      <c r="BS80" s="9"/>
+      <c r="BT80" s="9"/>
+      <c r="BU80" s="9"/>
+      <c r="BV80" s="9"/>
+      <c r="BW80" s="9"/>
+      <c r="BX80" s="9"/>
     </row>
     <row r="81" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
@@ -4472,22 +4471,22 @@
       <c r="E81" t="s">
         <v>107</v>
       </c>
-      <c r="AN81" s="8"/>
-      <c r="AO81" s="8"/>
-      <c r="AP81" s="8"/>
-      <c r="AQ81" s="8"/>
-      <c r="AR81" s="8"/>
+      <c r="AN81" s="7"/>
+      <c r="AO81" s="7"/>
+      <c r="AP81" s="7"/>
+      <c r="AQ81" s="7"/>
+      <c r="AR81" s="7"/>
       <c r="AY81" t="s">
         <v>49</v>
       </c>
-      <c r="BQ81" s="10"/>
-      <c r="BR81" s="10"/>
-      <c r="BS81" s="10"/>
-      <c r="BT81" s="10"/>
-      <c r="BU81" s="10"/>
-      <c r="BV81" s="10"/>
-      <c r="BW81" s="10"/>
-      <c r="BX81" s="10"/>
+      <c r="BQ81" s="9"/>
+      <c r="BR81" s="9"/>
+      <c r="BS81" s="9"/>
+      <c r="BT81" s="9"/>
+      <c r="BU81" s="9"/>
+      <c r="BV81" s="9"/>
+      <c r="BW81" s="9"/>
+      <c r="BX81" s="9"/>
     </row>
     <row r="82" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
@@ -4496,22 +4495,22 @@
       <c r="F82" t="s">
         <v>108</v>
       </c>
-      <c r="AN82" s="8"/>
-      <c r="AO82" s="8"/>
-      <c r="AP82" s="8"/>
-      <c r="AQ82" s="8"/>
-      <c r="AR82" s="8"/>
+      <c r="AN82" s="7"/>
+      <c r="AO82" s="7"/>
+      <c r="AP82" s="7"/>
+      <c r="AQ82" s="7"/>
+      <c r="AR82" s="7"/>
       <c r="AY82" t="s">
         <v>49</v>
       </c>
-      <c r="BQ82" s="10"/>
-      <c r="BR82" s="10"/>
-      <c r="BS82" s="10"/>
-      <c r="BT82" s="10"/>
-      <c r="BU82" s="10"/>
-      <c r="BV82" s="10"/>
-      <c r="BW82" s="10"/>
-      <c r="BX82" s="10"/>
+      <c r="BQ82" s="9"/>
+      <c r="BR82" s="9"/>
+      <c r="BS82" s="9"/>
+      <c r="BT82" s="9"/>
+      <c r="BU82" s="9"/>
+      <c r="BV82" s="9"/>
+      <c r="BW82" s="9"/>
+      <c r="BX82" s="9"/>
     </row>
     <row r="83" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
@@ -4520,22 +4519,22 @@
       <c r="E83" t="s">
         <v>109</v>
       </c>
-      <c r="AN83" s="8"/>
-      <c r="AO83" s="8"/>
-      <c r="AP83" s="8"/>
-      <c r="AQ83" s="8"/>
-      <c r="AR83" s="8"/>
+      <c r="AN83" s="7"/>
+      <c r="AO83" s="7"/>
+      <c r="AP83" s="7"/>
+      <c r="AQ83" s="7"/>
+      <c r="AR83" s="7"/>
       <c r="AY83" t="s">
         <v>49</v>
       </c>
-      <c r="BQ83" s="10"/>
-      <c r="BR83" s="10"/>
-      <c r="BS83" s="10"/>
-      <c r="BT83" s="10"/>
-      <c r="BU83" s="10"/>
-      <c r="BV83" s="10"/>
-      <c r="BW83" s="10"/>
-      <c r="BX83" s="10"/>
+      <c r="BQ83" s="9"/>
+      <c r="BR83" s="9"/>
+      <c r="BS83" s="9"/>
+      <c r="BT83" s="9"/>
+      <c r="BU83" s="9"/>
+      <c r="BV83" s="9"/>
+      <c r="BW83" s="9"/>
+      <c r="BX83" s="9"/>
     </row>
     <row r="84" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
@@ -4556,19 +4555,19 @@
       <c r="AL84" t="s">
         <v>48</v>
       </c>
-      <c r="AN84" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO84" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP84" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AQ84" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR84" s="8"/>
+      <c r="AN84" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO84" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP84" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ84" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR84" s="7"/>
       <c r="AS84" t="s">
         <v>49</v>
       </c>
@@ -4596,14 +4595,14 @@
       <c r="BE84" t="s">
         <v>50</v>
       </c>
-      <c r="BQ84" s="10"/>
-      <c r="BR84" s="10"/>
-      <c r="BS84" s="10"/>
-      <c r="BT84" s="10"/>
-      <c r="BU84" s="10"/>
-      <c r="BV84" s="10"/>
-      <c r="BW84" s="10"/>
-      <c r="BX84" s="10"/>
+      <c r="BQ84" s="9"/>
+      <c r="BR84" s="9"/>
+      <c r="BS84" s="9"/>
+      <c r="BT84" s="9"/>
+      <c r="BU84" s="9"/>
+      <c r="BV84" s="9"/>
+      <c r="BW84" s="9"/>
+      <c r="BX84" s="9"/>
     </row>
     <row r="85" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
@@ -4627,19 +4626,19 @@
       <c r="AM85" t="s">
         <v>48</v>
       </c>
-      <c r="AN85" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO85" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP85" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AQ85" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR85" s="8"/>
+      <c r="AN85" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO85" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP85" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ85" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR85" s="7"/>
       <c r="AS85" t="s">
         <v>49</v>
       </c>
@@ -4699,11 +4698,11 @@
       <c r="AL86" t="s">
         <v>48</v>
       </c>
-      <c r="AN86" s="8"/>
-      <c r="AO86" s="8"/>
-      <c r="AP86" s="8"/>
-      <c r="AQ86" s="8"/>
-      <c r="AR86" s="8"/>
+      <c r="AN86" s="7"/>
+      <c r="AO86" s="7"/>
+      <c r="AP86" s="7"/>
+      <c r="AQ86" s="7"/>
+      <c r="AR86" s="7"/>
       <c r="AS86" t="s">
         <v>49</v>
       </c>
@@ -4716,14 +4715,14 @@
       <c r="BE86" t="s">
         <v>50</v>
       </c>
-      <c r="BQ86" s="10"/>
-      <c r="BR86" s="10"/>
-      <c r="BS86" s="10"/>
-      <c r="BT86" s="10"/>
-      <c r="BU86" s="10"/>
-      <c r="BV86" s="10"/>
-      <c r="BW86" s="10"/>
-      <c r="BX86" s="10"/>
+      <c r="BQ86" s="9"/>
+      <c r="BR86" s="9"/>
+      <c r="BS86" s="9"/>
+      <c r="BT86" s="9"/>
+      <c r="BU86" s="9"/>
+      <c r="BV86" s="9"/>
+      <c r="BW86" s="9"/>
+      <c r="BX86" s="9"/>
     </row>
     <row r="87" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
@@ -4732,11 +4731,11 @@
       <c r="E87" t="s">
         <v>93</v>
       </c>
-      <c r="AN87" s="8"/>
-      <c r="AO87" s="8"/>
-      <c r="AP87" s="8"/>
-      <c r="AQ87" s="8"/>
-      <c r="AR87" s="8"/>
+      <c r="AN87" s="7"/>
+      <c r="AO87" s="7"/>
+      <c r="AP87" s="7"/>
+      <c r="AQ87" s="7"/>
+      <c r="AR87" s="7"/>
       <c r="AX87" t="s">
         <v>49</v>
       </c>
@@ -4769,19 +4768,19 @@
       <c r="AM88" t="s">
         <v>48</v>
       </c>
-      <c r="AN88" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO88" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP88" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AQ88" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR88" s="8"/>
+      <c r="AN88" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO88" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP88" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ88" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR88" s="7"/>
       <c r="AS88" t="s">
         <v>49</v>
       </c>
@@ -4794,14 +4793,14 @@
       <c r="BE88" t="s">
         <v>50</v>
       </c>
-      <c r="BQ88" s="10"/>
-      <c r="BR88" s="10"/>
-      <c r="BS88" s="10"/>
-      <c r="BT88" s="10"/>
-      <c r="BU88" s="10"/>
-      <c r="BV88" s="10"/>
-      <c r="BW88" s="10"/>
-      <c r="BX88" s="10"/>
+      <c r="BQ88" s="9"/>
+      <c r="BR88" s="9"/>
+      <c r="BS88" s="9"/>
+      <c r="BT88" s="9"/>
+      <c r="BU88" s="9"/>
+      <c r="BV88" s="9"/>
+      <c r="BW88" s="9"/>
+      <c r="BX88" s="9"/>
     </row>
     <row r="89" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
@@ -4819,25 +4818,25 @@
       <c r="AM89" t="s">
         <v>48</v>
       </c>
-      <c r="AN89" s="8"/>
-      <c r="AO89" s="8"/>
-      <c r="AP89" s="8"/>
-      <c r="AQ89" s="8"/>
-      <c r="AR89" s="8"/>
+      <c r="AN89" s="7"/>
+      <c r="AO89" s="7"/>
+      <c r="AP89" s="7"/>
+      <c r="AQ89" s="7"/>
+      <c r="AR89" s="7"/>
       <c r="BB89" t="s">
         <v>50</v>
       </c>
       <c r="BE89" t="s">
         <v>50</v>
       </c>
-      <c r="BQ89" s="10"/>
-      <c r="BR89" s="10"/>
-      <c r="BS89" s="10"/>
-      <c r="BT89" s="10"/>
-      <c r="BU89" s="10"/>
-      <c r="BV89" s="10"/>
-      <c r="BW89" s="10"/>
-      <c r="BX89" s="10"/>
+      <c r="BQ89" s="9"/>
+      <c r="BR89" s="9"/>
+      <c r="BS89" s="9"/>
+      <c r="BT89" s="9"/>
+      <c r="BU89" s="9"/>
+      <c r="BV89" s="9"/>
+      <c r="BW89" s="9"/>
+      <c r="BX89" s="9"/>
     </row>
     <row r="90" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
@@ -4858,22 +4857,22 @@
       <c r="AM90" t="s">
         <v>48</v>
       </c>
-      <c r="AN90" s="8"/>
-      <c r="AO90" s="8"/>
-      <c r="AP90" s="8"/>
-      <c r="AQ90" s="8"/>
-      <c r="AR90" s="8"/>
+      <c r="AN90" s="7"/>
+      <c r="AO90" s="7"/>
+      <c r="AP90" s="7"/>
+      <c r="AQ90" s="7"/>
+      <c r="AR90" s="7"/>
       <c r="AT90" t="s">
         <v>49</v>
       </c>
-      <c r="BQ90" s="10"/>
-      <c r="BR90" s="10"/>
-      <c r="BS90" s="10"/>
-      <c r="BT90" s="10"/>
-      <c r="BU90" s="10"/>
-      <c r="BV90" s="10"/>
-      <c r="BW90" s="10"/>
-      <c r="BX90" s="10"/>
+      <c r="BQ90" s="9"/>
+      <c r="BR90" s="9"/>
+      <c r="BS90" s="9"/>
+      <c r="BT90" s="9"/>
+      <c r="BU90" s="9"/>
+      <c r="BV90" s="9"/>
+      <c r="BW90" s="9"/>
+      <c r="BX90" s="9"/>
     </row>
     <row r="91" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
@@ -4885,11 +4884,11 @@
       <c r="AI91" t="s">
         <v>48</v>
       </c>
-      <c r="AN91" s="8"/>
-      <c r="AO91" s="8"/>
-      <c r="AP91" s="8"/>
-      <c r="AQ91" s="8"/>
-      <c r="AR91" s="8"/>
+      <c r="AN91" s="7"/>
+      <c r="AO91" s="7"/>
+      <c r="AP91" s="7"/>
+      <c r="AQ91" s="7"/>
+      <c r="AR91" s="7"/>
       <c r="BB91" t="s">
         <v>50</v>
       </c>
@@ -4907,11 +4906,11 @@
       <c r="AI92" t="s">
         <v>48</v>
       </c>
-      <c r="AN92" s="8"/>
-      <c r="AO92" s="8"/>
-      <c r="AP92" s="8"/>
-      <c r="AQ92" s="8"/>
-      <c r="AR92" s="8"/>
+      <c r="AN92" s="7"/>
+      <c r="AO92" s="7"/>
+      <c r="AP92" s="7"/>
+      <c r="AQ92" s="7"/>
+      <c r="AR92" s="7"/>
       <c r="BB92" t="s">
         <v>50</v>
       </c>
@@ -4929,11 +4928,11 @@
       <c r="AI93" t="s">
         <v>48</v>
       </c>
-      <c r="AN93" s="8"/>
-      <c r="AO93" s="8"/>
-      <c r="AP93" s="8"/>
-      <c r="AQ93" s="8"/>
-      <c r="AR93" s="8"/>
+      <c r="AN93" s="7"/>
+      <c r="AO93" s="7"/>
+      <c r="AP93" s="7"/>
+      <c r="AQ93" s="7"/>
+      <c r="AR93" s="7"/>
       <c r="BB93" t="s">
         <v>50</v>
       </c>
@@ -4951,11 +4950,11 @@
       <c r="AI94" t="s">
         <v>48</v>
       </c>
-      <c r="AN94" s="8"/>
-      <c r="AO94" s="8"/>
-      <c r="AP94" s="8"/>
-      <c r="AQ94" s="8"/>
-      <c r="AR94" s="8"/>
+      <c r="AN94" s="7"/>
+      <c r="AO94" s="7"/>
+      <c r="AP94" s="7"/>
+      <c r="AQ94" s="7"/>
+      <c r="AR94" s="7"/>
       <c r="BB94" t="s">
         <v>50</v>
       </c>
@@ -4985,19 +4984,19 @@
       <c r="AM95" t="s">
         <v>48</v>
       </c>
-      <c r="AN95" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO95" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP95" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AQ95" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR95" s="8" t="s">
+      <c r="AN95" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO95" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP95" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ95" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR95" s="7" t="s">
         <v>51</v>
       </c>
       <c r="AS95" t="s">
@@ -5038,12 +5037,12 @@
       <c r="A96" s="1">
         <v>97</v>
       </c>
-      <c r="D96" s="5" t="s">
+      <c r="D96" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E96" s="5"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="5"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
       <c r="AI96" t="s">
         <v>48</v>
       </c>
@@ -5059,11 +5058,11 @@
       <c r="AM96" t="s">
         <v>48</v>
       </c>
-      <c r="AN96" s="8"/>
-      <c r="AO96" s="8"/>
-      <c r="AP96" s="8"/>
-      <c r="AQ96" s="8"/>
-      <c r="AR96" s="8"/>
+      <c r="AN96" s="7"/>
+      <c r="AO96" s="7"/>
+      <c r="AP96" s="7"/>
+      <c r="AQ96" s="7"/>
+      <c r="AR96" s="7"/>
       <c r="AS96" t="s">
         <v>49</v>
       </c>
@@ -5105,36 +5104,36 @@
       <c r="A97" s="1">
         <v>98</v>
       </c>
-      <c r="D97" s="10" t="s">
+      <c r="D97" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="E97" s="10"/>
-      <c r="F97" s="10"/>
-      <c r="G97" s="10"/>
-      <c r="AN97" s="8"/>
-      <c r="AO97" s="8"/>
-      <c r="AP97" s="8"/>
-      <c r="AQ97" s="8"/>
-      <c r="AR97" s="8"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+      <c r="AN97" s="7"/>
+      <c r="AO97" s="7"/>
+      <c r="AP97" s="7"/>
+      <c r="AQ97" s="7"/>
+      <c r="AR97" s="7"/>
       <c r="AX97" t="s">
         <v>49</v>
       </c>
-      <c r="BQ97" s="10" t="s">
+      <c r="BQ97" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="BR97" s="10" t="s">
+      <c r="BR97" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="BS97" s="10" t="s">
+      <c r="BS97" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="BT97" s="10" t="s">
+      <c r="BT97" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="BU97" s="10" t="s">
+      <c r="BU97" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="BV97" s="10" t="s">
+      <c r="BV97" s="9" t="s">
         <v>104</v>
       </c>
     </row>
@@ -5157,22 +5156,22 @@
       <c r="AM98" t="s">
         <v>48</v>
       </c>
-      <c r="AN98" s="8"/>
-      <c r="AO98" s="8"/>
-      <c r="AP98" s="8"/>
-      <c r="AQ98" s="8"/>
-      <c r="AR98" s="8"/>
+      <c r="AN98" s="7"/>
+      <c r="AO98" s="7"/>
+      <c r="AP98" s="7"/>
+      <c r="AQ98" s="7"/>
+      <c r="AR98" s="7"/>
       <c r="AT98" t="s">
         <v>49</v>
       </c>
-      <c r="BQ98" s="10"/>
-      <c r="BR98" s="10"/>
-      <c r="BS98" s="10"/>
-      <c r="BT98" s="10"/>
-      <c r="BU98" s="10"/>
-      <c r="BV98" s="10"/>
-      <c r="BW98" s="10"/>
-      <c r="BX98" s="10"/>
+      <c r="BQ98" s="9"/>
+      <c r="BR98" s="9"/>
+      <c r="BS98" s="9"/>
+      <c r="BT98" s="9"/>
+      <c r="BU98" s="9"/>
+      <c r="BV98" s="9"/>
+      <c r="BW98" s="9"/>
+      <c r="BX98" s="9"/>
     </row>
     <row r="99" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
@@ -5196,11 +5195,11 @@
       <c r="AM99" t="s">
         <v>48</v>
       </c>
-      <c r="AN99" s="8"/>
-      <c r="AO99" s="8"/>
-      <c r="AP99" s="8"/>
-      <c r="AQ99" s="8"/>
-      <c r="AR99" s="8"/>
+      <c r="AN99" s="7"/>
+      <c r="AO99" s="7"/>
+      <c r="AP99" s="7"/>
+      <c r="AQ99" s="7"/>
+      <c r="AR99" s="7"/>
       <c r="AS99" t="s">
         <v>49</v>
       </c>
@@ -5263,11 +5262,11 @@
       <c r="AM100" t="s">
         <v>48</v>
       </c>
-      <c r="AN100" s="8"/>
-      <c r="AO100" s="8"/>
-      <c r="AP100" s="8"/>
-      <c r="AQ100" s="8"/>
-      <c r="AR100" s="8"/>
+      <c r="AN100" s="7"/>
+      <c r="AO100" s="7"/>
+      <c r="AP100" s="7"/>
+      <c r="AQ100" s="7"/>
+      <c r="AR100" s="7"/>
       <c r="AS100" t="s">
         <v>49</v>
       </c>
@@ -5286,7 +5285,7 @@
       <c r="AX100" t="s">
         <v>49</v>
       </c>
-      <c r="BQ100" s="10" t="s">
+      <c r="BQ100" s="9" t="s">
         <v>99</v>
       </c>
     </row>
@@ -5312,11 +5311,11 @@
       <c r="AM101" t="s">
         <v>48</v>
       </c>
-      <c r="AN101" s="8"/>
-      <c r="AO101" s="8"/>
-      <c r="AP101" s="8"/>
-      <c r="AQ101" s="8"/>
-      <c r="AR101" s="8"/>
+      <c r="AN101" s="7"/>
+      <c r="AO101" s="7"/>
+      <c r="AP101" s="7"/>
+      <c r="AQ101" s="7"/>
+      <c r="AR101" s="7"/>
       <c r="AS101" t="s">
         <v>49</v>
       </c>
@@ -5335,7 +5334,7 @@
       <c r="AX101" t="s">
         <v>49</v>
       </c>
-      <c r="BQ101" s="10" t="s">
+      <c r="BQ101" s="9" t="s">
         <v>99</v>
       </c>
     </row>
@@ -5361,11 +5360,11 @@
       <c r="AM102" t="s">
         <v>48</v>
       </c>
-      <c r="AN102" s="8"/>
-      <c r="AO102" s="8"/>
-      <c r="AP102" s="8"/>
-      <c r="AQ102" s="8"/>
-      <c r="AR102" s="8"/>
+      <c r="AN102" s="7"/>
+      <c r="AO102" s="7"/>
+      <c r="AP102" s="7"/>
+      <c r="AQ102" s="7"/>
+      <c r="AR102" s="7"/>
       <c r="AS102" t="s">
         <v>49</v>
       </c>
@@ -5405,10 +5404,10 @@
       <c r="BE102" t="s">
         <v>50</v>
       </c>
-      <c r="BQ102" s="10" t="s">
+      <c r="BQ102" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="BR102" s="10" t="s">
+      <c r="BR102" s="9" t="s">
         <v>99</v>
       </c>
     </row>
@@ -5419,11 +5418,11 @@
       <c r="F103" t="s">
         <v>94</v>
       </c>
-      <c r="AN103" s="8"/>
-      <c r="AO103" s="8"/>
-      <c r="AP103" s="8"/>
-      <c r="AQ103" s="8"/>
-      <c r="AR103" s="8"/>
+      <c r="AN103" s="7"/>
+      <c r="AO103" s="7"/>
+      <c r="AP103" s="7"/>
+      <c r="AQ103" s="7"/>
+      <c r="AR103" s="7"/>
       <c r="AX103" t="s">
         <v>49</v>
       </c>
@@ -5433,10 +5432,10 @@
       <c r="AZ103" t="s">
         <v>49</v>
       </c>
-      <c r="BQ103" s="10" t="s">
+      <c r="BQ103" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="BR103" s="10" t="s">
+      <c r="BR103" s="9" t="s">
         <v>99</v>
       </c>
     </row>
@@ -5456,11 +5455,11 @@
       <c r="AL104" t="s">
         <v>48</v>
       </c>
-      <c r="AN104" s="8"/>
-      <c r="AO104" s="8"/>
-      <c r="AP104" s="8"/>
-      <c r="AQ104" s="8"/>
-      <c r="AR104" s="8"/>
+      <c r="AN104" s="7"/>
+      <c r="AO104" s="7"/>
+      <c r="AP104" s="7"/>
+      <c r="AQ104" s="7"/>
+      <c r="AR104" s="7"/>
       <c r="AT104" t="s">
         <v>82</v>
       </c>
@@ -5473,14 +5472,14 @@
       <c r="AW104" t="s">
         <v>82</v>
       </c>
-      <c r="BQ104" s="10"/>
-      <c r="BR104" s="10"/>
-      <c r="BS104" s="10"/>
-      <c r="BT104" s="10"/>
-      <c r="BU104" s="10"/>
-      <c r="BV104" s="10"/>
-      <c r="BW104" s="10"/>
-      <c r="BX104" s="10"/>
+      <c r="BQ104" s="9"/>
+      <c r="BR104" s="9"/>
+      <c r="BS104" s="9"/>
+      <c r="BT104" s="9"/>
+      <c r="BU104" s="9"/>
+      <c r="BV104" s="9"/>
+      <c r="BW104" s="9"/>
+      <c r="BX104" s="9"/>
     </row>
     <row r="105" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
@@ -5504,11 +5503,11 @@
       <c r="AM105" t="s">
         <v>48</v>
       </c>
-      <c r="AN105" s="8"/>
-      <c r="AO105" s="8"/>
-      <c r="AP105" s="8"/>
-      <c r="AQ105" s="8"/>
-      <c r="AR105" s="8"/>
+      <c r="AN105" s="7"/>
+      <c r="AO105" s="7"/>
+      <c r="AP105" s="7"/>
+      <c r="AQ105" s="7"/>
+      <c r="AR105" s="7"/>
       <c r="AS105" t="s">
         <v>49</v>
       </c>
@@ -5548,10 +5547,10 @@
       <c r="BE105" t="s">
         <v>50</v>
       </c>
-      <c r="BQ105" s="10" t="s">
+      <c r="BQ105" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="BR105" s="10" t="s">
+      <c r="BR105" s="9" t="s">
         <v>99</v>
       </c>
     </row>
@@ -5562,24 +5561,24 @@
       <c r="F106" t="s">
         <v>95</v>
       </c>
-      <c r="AN106" s="8"/>
-      <c r="AO106" s="8"/>
-      <c r="AP106" s="8"/>
-      <c r="AQ106" s="8"/>
-      <c r="AR106" s="8"/>
+      <c r="AN106" s="7"/>
+      <c r="AO106" s="7"/>
+      <c r="AP106" s="7"/>
+      <c r="AQ106" s="7"/>
+      <c r="AR106" s="7"/>
       <c r="AX106" t="s">
         <v>49</v>
       </c>
-      <c r="BQ106" s="10" t="s">
+      <c r="BQ106" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="BR106" s="10"/>
-      <c r="BS106" s="10"/>
-      <c r="BT106" s="10"/>
-      <c r="BU106" s="10"/>
-      <c r="BV106" s="10"/>
-      <c r="BW106" s="10"/>
-      <c r="BX106" s="10"/>
+      <c r="BR106" s="9"/>
+      <c r="BS106" s="9"/>
+      <c r="BT106" s="9"/>
+      <c r="BU106" s="9"/>
+      <c r="BV106" s="9"/>
+      <c r="BW106" s="9"/>
+      <c r="BX106" s="9"/>
     </row>
     <row r="107" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
@@ -5603,11 +5602,11 @@
       <c r="AM107" t="s">
         <v>48</v>
       </c>
-      <c r="AN107" s="8"/>
-      <c r="AO107" s="8"/>
-      <c r="AP107" s="8"/>
-      <c r="AQ107" s="8"/>
-      <c r="AR107" s="8"/>
+      <c r="AN107" s="7"/>
+      <c r="AO107" s="7"/>
+      <c r="AP107" s="7"/>
+      <c r="AQ107" s="7"/>
+      <c r="AR107" s="7"/>
       <c r="AS107" t="s">
         <v>49</v>
       </c>
@@ -5647,10 +5646,10 @@
       <c r="BE107" t="s">
         <v>50</v>
       </c>
-      <c r="BQ107" s="10" t="s">
+      <c r="BQ107" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="BR107" s="10" t="s">
+      <c r="BR107" s="9" t="s">
         <v>99</v>
       </c>
     </row>
@@ -5676,11 +5675,11 @@
       <c r="AM108" t="s">
         <v>48</v>
       </c>
-      <c r="AN108" s="8"/>
-      <c r="AO108" s="8"/>
-      <c r="AP108" s="8"/>
-      <c r="AQ108" s="8"/>
-      <c r="AR108" s="8"/>
+      <c r="AN108" s="7"/>
+      <c r="AO108" s="7"/>
+      <c r="AP108" s="7"/>
+      <c r="AQ108" s="7"/>
+      <c r="AR108" s="7"/>
       <c r="AS108" t="s">
         <v>49</v>
       </c>
@@ -5690,14 +5689,14 @@
       <c r="AY108" t="s">
         <v>49</v>
       </c>
-      <c r="BQ108" s="10"/>
-      <c r="BR108" s="10"/>
-      <c r="BS108" s="10"/>
-      <c r="BT108" s="10"/>
-      <c r="BU108" s="10"/>
-      <c r="BV108" s="10"/>
-      <c r="BW108" s="10"/>
-      <c r="BX108" s="10"/>
+      <c r="BQ108" s="9"/>
+      <c r="BR108" s="9"/>
+      <c r="BS108" s="9"/>
+      <c r="BT108" s="9"/>
+      <c r="BU108" s="9"/>
+      <c r="BV108" s="9"/>
+      <c r="BW108" s="9"/>
+      <c r="BX108" s="9"/>
     </row>
     <row r="109" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
@@ -5706,11 +5705,11 @@
       <c r="F109" t="s">
         <v>96</v>
       </c>
-      <c r="AN109" s="8"/>
-      <c r="AO109" s="8"/>
-      <c r="AP109" s="8"/>
-      <c r="AQ109" s="8"/>
-      <c r="AR109" s="8"/>
+      <c r="AN109" s="7"/>
+      <c r="AO109" s="7"/>
+      <c r="AP109" s="7"/>
+      <c r="AQ109" s="7"/>
+      <c r="AR109" s="7"/>
       <c r="AX109" t="s">
         <v>49</v>
       </c>
@@ -5720,10 +5719,10 @@
       <c r="AZ109" t="s">
         <v>49</v>
       </c>
-      <c r="BQ109" s="10" t="s">
+      <c r="BQ109" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="BR109" s="10" t="s">
+      <c r="BR109" s="9" t="s">
         <v>99</v>
       </c>
     </row>
@@ -5749,11 +5748,11 @@
       <c r="AM110" t="s">
         <v>48</v>
       </c>
-      <c r="AN110" s="8"/>
-      <c r="AO110" s="8"/>
-      <c r="AP110" s="8"/>
-      <c r="AQ110" s="8"/>
-      <c r="AR110" s="8"/>
+      <c r="AN110" s="7"/>
+      <c r="AO110" s="7"/>
+      <c r="AP110" s="7"/>
+      <c r="AQ110" s="7"/>
+      <c r="AR110" s="7"/>
       <c r="AS110" t="s">
         <v>49</v>
       </c>
@@ -5793,22 +5792,22 @@
       <c r="BE110" t="s">
         <v>50</v>
       </c>
-      <c r="BQ110" s="10" t="s">
+      <c r="BQ110" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="BR110" s="10" t="s">
+      <c r="BR110" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="BS110" s="10" t="s">
+      <c r="BS110" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="BT110" s="10" t="s">
+      <c r="BT110" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="BU110" s="10" t="s">
+      <c r="BU110" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="BV110" s="10" t="s">
+      <c r="BV110" s="9" t="s">
         <v>104</v>
       </c>
     </row>
@@ -5831,22 +5830,22 @@
       <c r="AM111" t="s">
         <v>48</v>
       </c>
-      <c r="AN111" s="8"/>
-      <c r="AO111" s="8"/>
-      <c r="AP111" s="8"/>
-      <c r="AQ111" s="8"/>
-      <c r="AR111" s="8"/>
+      <c r="AN111" s="7"/>
+      <c r="AO111" s="7"/>
+      <c r="AP111" s="7"/>
+      <c r="AQ111" s="7"/>
+      <c r="AR111" s="7"/>
       <c r="AT111" t="s">
         <v>49</v>
       </c>
-      <c r="BQ111" s="10"/>
-      <c r="BR111" s="10"/>
-      <c r="BS111" s="10"/>
-      <c r="BT111" s="10"/>
-      <c r="BU111" s="10"/>
-      <c r="BV111" s="10"/>
-      <c r="BW111" s="10"/>
-      <c r="BX111" s="10"/>
+      <c r="BQ111" s="9"/>
+      <c r="BR111" s="9"/>
+      <c r="BS111" s="9"/>
+      <c r="BT111" s="9"/>
+      <c r="BU111" s="9"/>
+      <c r="BV111" s="9"/>
+      <c r="BW111" s="9"/>
+      <c r="BX111" s="9"/>
     </row>
     <row r="112" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
@@ -5858,11 +5857,11 @@
       <c r="AM112" t="s">
         <v>48</v>
       </c>
-      <c r="AN112" s="8"/>
-      <c r="AO112" s="8"/>
-      <c r="AP112" s="8"/>
-      <c r="AQ112" s="8"/>
-      <c r="AR112" s="8"/>
+      <c r="AN112" s="7"/>
+      <c r="AO112" s="7"/>
+      <c r="AP112" s="7"/>
+      <c r="AQ112" s="7"/>
+      <c r="AR112" s="7"/>
       <c r="AX112" t="s">
         <v>49</v>
       </c>
@@ -5872,22 +5871,22 @@
       <c r="AZ112" t="s">
         <v>49</v>
       </c>
-      <c r="BQ112" s="10" t="s">
+      <c r="BQ112" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="BR112" s="10" t="s">
+      <c r="BR112" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="BS112" s="10" t="s">
+      <c r="BS112" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="BT112" s="10" t="s">
+      <c r="BT112" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="BU112" s="10" t="s">
+      <c r="BU112" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="BV112" s="10" t="s">
+      <c r="BV112" s="9" t="s">
         <v>104</v>
       </c>
     </row>
@@ -5910,11 +5909,11 @@
       <c r="AL113" t="s">
         <v>48</v>
       </c>
-      <c r="AN113" s="8"/>
-      <c r="AO113" s="8"/>
-      <c r="AP113" s="8"/>
-      <c r="AQ113" s="8"/>
-      <c r="AR113" s="8"/>
+      <c r="AN113" s="7"/>
+      <c r="AO113" s="7"/>
+      <c r="AP113" s="7"/>
+      <c r="AQ113" s="7"/>
+      <c r="AR113" s="7"/>
       <c r="AT113" t="s">
         <v>49</v>
       </c>
@@ -5951,10 +5950,10 @@
       <c r="BE113" t="s">
         <v>50</v>
       </c>
-      <c r="BQ113" s="10" t="s">
+      <c r="BQ113" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="BR113" s="10" t="s">
+      <c r="BR113" s="9" t="s">
         <v>99</v>
       </c>
     </row>
@@ -5980,11 +5979,11 @@
       <c r="AM114" t="s">
         <v>48</v>
       </c>
-      <c r="AN114" s="8"/>
-      <c r="AO114" s="8"/>
-      <c r="AP114" s="8"/>
-      <c r="AQ114" s="8"/>
-      <c r="AR114" s="8"/>
+      <c r="AN114" s="7"/>
+      <c r="AO114" s="7"/>
+      <c r="AP114" s="7"/>
+      <c r="AQ114" s="7"/>
+      <c r="AR114" s="7"/>
       <c r="AT114" t="s">
         <v>49</v>
       </c>
@@ -6020,29 +6019,29 @@
       <c r="D115" t="s">
         <v>57</v>
       </c>
-      <c r="AN115" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO115" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP115" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AQ115" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR115" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="BQ115" s="10"/>
-      <c r="BR115" s="10"/>
-      <c r="BS115" s="10"/>
-      <c r="BT115" s="10"/>
-      <c r="BU115" s="10"/>
-      <c r="BV115" s="10"/>
-      <c r="BW115" s="10"/>
-      <c r="BX115" s="10"/>
+      <c r="AN115" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO115" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP115" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ115" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR115" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="BQ115" s="9"/>
+      <c r="BR115" s="9"/>
+      <c r="BS115" s="9"/>
+      <c r="BT115" s="9"/>
+      <c r="BU115" s="9"/>
+      <c r="BV115" s="9"/>
+      <c r="BW115" s="9"/>
+      <c r="BX115" s="9"/>
     </row>
     <row r="116" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
@@ -6054,13 +6053,13 @@
       <c r="AJ116" t="s">
         <v>48</v>
       </c>
-      <c r="AN116" s="8"/>
-      <c r="AO116" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP116" s="8"/>
-      <c r="AQ116" s="8"/>
-      <c r="AR116" s="8"/>
+      <c r="AN116" s="7"/>
+      <c r="AO116" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP116" s="7"/>
+      <c r="AQ116" s="7"/>
+      <c r="AR116" s="7"/>
       <c r="AT116" t="s">
         <v>49</v>
       </c>
@@ -6070,14 +6069,14 @@
       <c r="BJ116" t="s">
         <v>52</v>
       </c>
-      <c r="BQ116" s="10"/>
-      <c r="BR116" s="10"/>
-      <c r="BS116" s="10"/>
-      <c r="BT116" s="10"/>
-      <c r="BU116" s="10"/>
-      <c r="BV116" s="10"/>
-      <c r="BW116" s="10"/>
-      <c r="BX116" s="10"/>
+      <c r="BQ116" s="9"/>
+      <c r="BR116" s="9"/>
+      <c r="BS116" s="9"/>
+      <c r="BT116" s="9"/>
+      <c r="BU116" s="9"/>
+      <c r="BV116" s="9"/>
+      <c r="BW116" s="9"/>
+      <c r="BX116" s="9"/>
     </row>
     <row r="117" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
@@ -6086,29 +6085,29 @@
       <c r="D117" t="s">
         <v>58</v>
       </c>
-      <c r="AN117" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO117" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP117" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AQ117" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR117" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="BQ117" s="10"/>
-      <c r="BR117" s="10"/>
-      <c r="BS117" s="10"/>
-      <c r="BT117" s="10"/>
-      <c r="BU117" s="10"/>
-      <c r="BV117" s="10"/>
-      <c r="BW117" s="10"/>
-      <c r="BX117" s="10"/>
+      <c r="AN117" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO117" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP117" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ117" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR117" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="BQ117" s="9"/>
+      <c r="BR117" s="9"/>
+      <c r="BS117" s="9"/>
+      <c r="BT117" s="9"/>
+      <c r="BU117" s="9"/>
+      <c r="BV117" s="9"/>
+      <c r="BW117" s="9"/>
+      <c r="BX117" s="9"/>
     </row>
     <row r="118" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
@@ -6117,29 +6116,29 @@
       <c r="D118" t="s">
         <v>59</v>
       </c>
-      <c r="AN118" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO118" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP118" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AQ118" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR118" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="BQ118" s="10"/>
-      <c r="BR118" s="10"/>
-      <c r="BS118" s="10"/>
-      <c r="BT118" s="10"/>
-      <c r="BU118" s="10"/>
-      <c r="BV118" s="10"/>
-      <c r="BW118" s="10"/>
-      <c r="BX118" s="10"/>
+      <c r="AN118" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO118" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP118" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ118" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR118" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="BQ118" s="9"/>
+      <c r="BR118" s="9"/>
+      <c r="BS118" s="9"/>
+      <c r="BT118" s="9"/>
+      <c r="BU118" s="9"/>
+      <c r="BV118" s="9"/>
+      <c r="BW118" s="9"/>
+      <c r="BX118" s="9"/>
     </row>
     <row r="119" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
@@ -6148,29 +6147,29 @@
       <c r="D119" t="s">
         <v>60</v>
       </c>
-      <c r="AN119" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO119" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP119" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AQ119" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR119" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="BQ119" s="10"/>
-      <c r="BR119" s="10"/>
-      <c r="BS119" s="10"/>
-      <c r="BT119" s="10"/>
-      <c r="BU119" s="10"/>
-      <c r="BV119" s="10"/>
-      <c r="BW119" s="10"/>
-      <c r="BX119" s="10"/>
+      <c r="AN119" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO119" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP119" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ119" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR119" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="BQ119" s="9"/>
+      <c r="BR119" s="9"/>
+      <c r="BS119" s="9"/>
+      <c r="BT119" s="9"/>
+      <c r="BU119" s="9"/>
+      <c r="BV119" s="9"/>
+      <c r="BW119" s="9"/>
+      <c r="BX119" s="9"/>
     </row>
     <row r="120" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
@@ -6194,19 +6193,19 @@
       <c r="AM120" t="s">
         <v>48</v>
       </c>
-      <c r="AN120" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO120" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP120" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AQ120" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR120" s="8" t="s">
+      <c r="AN120" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO120" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP120" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ120" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR120" s="7" t="s">
         <v>51</v>
       </c>
       <c r="AS120" t="s">
@@ -6239,96 +6238,93 @@
       <c r="BE120" t="s">
         <v>50</v>
       </c>
-      <c r="BQ120" s="10"/>
-      <c r="BR120" s="10"/>
-      <c r="BS120" s="10"/>
-      <c r="BT120" s="10"/>
-      <c r="BU120" s="10"/>
-      <c r="BV120" s="10"/>
-      <c r="BW120" s="10"/>
-      <c r="BX120" s="10"/>
+      <c r="BQ120" s="9"/>
+      <c r="BR120" s="9"/>
+      <c r="BS120" s="9"/>
+      <c r="BT120" s="9"/>
+      <c r="BU120" s="9"/>
+      <c r="BV120" s="9"/>
+      <c r="BW120" s="9"/>
+      <c r="BX120" s="9"/>
     </row>
     <row r="121" spans="1:76" x14ac:dyDescent="0.2">
-      <c r="A121" s="14">
+      <c r="A121" s="12">
         <v>123</v>
       </c>
-      <c r="D121" s="5" t="s">
+      <c r="D121" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E121" s="5"/>
-      <c r="F121" s="5"/>
-      <c r="G121" s="5"/>
-      <c r="AI121" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ121" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK121" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL121" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AM121" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AN121" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO121" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP121" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AQ121" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR121" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AS121" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT121" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU121" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV121" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW121" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="BA121" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="BB121" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="BC121" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="BD121" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="BE121" s="5" t="s">
+      <c r="E121" s="4"/>
+      <c r="F121" s="4"/>
+      <c r="G121" s="4"/>
+      <c r="AI121" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ121" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK121" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL121" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM121" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN121" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO121" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP121" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ121" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR121" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS121" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT121" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU121" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV121" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW121" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="BA121" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB121" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BC121" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BD121" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BE121" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="122" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="14">
+      <c r="A122" s="12">
         <v>124</v>
       </c>
-      <c r="D122" s="12" t="s">
+      <c r="D122" t="s">
         <v>81</v>
       </c>
-      <c r="E122" s="12"/>
-      <c r="F122" s="12"/>
-      <c r="G122" s="12"/>
       <c r="AI122" t="s">
         <v>48</v>
       </c>
@@ -6344,19 +6340,19 @@
       <c r="AM122" t="s">
         <v>48</v>
       </c>
-      <c r="AN122" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO122" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP122" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AQ122" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR122" s="8" t="s">
+      <c r="AN122" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO122" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP122" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ122" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR122" s="7" t="s">
         <v>51</v>
       </c>
       <c r="AS122" t="s">
@@ -6398,338 +6394,338 @@
       <c r="BM122" t="s">
         <v>52</v>
       </c>
-      <c r="BQ122" s="10"/>
-      <c r="BR122" s="10"/>
-      <c r="BS122" s="10"/>
-      <c r="BT122" s="10"/>
-      <c r="BU122" s="10"/>
-      <c r="BV122" s="10"/>
-      <c r="BW122" s="10"/>
-      <c r="BX122" s="10"/>
+      <c r="BQ122" s="9"/>
+      <c r="BR122" s="9"/>
+      <c r="BS122" s="9"/>
+      <c r="BT122" s="9"/>
+      <c r="BU122" s="9"/>
+      <c r="BV122" s="9"/>
+      <c r="BW122" s="9"/>
+      <c r="BX122" s="9"/>
     </row>
     <row r="123" spans="1:76" x14ac:dyDescent="0.2">
-      <c r="A123" s="14">
+      <c r="A123" s="12">
         <v>125</v>
       </c>
-      <c r="D123" s="10" t="s">
+      <c r="D123" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E123" s="10"/>
-      <c r="F123" s="10"/>
-      <c r="G123" s="10"/>
-      <c r="AN123" s="8"/>
-      <c r="AO123" s="8"/>
-      <c r="AP123" s="8"/>
-      <c r="AQ123" s="8"/>
-      <c r="AR123" s="8"/>
-      <c r="AX123" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY123" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ123" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="BF123" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="BG123" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="BH123" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="BN123" s="10" t="s">
+      <c r="E123" s="9"/>
+      <c r="F123" s="9"/>
+      <c r="G123" s="9"/>
+      <c r="AN123" s="7"/>
+      <c r="AO123" s="7"/>
+      <c r="AP123" s="7"/>
+      <c r="AQ123" s="7"/>
+      <c r="AR123" s="7"/>
+      <c r="AX123" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY123" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ123" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="BF123" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="BG123" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="BH123" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="BN123" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="BO123" s="10" t="s">
+      <c r="BO123" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="BP123" s="10" t="s">
+      <c r="BP123" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="BQ123" s="10" t="s">
+      <c r="BQ123" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="BR123" s="10" t="s">
+      <c r="BR123" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="BS123" s="10" t="s">
+      <c r="BS123" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="BT123" s="10" t="s">
+      <c r="BT123" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="BU123" s="10" t="s">
+      <c r="BU123" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="BV123" s="10" t="s">
+      <c r="BV123" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="BW123" s="10" t="s">
+      <c r="BW123" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="BX123" s="10" t="s">
+      <c r="BX123" s="9" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="124" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="14">
+      <c r="A124" s="12">
         <v>126</v>
       </c>
-      <c r="D124" s="11" t="s">
+      <c r="D124" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E124" s="11"/>
-      <c r="F124" s="11"/>
-      <c r="G124" s="11"/>
-      <c r="AN124" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO124" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP124" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AQ124" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR124" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="BQ124" s="10"/>
-      <c r="BR124" s="10"/>
-      <c r="BS124" s="10"/>
-      <c r="BT124" s="10"/>
-      <c r="BU124" s="10"/>
-      <c r="BV124" s="10"/>
-      <c r="BW124" s="10"/>
-      <c r="BX124" s="10"/>
+      <c r="E124" s="10"/>
+      <c r="F124" s="10"/>
+      <c r="G124" s="10"/>
+      <c r="AN124" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO124" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP124" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ124" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR124" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="BQ124" s="9"/>
+      <c r="BR124" s="9"/>
+      <c r="BS124" s="9"/>
+      <c r="BT124" s="9"/>
+      <c r="BU124" s="9"/>
+      <c r="BV124" s="9"/>
+      <c r="BW124" s="9"/>
+      <c r="BX124" s="9"/>
     </row>
     <row r="125" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="14">
+      <c r="A125" s="12">
         <v>127</v>
       </c>
-      <c r="D125" s="11" t="s">
+      <c r="D125" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E125" s="11"/>
-      <c r="F125" s="11"/>
-      <c r="G125" s="11"/>
-      <c r="AN125" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO125" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP125" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AQ125" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR125" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="BQ125" s="10"/>
-      <c r="BR125" s="10"/>
-      <c r="BS125" s="10"/>
-      <c r="BT125" s="10"/>
-      <c r="BU125" s="10"/>
-      <c r="BV125" s="10"/>
-      <c r="BW125" s="10"/>
-      <c r="BX125" s="10"/>
+      <c r="E125" s="10"/>
+      <c r="F125" s="10"/>
+      <c r="G125" s="10"/>
+      <c r="AN125" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO125" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP125" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ125" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR125" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="BQ125" s="9"/>
+      <c r="BR125" s="9"/>
+      <c r="BS125" s="9"/>
+      <c r="BT125" s="9"/>
+      <c r="BU125" s="9"/>
+      <c r="BV125" s="9"/>
+      <c r="BW125" s="9"/>
+      <c r="BX125" s="9"/>
     </row>
     <row r="126" spans="1:76" x14ac:dyDescent="0.2">
-      <c r="A126" s="14">
+      <c r="A126" s="12">
         <v>128</v>
       </c>
-      <c r="D126" s="5" t="s">
+      <c r="D126" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E126" s="5"/>
-      <c r="F126" s="5"/>
-      <c r="G126" s="5"/>
-      <c r="AI126" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ126" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK126" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL126" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AM126" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AN126" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO126" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP126" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AQ126" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR126" s="8"/>
-      <c r="AS126" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT126" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AX126" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="BB126" s="5" t="s">
+      <c r="E126" s="4"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="4"/>
+      <c r="AI126" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ126" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK126" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL126" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM126" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN126" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO126" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP126" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ126" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR126" s="7"/>
+      <c r="AS126" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT126" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AX126" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="BB126" s="4" t="s">
         <v>50</v>
       </c>
       <c r="BE126" t="s">
         <v>50</v>
       </c>
-      <c r="BF126" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="BN126" s="5" t="s">
+      <c r="BF126" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BN126" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="BQ126" s="10" t="s">
+      <c r="BQ126" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="BS126" s="10" t="s">
+      <c r="BS126" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="BU126" s="10" t="s">
+      <c r="BU126" s="9" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="127" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="14">
+      <c r="A127" s="12">
         <v>129</v>
       </c>
-      <c r="D127" s="11" t="s">
+      <c r="D127" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E127" s="11"/>
-      <c r="F127" s="11"/>
-      <c r="G127" s="11"/>
-      <c r="AI127" s="11"/>
-      <c r="AJ127" s="11"/>
-      <c r="AK127" s="11"/>
-      <c r="AL127" s="11"/>
-      <c r="AM127" s="11"/>
-      <c r="AN127" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO127" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP127" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AQ127" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR127" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="BQ127" s="10"/>
-      <c r="BR127" s="10"/>
-      <c r="BS127" s="10"/>
-      <c r="BT127" s="10"/>
-      <c r="BU127" s="10"/>
-      <c r="BV127" s="10"/>
-      <c r="BW127" s="10"/>
-      <c r="BX127" s="10"/>
+      <c r="E127" s="10"/>
+      <c r="F127" s="10"/>
+      <c r="G127" s="10"/>
+      <c r="AI127" s="10"/>
+      <c r="AJ127" s="10"/>
+      <c r="AK127" s="10"/>
+      <c r="AL127" s="10"/>
+      <c r="AM127" s="10"/>
+      <c r="AN127" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO127" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP127" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ127" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR127" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="BQ127" s="9"/>
+      <c r="BR127" s="9"/>
+      <c r="BS127" s="9"/>
+      <c r="BT127" s="9"/>
+      <c r="BU127" s="9"/>
+      <c r="BV127" s="9"/>
+      <c r="BW127" s="9"/>
+      <c r="BX127" s="9"/>
     </row>
     <row r="128" spans="1:76" x14ac:dyDescent="0.2">
-      <c r="A128" s="14">
+      <c r="A128" s="12">
         <v>130</v>
       </c>
-      <c r="D128" s="5" t="s">
+      <c r="D128" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E128" s="5"/>
-      <c r="F128" s="5"/>
-      <c r="G128" s="5"/>
-      <c r="AI128" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ128" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK128" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL128" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AM128" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AN128" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO128" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP128" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AQ128" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR128" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AS128" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT128" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU128" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV128" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW128" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="BA128" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="BB128" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="BC128" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="BD128" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="BE128" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="BI128" s="5" t="s">
+      <c r="E128" s="4"/>
+      <c r="F128" s="4"/>
+      <c r="G128" s="4"/>
+      <c r="AI128" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ128" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK128" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL128" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM128" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN128" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO128" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP128" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ128" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR128" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS128" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT128" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU128" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV128" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW128" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="BA128" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB128" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BC128" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BD128" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BE128" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BI128" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="BJ128" s="5" t="s">
+      <c r="BJ128" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="BK128" s="5" t="s">
+      <c r="BK128" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="BM128" s="5" t="s">
+      <c r="BM128" s="4" t="s">
         <v>52</v>
       </c>
     </row>
@@ -6740,26 +6736,26 @@
       <c r="D129" t="s">
         <v>110</v>
       </c>
-      <c r="AN129" s="8"/>
-      <c r="AO129" s="8"/>
-      <c r="AP129" s="8"/>
-      <c r="AQ129" s="8"/>
-      <c r="AR129" s="8"/>
+      <c r="AN129" s="7"/>
+      <c r="AO129" s="7"/>
+      <c r="AP129" s="7"/>
+      <c r="AQ129" s="7"/>
+      <c r="AR129" s="7"/>
       <c r="BG129" t="s">
         <v>50</v>
       </c>
-      <c r="BQ129" s="10"/>
-      <c r="BR129" s="10"/>
-      <c r="BS129" s="10"/>
-      <c r="BT129" s="10" t="s">
+      <c r="BQ129" s="9"/>
+      <c r="BR129" s="9"/>
+      <c r="BS129" s="9"/>
+      <c r="BT129" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="BU129" s="10"/>
-      <c r="BV129" s="10" t="s">
+      <c r="BU129" s="9"/>
+      <c r="BV129" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="BW129" s="10"/>
-      <c r="BX129" s="10"/>
+      <c r="BW129" s="9"/>
+      <c r="BX129" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Dot NET/VS Projects/VS Projects Templates.xlsx
+++ b/Dot NET/VS Projects/VS Projects Templates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ronniekleinfeld/Dev/White-Paper/Dot NET/VS Projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A56A868-3A5A-6D40-A21C-23AC883A5CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44CCA764-1203-1F45-B06A-70809F363BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21000" xr2:uid="{E69DFE7B-62AC-9547-98A7-0DA9D773F21C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="119">
   <si>
     <t>Template</t>
   </si>
@@ -455,10 +455,43 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="slantDashDot">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="slantDashDot">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -467,7 +500,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -485,13 +518,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,9 +560,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -550,7 +600,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -656,7 +706,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -798,7 +848,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -806,13 +856,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6672138E-8361-2C4F-9571-743716B9ADF0}">
-  <dimension ref="A1:BX129"/>
+  <dimension ref="A1:CF129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="AI99" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="3" topLeftCell="BY23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D121" sqref="D121"/>
+      <selection pane="bottomRight" activeCell="BZ74" sqref="BZ74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -825,26 +875,34 @@
     <col min="8" max="15" width="7.5" customWidth="1"/>
     <col min="16" max="22" width="5.33203125" customWidth="1"/>
     <col min="23" max="28" width="6.33203125" customWidth="1"/>
-    <col min="29" max="68" width="5.1640625" customWidth="1"/>
+    <col min="29" max="44" width="5.1640625" customWidth="1"/>
+    <col min="45" max="45" width="5.1640625" style="22" customWidth="1"/>
+    <col min="46" max="51" width="5.1640625" style="23" customWidth="1"/>
+    <col min="52" max="52" width="5.1640625" style="24" customWidth="1"/>
+    <col min="53" max="68" width="5.1640625" customWidth="1"/>
     <col min="69" max="71" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="5.1640625" customWidth="1"/>
     <col min="73" max="75" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="76" max="76" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="5.1640625" style="23" customWidth="1"/>
+    <col min="79" max="80" width="5.1640625" customWidth="1"/>
+    <col min="81" max="83" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="5.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:76" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:84" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
       <c r="H1" s="2">
         <v>2013</v>
       </c>
@@ -956,28 +1014,28 @@
       <c r="AR1" s="2">
         <v>2022</v>
       </c>
-      <c r="AS1" s="11">
+      <c r="AS1" s="13">
         <v>2013</v>
       </c>
-      <c r="AT1" s="11">
+      <c r="AT1" s="14">
         <v>2015</v>
       </c>
-      <c r="AU1" s="11">
+      <c r="AU1" s="14">
         <v>2017</v>
       </c>
-      <c r="AV1" s="11">
+      <c r="AV1" s="14">
         <v>2019</v>
       </c>
-      <c r="AW1" s="11">
+      <c r="AW1" s="14">
         <v>2022</v>
       </c>
-      <c r="AX1" s="11">
+      <c r="AX1" s="14">
         <v>2017</v>
       </c>
-      <c r="AY1" s="11">
+      <c r="AY1" s="14">
         <v>2022</v>
       </c>
-      <c r="AZ1" s="11" t="s">
+      <c r="AZ1" s="15" t="s">
         <v>117</v>
       </c>
       <c r="BA1" s="2">
@@ -1052,8 +1110,29 @@
       <c r="BX1" s="2">
         <v>2022</v>
       </c>
-    </row>
-    <row r="2" spans="1:76" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BZ1" s="14">
+        <v>2022</v>
+      </c>
+      <c r="CA1" s="2">
+        <v>2022</v>
+      </c>
+      <c r="CB1" s="2">
+        <v>2022</v>
+      </c>
+      <c r="CC1" s="2">
+        <v>2017</v>
+      </c>
+      <c r="CD1" s="2">
+        <v>2022</v>
+      </c>
+      <c r="CE1" s="2">
+        <v>2022</v>
+      </c>
+      <c r="CF1" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2" spans="1:84" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H2" s="2" t="s">
         <v>70</v>
       </c>
@@ -1165,28 +1244,28 @@
       <c r="AR2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AS2" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT2" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU2" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV2" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW2" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="AX2" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY2" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ2" s="11" t="s">
+      <c r="AS2" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT2" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU2" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV2" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW2" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AX2" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY2" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ2" s="15" t="s">
         <v>49</v>
       </c>
       <c r="BA2" s="2" t="s">
@@ -1261,8 +1340,29 @@
       <c r="BX2" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="3" spans="1:76" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BZ2" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="CA2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="CB2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="CC2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="CD2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF2" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:84" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H3" s="2" t="s">
         <v>85</v>
       </c>
@@ -1374,28 +1474,28 @@
       <c r="AR3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AS3" s="11" t="s">
+      <c r="AS3" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="AT3" s="11" t="s">
+      <c r="AT3" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="AU3" s="11" t="s">
+      <c r="AU3" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="AV3" s="11" t="s">
+      <c r="AV3" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="AW3" s="11" t="s">
+      <c r="AW3" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="AX3" s="11" t="s">
+      <c r="AX3" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="AY3" s="11" t="s">
+      <c r="AY3" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="AZ3" s="11" t="s">
+      <c r="AZ3" s="15" t="s">
         <v>86</v>
       </c>
       <c r="BA3" s="2" t="s">
@@ -1470,8 +1570,29 @@
       <c r="BX3" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="4" spans="1:76" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BZ3" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="CA3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="CB3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="CC3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="CD3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="CE3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="CF3" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:84" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1500,8 +1621,17 @@
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
-    </row>
-    <row r="5" spans="1:76" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AS4" s="16"/>
+      <c r="AT4" s="17"/>
+      <c r="AU4" s="17"/>
+      <c r="AV4" s="17"/>
+      <c r="AW4" s="17"/>
+      <c r="AX4" s="17"/>
+      <c r="AY4" s="17"/>
+      <c r="AZ4" s="18"/>
+      <c r="BZ4" s="17"/>
+    </row>
+    <row r="5" spans="1:84" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -1527,8 +1657,17 @@
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
-    </row>
-    <row r="6" spans="1:76" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AS5" s="16"/>
+      <c r="AT5" s="17"/>
+      <c r="AU5" s="17"/>
+      <c r="AV5" s="17"/>
+      <c r="AW5" s="17"/>
+      <c r="AX5" s="17"/>
+      <c r="AY5" s="17"/>
+      <c r="AZ5" s="18"/>
+      <c r="BZ5" s="17"/>
+    </row>
+    <row r="6" spans="1:84" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -1558,8 +1697,17 @@
         <v>70</v>
       </c>
       <c r="O6" s="8"/>
-    </row>
-    <row r="7" spans="1:76" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AS6" s="19"/>
+      <c r="AT6" s="20"/>
+      <c r="AU6" s="20"/>
+      <c r="AV6" s="20"/>
+      <c r="AW6" s="20"/>
+      <c r="AX6" s="20"/>
+      <c r="AY6" s="20"/>
+      <c r="AZ6" s="21"/>
+      <c r="BZ6" s="20"/>
+    </row>
+    <row r="7" spans="1:84" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1585,8 +1733,17 @@
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
-    </row>
-    <row r="8" spans="1:76" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AS7" s="16"/>
+      <c r="AT7" s="17"/>
+      <c r="AU7" s="17"/>
+      <c r="AV7" s="17"/>
+      <c r="AW7" s="17"/>
+      <c r="AX7" s="17"/>
+      <c r="AY7" s="17"/>
+      <c r="AZ7" s="18"/>
+      <c r="BZ7" s="17"/>
+    </row>
+    <row r="8" spans="1:84" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -1618,8 +1775,17 @@
       <c r="O8" s="8" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="9" spans="1:76" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AS8" s="19"/>
+      <c r="AT8" s="20"/>
+      <c r="AU8" s="20"/>
+      <c r="AV8" s="20"/>
+      <c r="AW8" s="20"/>
+      <c r="AX8" s="20"/>
+      <c r="AY8" s="20"/>
+      <c r="AZ8" s="21"/>
+      <c r="BZ8" s="20"/>
+    </row>
+    <row r="9" spans="1:84" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1642,8 +1808,17 @@
       <c r="S9" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="10" spans="1:76" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AS9" s="16"/>
+      <c r="AT9" s="17"/>
+      <c r="AU9" s="17"/>
+      <c r="AV9" s="17"/>
+      <c r="AW9" s="17"/>
+      <c r="AX9" s="17"/>
+      <c r="AY9" s="17"/>
+      <c r="AZ9" s="18"/>
+      <c r="BZ9" s="17"/>
+    </row>
+    <row r="10" spans="1:84" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1663,8 +1838,17 @@
       <c r="S10" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="11" spans="1:76" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AS10" s="16"/>
+      <c r="AT10" s="17"/>
+      <c r="AU10" s="17"/>
+      <c r="AV10" s="17"/>
+      <c r="AW10" s="17"/>
+      <c r="AX10" s="17"/>
+      <c r="AY10" s="17"/>
+      <c r="AZ10" s="18"/>
+      <c r="BZ10" s="17"/>
+    </row>
+    <row r="11" spans="1:84" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -1690,8 +1874,17 @@
       <c r="U11" s="7" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="12" spans="1:76" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AS11" s="19"/>
+      <c r="AT11" s="20"/>
+      <c r="AU11" s="20"/>
+      <c r="AV11" s="20"/>
+      <c r="AW11" s="20"/>
+      <c r="AX11" s="20"/>
+      <c r="AY11" s="20"/>
+      <c r="AZ11" s="21"/>
+      <c r="BZ11" s="20"/>
+    </row>
+    <row r="12" spans="1:84" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -1720,8 +1913,17 @@
       <c r="V12" s="7" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="13" spans="1:76" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AS12" s="19"/>
+      <c r="AT12" s="20"/>
+      <c r="AU12" s="20"/>
+      <c r="AV12" s="20"/>
+      <c r="AW12" s="20"/>
+      <c r="AX12" s="20"/>
+      <c r="AY12" s="20"/>
+      <c r="AZ12" s="21"/>
+      <c r="BZ12" s="20"/>
+    </row>
+    <row r="13" spans="1:84" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>13</v>
       </c>
@@ -1744,8 +1946,17 @@
       <c r="Z13" s="4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="14" spans="1:76" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AS13" s="16"/>
+      <c r="AT13" s="17"/>
+      <c r="AU13" s="17"/>
+      <c r="AV13" s="17"/>
+      <c r="AW13" s="17"/>
+      <c r="AX13" s="17"/>
+      <c r="AY13" s="17"/>
+      <c r="AZ13" s="18"/>
+      <c r="BZ13" s="17"/>
+    </row>
+    <row r="14" spans="1:84" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>14</v>
       </c>
@@ -1765,8 +1976,17 @@
       <c r="Z14" s="4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="15" spans="1:76" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AS14" s="16"/>
+      <c r="AT14" s="17"/>
+      <c r="AU14" s="17"/>
+      <c r="AV14" s="17"/>
+      <c r="AW14" s="17"/>
+      <c r="AX14" s="17"/>
+      <c r="AY14" s="17"/>
+      <c r="AZ14" s="18"/>
+      <c r="BZ14" s="17"/>
+    </row>
+    <row r="15" spans="1:84" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>15</v>
       </c>
@@ -1786,8 +2006,17 @@
       <c r="Z15" s="4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="16" spans="1:76" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AS15" s="16"/>
+      <c r="AT15" s="17"/>
+      <c r="AU15" s="17"/>
+      <c r="AV15" s="17"/>
+      <c r="AW15" s="17"/>
+      <c r="AX15" s="17"/>
+      <c r="AY15" s="17"/>
+      <c r="AZ15" s="18"/>
+      <c r="BZ15" s="17"/>
+    </row>
+    <row r="16" spans="1:84" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>16</v>
       </c>
@@ -1807,8 +2036,17 @@
       <c r="Z16" s="4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="17" spans="1:76" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AS16" s="16"/>
+      <c r="AT16" s="17"/>
+      <c r="AU16" s="17"/>
+      <c r="AV16" s="17"/>
+      <c r="AW16" s="17"/>
+      <c r="AX16" s="17"/>
+      <c r="AY16" s="17"/>
+      <c r="AZ16" s="18"/>
+      <c r="BZ16" s="17"/>
+    </row>
+    <row r="17" spans="1:84" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>17</v>
       </c>
@@ -1831,8 +2069,17 @@
       <c r="AA17" s="7" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="18" spans="1:76" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AS17" s="19"/>
+      <c r="AT17" s="20"/>
+      <c r="AU17" s="20"/>
+      <c r="AV17" s="20"/>
+      <c r="AW17" s="20"/>
+      <c r="AX17" s="20"/>
+      <c r="AY17" s="20"/>
+      <c r="AZ17" s="21"/>
+      <c r="BZ17" s="20"/>
+    </row>
+    <row r="18" spans="1:84" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>18</v>
       </c>
@@ -1852,8 +2099,17 @@
       <c r="Z18" s="4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="19" spans="1:76" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AS18" s="16"/>
+      <c r="AT18" s="17"/>
+      <c r="AU18" s="17"/>
+      <c r="AV18" s="17"/>
+      <c r="AW18" s="17"/>
+      <c r="AX18" s="17"/>
+      <c r="AY18" s="17"/>
+      <c r="AZ18" s="18"/>
+      <c r="BZ18" s="17"/>
+    </row>
+    <row r="19" spans="1:84" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>19</v>
       </c>
@@ -1879,8 +2135,17 @@
       <c r="AB19" s="7" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="20" spans="1:76" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AS19" s="19"/>
+      <c r="AT19" s="20"/>
+      <c r="AU19" s="20"/>
+      <c r="AV19" s="20"/>
+      <c r="AW19" s="20"/>
+      <c r="AX19" s="20"/>
+      <c r="AY19" s="20"/>
+      <c r="AZ19" s="21"/>
+      <c r="BZ19" s="20"/>
+    </row>
+    <row r="20" spans="1:84" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>20</v>
       </c>
@@ -1906,8 +2171,17 @@
       <c r="AB20" s="7" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="21" spans="1:76" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AS20" s="19"/>
+      <c r="AT20" s="20"/>
+      <c r="AU20" s="20"/>
+      <c r="AV20" s="20"/>
+      <c r="AW20" s="20"/>
+      <c r="AX20" s="20"/>
+      <c r="AY20" s="20"/>
+      <c r="AZ20" s="21"/>
+      <c r="BZ20" s="20"/>
+    </row>
+    <row r="21" spans="1:84" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>22</v>
       </c>
@@ -1930,8 +2204,17 @@
       <c r="AF21" s="4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="22" spans="1:76" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AS21" s="16"/>
+      <c r="AT21" s="17"/>
+      <c r="AU21" s="17"/>
+      <c r="AV21" s="17"/>
+      <c r="AW21" s="17"/>
+      <c r="AX21" s="17"/>
+      <c r="AY21" s="17"/>
+      <c r="AZ21" s="18"/>
+      <c r="BZ21" s="17"/>
+    </row>
+    <row r="22" spans="1:84" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>23</v>
       </c>
@@ -1954,8 +2237,17 @@
       <c r="AH22" s="7" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="23" spans="1:76" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AS22" s="19"/>
+      <c r="AT22" s="20"/>
+      <c r="AU22" s="20"/>
+      <c r="AV22" s="20"/>
+      <c r="AW22" s="20"/>
+      <c r="AX22" s="20"/>
+      <c r="AY22" s="20"/>
+      <c r="AZ22" s="21"/>
+      <c r="BZ22" s="20"/>
+    </row>
+    <row r="23" spans="1:84" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>24</v>
       </c>
@@ -1975,8 +2267,17 @@
       <c r="AF23" s="4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="24" spans="1:76" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AS23" s="16"/>
+      <c r="AT23" s="17"/>
+      <c r="AU23" s="17"/>
+      <c r="AV23" s="17"/>
+      <c r="AW23" s="17"/>
+      <c r="AX23" s="17"/>
+      <c r="AY23" s="17"/>
+      <c r="AZ23" s="18"/>
+      <c r="BZ23" s="17"/>
+    </row>
+    <row r="24" spans="1:84" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>25</v>
       </c>
@@ -1996,8 +2297,17 @@
       <c r="AF24" s="4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="25" spans="1:76" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AS24" s="16"/>
+      <c r="AT24" s="17"/>
+      <c r="AU24" s="17"/>
+      <c r="AV24" s="17"/>
+      <c r="AW24" s="17"/>
+      <c r="AX24" s="17"/>
+      <c r="AY24" s="17"/>
+      <c r="AZ24" s="18"/>
+      <c r="BZ24" s="17"/>
+    </row>
+    <row r="25" spans="1:84" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>26</v>
       </c>
@@ -2020,8 +2330,17 @@
       <c r="AG25" s="7" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="26" spans="1:76" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AS25" s="19"/>
+      <c r="AT25" s="20"/>
+      <c r="AU25" s="20"/>
+      <c r="AV25" s="20"/>
+      <c r="AW25" s="20"/>
+      <c r="AX25" s="20"/>
+      <c r="AY25" s="20"/>
+      <c r="AZ25" s="21"/>
+      <c r="BZ25" s="20"/>
+    </row>
+    <row r="26" spans="1:84" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>27</v>
       </c>
@@ -2041,8 +2360,17 @@
       <c r="AF26" s="4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="27" spans="1:76" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AS26" s="16"/>
+      <c r="AT26" s="17"/>
+      <c r="AU26" s="17"/>
+      <c r="AV26" s="17"/>
+      <c r="AW26" s="17"/>
+      <c r="AX26" s="17"/>
+      <c r="AY26" s="17"/>
+      <c r="AZ26" s="18"/>
+      <c r="BZ26" s="17"/>
+    </row>
+    <row r="27" spans="1:84" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>28</v>
       </c>
@@ -2068,8 +2396,17 @@
       <c r="AH27" s="7" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="28" spans="1:76" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AS27" s="19"/>
+      <c r="AT27" s="20"/>
+      <c r="AU27" s="20"/>
+      <c r="AV27" s="20"/>
+      <c r="AW27" s="20"/>
+      <c r="AX27" s="20"/>
+      <c r="AY27" s="20"/>
+      <c r="AZ27" s="21"/>
+      <c r="BZ27" s="20"/>
+    </row>
+    <row r="28" spans="1:84" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>29</v>
       </c>
@@ -2095,8 +2432,17 @@
       <c r="AH28" s="7" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="29" spans="1:76" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AS28" s="19"/>
+      <c r="AT28" s="20"/>
+      <c r="AU28" s="20"/>
+      <c r="AV28" s="20"/>
+      <c r="AW28" s="20"/>
+      <c r="AX28" s="20"/>
+      <c r="AY28" s="20"/>
+      <c r="AZ28" s="21"/>
+      <c r="BZ28" s="20"/>
+    </row>
+    <row r="29" spans="1:84" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>31</v>
       </c>
@@ -2137,28 +2483,28 @@
       <c r="AR29" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AS29" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT29" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU29" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV29" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW29" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="AX29" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY29" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ29" s="7" t="s">
+      <c r="AS29" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT29" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU29" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV29" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW29" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="AX29" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY29" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ29" s="21" t="s">
         <v>49</v>
       </c>
       <c r="BA29" s="7" t="s">
@@ -2233,8 +2579,29 @@
       <c r="BX29" s="7" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="30" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
+      <c r="BZ29" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="CA29" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="CB29" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="CC29" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="CD29" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE29" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF29" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>32</v>
       </c>
@@ -2271,19 +2638,19 @@
       <c r="AR30" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AS30" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT30" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU30" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV30" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW30" t="s">
+      <c r="AS30" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT30" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU30" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV30" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW30" s="23" t="s">
         <v>49</v>
       </c>
       <c r="BA30" t="s">
@@ -2324,8 +2691,12 @@
       <c r="BV30" s="9"/>
       <c r="BW30" s="9"/>
       <c r="BX30" s="9"/>
-    </row>
-    <row r="31" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="CC30" s="9"/>
+      <c r="CD30" s="9"/>
+      <c r="CE30" s="9"/>
+      <c r="CF30" s="9"/>
+    </row>
+    <row r="31" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>33</v>
       </c>
@@ -2340,13 +2711,13 @@
       <c r="AP31" s="7"/>
       <c r="AQ31" s="7"/>
       <c r="AR31" s="7"/>
-      <c r="AX31" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY31" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ31" s="9" t="s">
+      <c r="AX31" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY31" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ31" s="26" t="s">
         <v>49</v>
       </c>
       <c r="BF31" s="9" t="s">
@@ -2391,8 +2762,29 @@
       <c r="BX31" s="9" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="32" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
+      <c r="BZ31" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="CA31" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="CB31" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="CC31" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="CD31" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE31" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF31" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>34</v>
       </c>
@@ -2404,7 +2796,7 @@
       <c r="AP32" s="7"/>
       <c r="AQ32" s="7"/>
       <c r="AR32" s="7"/>
-      <c r="AY32" t="s">
+      <c r="AY32" s="23" t="s">
         <v>49</v>
       </c>
       <c r="BQ32" s="9"/>
@@ -2417,8 +2809,17 @@
       <c r="BX32" s="9" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="33" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
+      <c r="BZ32" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="CC32" s="9"/>
+      <c r="CD32" s="9"/>
+      <c r="CE32" s="9"/>
+      <c r="CF32" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>117</v>
       </c>
@@ -2430,13 +2831,13 @@
       <c r="AP33" s="7"/>
       <c r="AQ33" s="7"/>
       <c r="AR33" s="7"/>
-      <c r="AX33" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY33" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ33" t="s">
+      <c r="AX33" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY33" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ33" s="24" t="s">
         <v>49</v>
       </c>
       <c r="BF33" t="s">
@@ -2478,8 +2879,29 @@
       <c r="BX33" s="9" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="34" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
+      <c r="BZ33" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="CA33" t="s">
+        <v>50</v>
+      </c>
+      <c r="CB33" t="s">
+        <v>52</v>
+      </c>
+      <c r="CC33" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="CD33" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE33" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF33" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>35</v>
       </c>
@@ -2516,25 +2938,25 @@
       <c r="AR34" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AS34" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT34" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU34" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV34" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW34" t="s">
-        <v>49</v>
-      </c>
-      <c r="AX34" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY34" t="s">
+      <c r="AS34" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT34" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU34" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV34" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW34" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AX34" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY34" s="23" t="s">
         <v>49</v>
       </c>
       <c r="BA34" t="s">
@@ -2599,8 +3021,29 @@
       <c r="BX34" s="9" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="35" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
+      <c r="BZ34" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="CA34" t="s">
+        <v>50</v>
+      </c>
+      <c r="CB34" t="s">
+        <v>52</v>
+      </c>
+      <c r="CC34" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="CD34" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE34" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF34" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>36</v>
       </c>
@@ -2612,13 +3055,13 @@
       <c r="AP35" s="7"/>
       <c r="AQ35" s="7"/>
       <c r="AR35" s="7"/>
-      <c r="AX35" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY35" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ35" t="s">
+      <c r="AX35" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY35" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ35" s="24" t="s">
         <v>49</v>
       </c>
       <c r="BF35" t="s">
@@ -2645,8 +3088,21 @@
       <c r="BX35" s="9" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="36" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
+      <c r="BZ35" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="CC35" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="CD35" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE35" s="9"/>
+      <c r="CF35" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>37</v>
       </c>
@@ -2658,13 +3114,13 @@
       <c r="AP36" s="7"/>
       <c r="AQ36" s="7"/>
       <c r="AR36" s="7"/>
-      <c r="AX36" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY36" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ36" t="s">
+      <c r="AX36" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY36" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ36" s="24" t="s">
         <v>49</v>
       </c>
       <c r="BQ36" s="9" t="s">
@@ -2679,8 +3135,19 @@
       <c r="BV36" s="9"/>
       <c r="BW36" s="9"/>
       <c r="BX36" s="9"/>
-    </row>
-    <row r="37" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
+      <c r="BZ36" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="CC36" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="CD36" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE36" s="9"/>
+      <c r="CF36" s="9"/>
+    </row>
+    <row r="37" spans="1:84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>38</v>
       </c>
@@ -2692,7 +3159,7 @@
       <c r="AP37" s="7"/>
       <c r="AQ37" s="7"/>
       <c r="AR37" s="7"/>
-      <c r="AX37" t="s">
+      <c r="AX37" s="23" t="s">
         <v>49</v>
       </c>
       <c r="BQ37" s="9" t="s">
@@ -2705,8 +3172,14 @@
       <c r="BV37" s="9"/>
       <c r="BW37" s="9"/>
       <c r="BX37" s="9"/>
-    </row>
-    <row r="38" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
+      <c r="CC37" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="CD37" s="9"/>
+      <c r="CE37" s="9"/>
+      <c r="CF37" s="9"/>
+    </row>
+    <row r="38" spans="1:84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>39</v>
       </c>
@@ -2718,13 +3191,13 @@
       <c r="AP38" s="7"/>
       <c r="AQ38" s="7"/>
       <c r="AR38" s="7"/>
-      <c r="AX38" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY38" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ38" t="s">
+      <c r="AX38" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY38" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ38" s="24" t="s">
         <v>49</v>
       </c>
       <c r="BQ38" s="9" t="s">
@@ -2739,8 +3212,19 @@
       <c r="BV38" s="9"/>
       <c r="BW38" s="9"/>
       <c r="BX38" s="9"/>
-    </row>
-    <row r="39" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
+      <c r="BZ38" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="CC38" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="CD38" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE38" s="9"/>
+      <c r="CF38" s="9"/>
+    </row>
+    <row r="39" spans="1:84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>40</v>
       </c>
@@ -2752,13 +3236,13 @@
       <c r="AP39" s="7"/>
       <c r="AQ39" s="7"/>
       <c r="AR39" s="7"/>
-      <c r="AX39" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY39" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ39" t="s">
+      <c r="AX39" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY39" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ39" s="24" t="s">
         <v>49</v>
       </c>
       <c r="BQ39" s="9" t="s">
@@ -2773,8 +3257,19 @@
       <c r="BV39" s="9"/>
       <c r="BW39" s="9"/>
       <c r="BX39" s="9"/>
-    </row>
-    <row r="40" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
+      <c r="BZ39" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="CC39" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="CD39" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE39" s="9"/>
+      <c r="CF39" s="9"/>
+    </row>
+    <row r="40" spans="1:84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>41</v>
       </c>
@@ -2796,8 +3291,14 @@
       <c r="BX40" s="9" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="41" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
+      <c r="CC40" s="9"/>
+      <c r="CD40" s="9"/>
+      <c r="CE40" s="9"/>
+      <c r="CF40" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>42</v>
       </c>
@@ -2819,8 +3320,14 @@
       <c r="BX41" s="9" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="42" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
+      <c r="CC41" s="9"/>
+      <c r="CD41" s="9"/>
+      <c r="CE41" s="9"/>
+      <c r="CF41" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>43</v>
       </c>
@@ -2842,8 +3349,14 @@
       <c r="BX42" s="9" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="43" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
+      <c r="CC42" s="9"/>
+      <c r="CD42" s="9"/>
+      <c r="CE42" s="9"/>
+      <c r="CF42" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>44</v>
       </c>
@@ -2855,13 +3368,13 @@
       <c r="AP43" s="7"/>
       <c r="AQ43" s="7"/>
       <c r="AR43" s="7"/>
-      <c r="AX43" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY43" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ43" t="s">
+      <c r="AX43" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY43" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ43" s="24" t="s">
         <v>49</v>
       </c>
       <c r="BQ43" s="9" t="s">
@@ -2882,8 +3395,21 @@
       <c r="BX43" s="9" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="44" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
+      <c r="BZ43" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="CC43" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="CD43" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE43" s="9"/>
+      <c r="CF43" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>45</v>
       </c>
@@ -2911,8 +3437,12 @@
       </c>
       <c r="BW44" s="9"/>
       <c r="BX44" s="9"/>
-    </row>
-    <row r="45" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="CC44" s="9"/>
+      <c r="CD44" s="9"/>
+      <c r="CE44" s="9"/>
+      <c r="CF44" s="9"/>
+    </row>
+    <row r="45" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>46</v>
       </c>
@@ -2927,8 +3457,11 @@
       <c r="BX45" s="9" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="46" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="CF45" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>47</v>
       </c>
@@ -2943,8 +3476,11 @@
       <c r="BX46" s="9" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="47" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="CF46" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>48</v>
       </c>
@@ -2959,8 +3495,11 @@
       <c r="BX47" s="9" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="48" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
+      <c r="CF47" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>49</v>
       </c>
@@ -2982,8 +3521,14 @@
       <c r="BX48" s="9" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="49" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
+      <c r="CC48" s="9"/>
+      <c r="CD48" s="9"/>
+      <c r="CE48" s="9"/>
+      <c r="CF48" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>50</v>
       </c>
@@ -3011,8 +3556,12 @@
       <c r="BV49" s="9"/>
       <c r="BW49" s="9"/>
       <c r="BX49" s="9"/>
-    </row>
-    <row r="50" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
+      <c r="CC49" s="9"/>
+      <c r="CD49" s="9"/>
+      <c r="CE49" s="9"/>
+      <c r="CF49" s="9"/>
+    </row>
+    <row r="50" spans="1:84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>51</v>
       </c>
@@ -3040,8 +3589,12 @@
       <c r="BV50" s="9"/>
       <c r="BW50" s="9"/>
       <c r="BX50" s="9"/>
-    </row>
-    <row r="51" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
+      <c r="CC50" s="9"/>
+      <c r="CD50" s="9"/>
+      <c r="CE50" s="9"/>
+      <c r="CF50" s="9"/>
+    </row>
+    <row r="51" spans="1:84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>52</v>
       </c>
@@ -3069,8 +3622,12 @@
       <c r="BV51" s="9"/>
       <c r="BW51" s="9"/>
       <c r="BX51" s="9"/>
-    </row>
-    <row r="52" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
+      <c r="CC51" s="9"/>
+      <c r="CD51" s="9"/>
+      <c r="CE51" s="9"/>
+      <c r="CF51" s="9"/>
+    </row>
+    <row r="52" spans="1:84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>53</v>
       </c>
@@ -3098,8 +3655,12 @@
       <c r="BV52" s="9"/>
       <c r="BW52" s="9"/>
       <c r="BX52" s="9"/>
-    </row>
-    <row r="53" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
+      <c r="CC52" s="9"/>
+      <c r="CD52" s="9"/>
+      <c r="CE52" s="9"/>
+      <c r="CF52" s="9"/>
+    </row>
+    <row r="53" spans="1:84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>54</v>
       </c>
@@ -3127,8 +3688,12 @@
       <c r="BV53" s="9"/>
       <c r="BW53" s="9"/>
       <c r="BX53" s="9"/>
-    </row>
-    <row r="54" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
+      <c r="CC53" s="9"/>
+      <c r="CD53" s="9"/>
+      <c r="CE53" s="9"/>
+      <c r="CF53" s="9"/>
+    </row>
+    <row r="54" spans="1:84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>55</v>
       </c>
@@ -3156,8 +3721,12 @@
       <c r="BV54" s="9"/>
       <c r="BW54" s="9"/>
       <c r="BX54" s="9"/>
-    </row>
-    <row r="55" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
+      <c r="CC54" s="9"/>
+      <c r="CD54" s="9"/>
+      <c r="CE54" s="9"/>
+      <c r="CF54" s="9"/>
+    </row>
+    <row r="55" spans="1:84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>56</v>
       </c>
@@ -3185,8 +3754,12 @@
       <c r="BV55" s="9"/>
       <c r="BW55" s="9"/>
       <c r="BX55" s="9"/>
-    </row>
-    <row r="56" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
+      <c r="CC55" s="9"/>
+      <c r="CD55" s="9"/>
+      <c r="CE55" s="9"/>
+      <c r="CF55" s="9"/>
+    </row>
+    <row r="56" spans="1:84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>57</v>
       </c>
@@ -3212,8 +3785,12 @@
       <c r="BV56" s="9"/>
       <c r="BW56" s="9"/>
       <c r="BX56" s="9"/>
-    </row>
-    <row r="57" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="CC56" s="9"/>
+      <c r="CD56" s="9"/>
+      <c r="CE56" s="9"/>
+      <c r="CF56" s="9"/>
+    </row>
+    <row r="57" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>58</v>
       </c>
@@ -3250,19 +3827,19 @@
       <c r="AR57" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AS57" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT57" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU57" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV57" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW57" t="s">
+      <c r="AS57" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT57" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU57" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV57" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW57" s="23" t="s">
         <v>49</v>
       </c>
       <c r="BA57" t="s">
@@ -3281,7 +3858,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:76" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>59</v>
       </c>
@@ -3321,19 +3898,19 @@
       <c r="AR58" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AS58" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT58" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU58" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV58" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW58" s="4" t="s">
+      <c r="AS58" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT58" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU58" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV58" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW58" s="17" t="s">
         <v>49</v>
       </c>
       <c r="BA58" s="4" t="s">
@@ -3352,7 +3929,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:76" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>60</v>
       </c>
@@ -3392,19 +3969,19 @@
       <c r="AR59" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AS59" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT59" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU59" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV59" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW59" s="4" t="s">
+      <c r="AS59" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT59" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU59" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV59" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW59" s="17" t="s">
         <v>49</v>
       </c>
       <c r="BA59" s="4" t="s">
@@ -3423,7 +4000,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:76" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>61</v>
       </c>
@@ -3453,19 +4030,19 @@
       <c r="AP60" s="7"/>
       <c r="AQ60" s="7"/>
       <c r="AR60" s="7"/>
-      <c r="AS60" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT60" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU60" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV60" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW60" s="4" t="s">
+      <c r="AS60" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT60" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU60" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV60" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW60" s="17" t="s">
         <v>49</v>
       </c>
       <c r="BA60" s="4" t="s">
@@ -3484,7 +4061,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:76" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>62</v>
       </c>
@@ -3527,7 +4104,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:76" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>63</v>
       </c>
@@ -3567,19 +4144,19 @@
       <c r="AR62" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AS62" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT62" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU62" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV62" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW62" s="4" t="s">
+      <c r="AS62" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT62" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU62" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV62" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW62" s="17" t="s">
         <v>49</v>
       </c>
       <c r="BA62" s="4" t="s">
@@ -3598,7 +4175,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>64</v>
       </c>
@@ -3636,10 +4213,10 @@
         <v>51</v>
       </c>
       <c r="AR63" s="7"/>
-      <c r="AS63" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT63" t="s">
+      <c r="AS63" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT63" s="23" t="s">
         <v>49</v>
       </c>
       <c r="BA63" s="4"/>
@@ -3652,7 +4229,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:76" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>65</v>
       </c>
@@ -3698,7 +4275,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>66</v>
       </c>
@@ -3713,7 +4290,7 @@
       <c r="AP65" s="7"/>
       <c r="AQ65" s="7"/>
       <c r="AR65" s="7"/>
-      <c r="AY65" t="s">
+      <c r="AY65" s="23" t="s">
         <v>49</v>
       </c>
       <c r="BA65" t="s">
@@ -3739,8 +4316,15 @@
       <c r="BV65" s="9"/>
       <c r="BW65" s="9"/>
       <c r="BX65" s="9"/>
-    </row>
-    <row r="66" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
+      <c r="BZ65" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="CC65" s="9"/>
+      <c r="CD65" s="9"/>
+      <c r="CE65" s="9"/>
+      <c r="CF65" s="9"/>
+    </row>
+    <row r="66" spans="1:84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>67</v>
       </c>
@@ -3752,7 +4336,7 @@
       <c r="AP66" s="7"/>
       <c r="AQ66" s="7"/>
       <c r="AR66" s="7"/>
-      <c r="AY66" t="s">
+      <c r="AY66" s="23" t="s">
         <v>49</v>
       </c>
       <c r="BQ66" s="9"/>
@@ -3763,8 +4347,15 @@
       <c r="BV66" s="9"/>
       <c r="BW66" s="9"/>
       <c r="BX66" s="9"/>
-    </row>
-    <row r="67" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
+      <c r="BZ66" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="CC66" s="9"/>
+      <c r="CD66" s="9"/>
+      <c r="CE66" s="9"/>
+      <c r="CF66" s="9"/>
+    </row>
+    <row r="67" spans="1:84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>68</v>
       </c>
@@ -3776,7 +4367,7 @@
       <c r="AP67" s="7"/>
       <c r="AQ67" s="7"/>
       <c r="AR67" s="7"/>
-      <c r="AY67" t="s">
+      <c r="AY67" s="23" t="s">
         <v>49</v>
       </c>
       <c r="BQ67" s="9"/>
@@ -3787,8 +4378,15 @@
       <c r="BV67" s="9"/>
       <c r="BW67" s="9"/>
       <c r="BX67" s="9"/>
-    </row>
-    <row r="68" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
+      <c r="BZ67" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="CC67" s="9"/>
+      <c r="CD67" s="9"/>
+      <c r="CE67" s="9"/>
+      <c r="CF67" s="9"/>
+    </row>
+    <row r="68" spans="1:84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>69</v>
       </c>
@@ -3800,7 +4398,7 @@
       <c r="AP68" s="7"/>
       <c r="AQ68" s="7"/>
       <c r="AR68" s="7"/>
-      <c r="AY68" t="s">
+      <c r="AY68" s="23" t="s">
         <v>49</v>
       </c>
       <c r="BQ68" s="9"/>
@@ -3811,8 +4409,15 @@
       <c r="BV68" s="9"/>
       <c r="BW68" s="9"/>
       <c r="BX68" s="9"/>
-    </row>
-    <row r="69" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
+      <c r="BZ68" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="CC68" s="9"/>
+      <c r="CD68" s="9"/>
+      <c r="CE68" s="9"/>
+      <c r="CF68" s="9"/>
+    </row>
+    <row r="69" spans="1:84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>70</v>
       </c>
@@ -3849,19 +4454,19 @@
       <c r="AR69" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AS69" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT69" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU69" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV69" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW69" t="s">
+      <c r="AS69" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT69" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU69" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV69" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW69" s="23" t="s">
         <v>49</v>
       </c>
       <c r="BA69" t="s">
@@ -3887,8 +4492,12 @@
       <c r="BV69" s="9"/>
       <c r="BW69" s="9"/>
       <c r="BX69" s="9"/>
-    </row>
-    <row r="70" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
+      <c r="CC69" s="9"/>
+      <c r="CD69" s="9"/>
+      <c r="CE69" s="9"/>
+      <c r="CF69" s="9"/>
+    </row>
+    <row r="70" spans="1:84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>71</v>
       </c>
@@ -3925,19 +4534,19 @@
       <c r="AR70" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AS70" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT70" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU70" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV70" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW70" t="s">
+      <c r="AS70" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT70" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU70" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV70" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW70" s="23" t="s">
         <v>49</v>
       </c>
       <c r="BA70" t="s">
@@ -3963,8 +4572,12 @@
       <c r="BV70" s="9"/>
       <c r="BW70" s="9"/>
       <c r="BX70" s="9"/>
-    </row>
-    <row r="71" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
+      <c r="CC70" s="9"/>
+      <c r="CD70" s="9"/>
+      <c r="CE70" s="9"/>
+      <c r="CF70" s="9"/>
+    </row>
+    <row r="71" spans="1:84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>72</v>
       </c>
@@ -4001,19 +4614,19 @@
       <c r="AR71" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AS71" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT71" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU71" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV71" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW71" t="s">
+      <c r="AS71" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT71" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU71" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV71" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW71" s="23" t="s">
         <v>49</v>
       </c>
       <c r="BA71" t="s">
@@ -4039,8 +4652,12 @@
       <c r="BV71" s="9"/>
       <c r="BW71" s="9"/>
       <c r="BX71" s="9"/>
-    </row>
-    <row r="72" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
+      <c r="CC71" s="9"/>
+      <c r="CD71" s="9"/>
+      <c r="CE71" s="9"/>
+      <c r="CF71" s="9"/>
+    </row>
+    <row r="72" spans="1:84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>73</v>
       </c>
@@ -4069,8 +4686,12 @@
       <c r="BV72" s="9"/>
       <c r="BW72" s="9"/>
       <c r="BX72" s="9"/>
-    </row>
-    <row r="73" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
+      <c r="CC72" s="9"/>
+      <c r="CD72" s="9"/>
+      <c r="CE72" s="9"/>
+      <c r="CF72" s="9"/>
+    </row>
+    <row r="73" spans="1:84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>74</v>
       </c>
@@ -4107,19 +4728,19 @@
       <c r="AR73" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AS73" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT73" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU73" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV73" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW73" t="s">
+      <c r="AS73" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT73" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU73" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV73" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW73" s="23" t="s">
         <v>49</v>
       </c>
       <c r="BA73" t="s">
@@ -4145,8 +4766,12 @@
       <c r="BV73" s="9"/>
       <c r="BW73" s="9"/>
       <c r="BX73" s="9"/>
-    </row>
-    <row r="74" spans="1:76" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CC73" s="9"/>
+      <c r="CD73" s="9"/>
+      <c r="CE73" s="9"/>
+      <c r="CF73" s="9"/>
+    </row>
+    <row r="74" spans="1:84" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
         <v>75</v>
       </c>
@@ -4169,28 +4794,28 @@
       <c r="AM74" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AS74" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT74" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU74" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV74" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW74" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="AX74" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY74" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ74" s="7" t="s">
+      <c r="AS74" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT74" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU74" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV74" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW74" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="AX74" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY74" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ74" s="21" t="s">
         <v>49</v>
       </c>
       <c r="BA74" s="7" t="s">
@@ -4226,8 +4851,14 @@
       <c r="BV74" s="7" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="75" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
+      <c r="BZ74" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="CA74" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="1:84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>76</v>
       </c>
@@ -4254,10 +4885,10 @@
       <c r="AP75" s="7"/>
       <c r="AQ75" s="7"/>
       <c r="AR75" s="7"/>
-      <c r="AS75" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT75" t="s">
+      <c r="AS75" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT75" s="23" t="s">
         <v>49</v>
       </c>
       <c r="BB75" t="s">
@@ -4274,8 +4905,12 @@
       <c r="BV75" s="9"/>
       <c r="BW75" s="9"/>
       <c r="BX75" s="9"/>
-    </row>
-    <row r="76" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="CC75" s="9"/>
+      <c r="CD75" s="9"/>
+      <c r="CE75" s="9"/>
+      <c r="CF75" s="9"/>
+    </row>
+    <row r="76" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>77</v>
       </c>
@@ -4302,28 +4937,28 @@
       <c r="AP76" s="7"/>
       <c r="AQ76" s="7"/>
       <c r="AR76" s="7"/>
-      <c r="AS76" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT76" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU76" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV76" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW76" t="s">
-        <v>49</v>
-      </c>
-      <c r="AX76" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY76" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ76" t="s">
+      <c r="AS76" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT76" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU76" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV76" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW76" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AX76" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY76" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ76" s="24" t="s">
         <v>49</v>
       </c>
       <c r="BA76" t="s">
@@ -4341,8 +4976,11 @@
       <c r="BE76" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="77" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
+      <c r="BZ76" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="77" spans="1:84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>78</v>
       </c>
@@ -4363,7 +5001,7 @@
       <c r="AP77" s="7"/>
       <c r="AQ77" s="7"/>
       <c r="AR77" s="7"/>
-      <c r="AT77" t="s">
+      <c r="AT77" s="23" t="s">
         <v>49</v>
       </c>
       <c r="BQ77" s="9"/>
@@ -4374,8 +5012,12 @@
       <c r="BV77" s="9"/>
       <c r="BW77" s="9"/>
       <c r="BX77" s="9"/>
-    </row>
-    <row r="78" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="CC77" s="9"/>
+      <c r="CD77" s="9"/>
+      <c r="CE77" s="9"/>
+      <c r="CF77" s="9"/>
+    </row>
+    <row r="78" spans="1:84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>79</v>
       </c>
@@ -4420,8 +5062,11 @@
       <c r="BV78" s="9" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="79" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="CA78" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="1:84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>80</v>
       </c>
@@ -4440,7 +5085,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="80" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>81</v>
       </c>
@@ -4452,7 +5097,7 @@
       <c r="AP80" s="7"/>
       <c r="AQ80" s="7"/>
       <c r="AR80" s="7"/>
-      <c r="AY80" t="s">
+      <c r="AY80" s="23" t="s">
         <v>49</v>
       </c>
       <c r="BQ80" s="9"/>
@@ -4463,8 +5108,15 @@
       <c r="BV80" s="9"/>
       <c r="BW80" s="9"/>
       <c r="BX80" s="9"/>
-    </row>
-    <row r="81" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
+      <c r="BZ80" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="CC80" s="9"/>
+      <c r="CD80" s="9"/>
+      <c r="CE80" s="9"/>
+      <c r="CF80" s="9"/>
+    </row>
+    <row r="81" spans="1:84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>82</v>
       </c>
@@ -4476,7 +5128,7 @@
       <c r="AP81" s="7"/>
       <c r="AQ81" s="7"/>
       <c r="AR81" s="7"/>
-      <c r="AY81" t="s">
+      <c r="AY81" s="23" t="s">
         <v>49</v>
       </c>
       <c r="BQ81" s="9"/>
@@ -4487,8 +5139,15 @@
       <c r="BV81" s="9"/>
       <c r="BW81" s="9"/>
       <c r="BX81" s="9"/>
-    </row>
-    <row r="82" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
+      <c r="BZ81" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="CC81" s="9"/>
+      <c r="CD81" s="9"/>
+      <c r="CE81" s="9"/>
+      <c r="CF81" s="9"/>
+    </row>
+    <row r="82" spans="1:84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>83</v>
       </c>
@@ -4500,7 +5159,7 @@
       <c r="AP82" s="7"/>
       <c r="AQ82" s="7"/>
       <c r="AR82" s="7"/>
-      <c r="AY82" t="s">
+      <c r="AY82" s="23" t="s">
         <v>49</v>
       </c>
       <c r="BQ82" s="9"/>
@@ -4511,8 +5170,15 @@
       <c r="BV82" s="9"/>
       <c r="BW82" s="9"/>
       <c r="BX82" s="9"/>
-    </row>
-    <row r="83" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
+      <c r="BZ82" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="CC82" s="9"/>
+      <c r="CD82" s="9"/>
+      <c r="CE82" s="9"/>
+      <c r="CF82" s="9"/>
+    </row>
+    <row r="83" spans="1:84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>84</v>
       </c>
@@ -4524,7 +5190,7 @@
       <c r="AP83" s="7"/>
       <c r="AQ83" s="7"/>
       <c r="AR83" s="7"/>
-      <c r="AY83" t="s">
+      <c r="AY83" s="23" t="s">
         <v>49</v>
       </c>
       <c r="BQ83" s="9"/>
@@ -4535,8 +5201,15 @@
       <c r="BV83" s="9"/>
       <c r="BW83" s="9"/>
       <c r="BX83" s="9"/>
-    </row>
-    <row r="84" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
+      <c r="BZ83" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="CC83" s="9"/>
+      <c r="CD83" s="9"/>
+      <c r="CE83" s="9"/>
+      <c r="CF83" s="9"/>
+    </row>
+    <row r="84" spans="1:84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>85</v>
       </c>
@@ -4568,16 +5241,16 @@
         <v>51</v>
       </c>
       <c r="AR84" s="7"/>
-      <c r="AS84" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT84" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU84" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV84" t="s">
+      <c r="AS84" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT84" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU84" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV84" s="23" t="s">
         <v>49</v>
       </c>
       <c r="BA84" t="s">
@@ -4603,8 +5276,12 @@
       <c r="BV84" s="9"/>
       <c r="BW84" s="9"/>
       <c r="BX84" s="9"/>
-    </row>
-    <row r="85" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="CC84" s="9"/>
+      <c r="CD84" s="9"/>
+      <c r="CE84" s="9"/>
+      <c r="CF84" s="9"/>
+    </row>
+    <row r="85" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>86</v>
       </c>
@@ -4639,28 +5316,28 @@
         <v>51</v>
       </c>
       <c r="AR85" s="7"/>
-      <c r="AS85" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT85" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU85" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV85" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW85" t="s">
-        <v>49</v>
-      </c>
-      <c r="AX85" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY85" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ85" t="s">
+      <c r="AS85" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT85" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU85" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV85" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW85" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AX85" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY85" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ85" s="24" t="s">
         <v>49</v>
       </c>
       <c r="BA85" t="s">
@@ -4678,8 +5355,11 @@
       <c r="BE85" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="86" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
+      <c r="BZ85" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="86" spans="1:84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>87</v>
       </c>
@@ -4703,10 +5383,10 @@
       <c r="AP86" s="7"/>
       <c r="AQ86" s="7"/>
       <c r="AR86" s="7"/>
-      <c r="AS86" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT86" t="s">
+      <c r="AS86" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT86" s="23" t="s">
         <v>49</v>
       </c>
       <c r="BB86" t="s">
@@ -4723,8 +5403,12 @@
       <c r="BV86" s="9"/>
       <c r="BW86" s="9"/>
       <c r="BX86" s="9"/>
-    </row>
-    <row r="87" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="CC86" s="9"/>
+      <c r="CD86" s="9"/>
+      <c r="CE86" s="9"/>
+      <c r="CF86" s="9"/>
+    </row>
+    <row r="87" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>88</v>
       </c>
@@ -4736,17 +5420,20 @@
       <c r="AP87" s="7"/>
       <c r="AQ87" s="7"/>
       <c r="AR87" s="7"/>
-      <c r="AX87" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY87" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ87" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="88" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AX87" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY87" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ87" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="BZ87" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="88" spans="1:84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>89</v>
       </c>
@@ -4781,10 +5468,10 @@
         <v>51</v>
       </c>
       <c r="AR88" s="7"/>
-      <c r="AS88" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT88" t="s">
+      <c r="AS88" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT88" s="23" t="s">
         <v>49</v>
       </c>
       <c r="BB88" t="s">
@@ -4801,8 +5488,12 @@
       <c r="BV88" s="9"/>
       <c r="BW88" s="9"/>
       <c r="BX88" s="9"/>
-    </row>
-    <row r="89" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
+      <c r="CC88" s="9"/>
+      <c r="CD88" s="9"/>
+      <c r="CE88" s="9"/>
+      <c r="CF88" s="9"/>
+    </row>
+    <row r="89" spans="1:84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>90</v>
       </c>
@@ -4837,8 +5528,12 @@
       <c r="BV89" s="9"/>
       <c r="BW89" s="9"/>
       <c r="BX89" s="9"/>
-    </row>
-    <row r="90" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
+      <c r="CC89" s="9"/>
+      <c r="CD89" s="9"/>
+      <c r="CE89" s="9"/>
+      <c r="CF89" s="9"/>
+    </row>
+    <row r="90" spans="1:84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>91</v>
       </c>
@@ -4862,7 +5557,7 @@
       <c r="AP90" s="7"/>
       <c r="AQ90" s="7"/>
       <c r="AR90" s="7"/>
-      <c r="AT90" t="s">
+      <c r="AT90" s="23" t="s">
         <v>49</v>
       </c>
       <c r="BQ90" s="9"/>
@@ -4873,8 +5568,12 @@
       <c r="BV90" s="9"/>
       <c r="BW90" s="9"/>
       <c r="BX90" s="9"/>
-    </row>
-    <row r="91" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="CC90" s="9"/>
+      <c r="CD90" s="9"/>
+      <c r="CE90" s="9"/>
+      <c r="CF90" s="9"/>
+    </row>
+    <row r="91" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>92</v>
       </c>
@@ -4896,7 +5595,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="92" spans="1:76" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>93</v>
       </c>
@@ -4918,7 +5617,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="1:76" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>94</v>
       </c>
@@ -4940,7 +5639,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="94" spans="1:76" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>95</v>
       </c>
@@ -4962,7 +5661,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="95" spans="1:76" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>96</v>
       </c>
@@ -4999,19 +5698,19 @@
       <c r="AR95" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AS95" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT95" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU95" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV95" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW95" t="s">
+      <c r="AS95" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT95" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU95" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV95" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW95" s="23" t="s">
         <v>49</v>
       </c>
       <c r="BA95" t="s">
@@ -5033,7 +5732,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="96" spans="1:76" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>97</v>
       </c>
@@ -5063,25 +5762,25 @@
       <c r="AP96" s="7"/>
       <c r="AQ96" s="7"/>
       <c r="AR96" s="7"/>
-      <c r="AS96" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT96" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU96" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV96" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW96" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY96" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ96" t="s">
+      <c r="AS96" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT96" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU96" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV96" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW96" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY96" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ96" s="24" t="s">
         <v>49</v>
       </c>
       <c r="BA96" t="s">
@@ -5099,8 +5798,11 @@
       <c r="BE96" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="97" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="BZ96" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="97" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>98</v>
       </c>
@@ -5115,7 +5817,7 @@
       <c r="AP97" s="7"/>
       <c r="AQ97" s="7"/>
       <c r="AR97" s="7"/>
-      <c r="AX97" t="s">
+      <c r="AX97" s="23" t="s">
         <v>49</v>
       </c>
       <c r="BQ97" s="9" t="s">
@@ -5136,8 +5838,14 @@
       <c r="BV97" s="9" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="98" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
+      <c r="CC97" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="CD97" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="98" spans="1:84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>99</v>
       </c>
@@ -5161,7 +5869,7 @@
       <c r="AP98" s="7"/>
       <c r="AQ98" s="7"/>
       <c r="AR98" s="7"/>
-      <c r="AT98" t="s">
+      <c r="AT98" s="23" t="s">
         <v>49</v>
       </c>
       <c r="BQ98" s="9"/>
@@ -5172,8 +5880,12 @@
       <c r="BV98" s="9"/>
       <c r="BW98" s="9"/>
       <c r="BX98" s="9"/>
-    </row>
-    <row r="99" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="CC98" s="9"/>
+      <c r="CD98" s="9"/>
+      <c r="CE98" s="9"/>
+      <c r="CF98" s="9"/>
+    </row>
+    <row r="99" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>100</v>
       </c>
@@ -5200,28 +5912,28 @@
       <c r="AP99" s="7"/>
       <c r="AQ99" s="7"/>
       <c r="AR99" s="7"/>
-      <c r="AS99" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT99" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU99" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV99" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW99" t="s">
-        <v>49</v>
-      </c>
-      <c r="AX99" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY99" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ99" t="s">
+      <c r="AS99" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT99" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU99" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV99" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW99" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AX99" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY99" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ99" s="24" t="s">
         <v>49</v>
       </c>
       <c r="BA99" t="s">
@@ -5239,8 +5951,11 @@
       <c r="BE99" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="100" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="BZ99" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="100" spans="1:84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>101</v>
       </c>
@@ -5267,29 +5982,32 @@
       <c r="AP100" s="7"/>
       <c r="AQ100" s="7"/>
       <c r="AR100" s="7"/>
-      <c r="AS100" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT100" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU100" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV100" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW100" t="s">
-        <v>49</v>
-      </c>
-      <c r="AX100" t="s">
+      <c r="AS100" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT100" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU100" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV100" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW100" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AX100" s="23" t="s">
         <v>49</v>
       </c>
       <c r="BQ100" s="9" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="CC100" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>102</v>
       </c>
@@ -5316,29 +6034,32 @@
       <c r="AP101" s="7"/>
       <c r="AQ101" s="7"/>
       <c r="AR101" s="7"/>
-      <c r="AS101" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT101" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU101" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV101" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW101" t="s">
-        <v>49</v>
-      </c>
-      <c r="AX101" t="s">
+      <c r="AS101" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT101" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU101" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV101" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW101" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AX101" s="23" t="s">
         <v>49</v>
       </c>
       <c r="BQ101" s="9" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="102" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="CC101" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>103</v>
       </c>
@@ -5365,28 +6086,28 @@
       <c r="AP102" s="7"/>
       <c r="AQ102" s="7"/>
       <c r="AR102" s="7"/>
-      <c r="AS102" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT102" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU102" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV102" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW102" t="s">
-        <v>49</v>
-      </c>
-      <c r="AX102" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY102" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ102" t="s">
+      <c r="AS102" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT102" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU102" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV102" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW102" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AX102" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY102" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ102" s="24" t="s">
         <v>49</v>
       </c>
       <c r="BA102" t="s">
@@ -5410,8 +6131,17 @@
       <c r="BR102" s="9" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="103" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="BZ102" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="CC102" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="CD102" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="103" spans="1:84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>104</v>
       </c>
@@ -5423,13 +6153,13 @@
       <c r="AP103" s="7"/>
       <c r="AQ103" s="7"/>
       <c r="AR103" s="7"/>
-      <c r="AX103" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY103" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ103" t="s">
+      <c r="AX103" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY103" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ103" s="24" t="s">
         <v>49</v>
       </c>
       <c r="BQ103" s="9" t="s">
@@ -5438,8 +6168,17 @@
       <c r="BR103" s="9" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="104" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
+      <c r="BZ103" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="CC103" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="CD103" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="104" spans="1:84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>105</v>
       </c>
@@ -5460,16 +6199,16 @@
       <c r="AP104" s="7"/>
       <c r="AQ104" s="7"/>
       <c r="AR104" s="7"/>
-      <c r="AT104" t="s">
+      <c r="AT104" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="AU104" t="s">
+      <c r="AU104" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="AV104" t="s">
+      <c r="AV104" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="AW104" t="s">
+      <c r="AW104" s="23" t="s">
         <v>82</v>
       </c>
       <c r="BQ104" s="9"/>
@@ -5480,8 +6219,12 @@
       <c r="BV104" s="9"/>
       <c r="BW104" s="9"/>
       <c r="BX104" s="9"/>
-    </row>
-    <row r="105" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="CC104" s="9"/>
+      <c r="CD104" s="9"/>
+      <c r="CE104" s="9"/>
+      <c r="CF104" s="9"/>
+    </row>
+    <row r="105" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>106</v>
       </c>
@@ -5508,28 +6251,28 @@
       <c r="AP105" s="7"/>
       <c r="AQ105" s="7"/>
       <c r="AR105" s="7"/>
-      <c r="AS105" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT105" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU105" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV105" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW105" t="s">
-        <v>49</v>
-      </c>
-      <c r="AX105" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY105" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ105" t="s">
+      <c r="AS105" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT105" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU105" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV105" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW105" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AX105" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY105" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ105" s="24" t="s">
         <v>49</v>
       </c>
       <c r="BA105" t="s">
@@ -5553,8 +6296,17 @@
       <c r="BR105" s="9" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="106" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
+      <c r="BZ105" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="CC105" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="CD105" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="106" spans="1:84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>107</v>
       </c>
@@ -5566,7 +6318,7 @@
       <c r="AP106" s="7"/>
       <c r="AQ106" s="7"/>
       <c r="AR106" s="7"/>
-      <c r="AX106" t="s">
+      <c r="AX106" s="23" t="s">
         <v>49</v>
       </c>
       <c r="BQ106" s="9" t="s">
@@ -5579,8 +6331,14 @@
       <c r="BV106" s="9"/>
       <c r="BW106" s="9"/>
       <c r="BX106" s="9"/>
-    </row>
-    <row r="107" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="CC106" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="CD106" s="9"/>
+      <c r="CE106" s="9"/>
+      <c r="CF106" s="9"/>
+    </row>
+    <row r="107" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>108</v>
       </c>
@@ -5607,28 +6365,28 @@
       <c r="AP107" s="7"/>
       <c r="AQ107" s="7"/>
       <c r="AR107" s="7"/>
-      <c r="AS107" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT107" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU107" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV107" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW107" t="s">
-        <v>49</v>
-      </c>
-      <c r="AX107" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY107" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ107" t="s">
+      <c r="AS107" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT107" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU107" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV107" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW107" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AX107" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY107" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ107" s="24" t="s">
         <v>49</v>
       </c>
       <c r="BA107" t="s">
@@ -5652,8 +6410,17 @@
       <c r="BR107" s="9" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="108" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
+      <c r="BZ107" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="CC107" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="CD107" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="108" spans="1:84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>109</v>
       </c>
@@ -5680,13 +6447,13 @@
       <c r="AP108" s="7"/>
       <c r="AQ108" s="7"/>
       <c r="AR108" s="7"/>
-      <c r="AS108" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT108" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY108" t="s">
+      <c r="AS108" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT108" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY108" s="23" t="s">
         <v>49</v>
       </c>
       <c r="BQ108" s="9"/>
@@ -5697,8 +6464,15 @@
       <c r="BV108" s="9"/>
       <c r="BW108" s="9"/>
       <c r="BX108" s="9"/>
-    </row>
-    <row r="109" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="BZ108" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="CC108" s="9"/>
+      <c r="CD108" s="9"/>
+      <c r="CE108" s="9"/>
+      <c r="CF108" s="9"/>
+    </row>
+    <row r="109" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>110</v>
       </c>
@@ -5710,13 +6484,13 @@
       <c r="AP109" s="7"/>
       <c r="AQ109" s="7"/>
       <c r="AR109" s="7"/>
-      <c r="AX109" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY109" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ109" t="s">
+      <c r="AX109" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY109" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ109" s="24" t="s">
         <v>49</v>
       </c>
       <c r="BQ109" s="9" t="s">
@@ -5725,8 +6499,17 @@
       <c r="BR109" s="9" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="110" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="BZ109" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="CC109" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="CD109" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="110" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>111</v>
       </c>
@@ -5753,28 +6536,28 @@
       <c r="AP110" s="7"/>
       <c r="AQ110" s="7"/>
       <c r="AR110" s="7"/>
-      <c r="AS110" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT110" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU110" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV110" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW110" t="s">
-        <v>49</v>
-      </c>
-      <c r="AX110" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY110" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ110" t="s">
+      <c r="AS110" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT110" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU110" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV110" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW110" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AX110" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY110" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ110" s="24" t="s">
         <v>49</v>
       </c>
       <c r="BA110" t="s">
@@ -5810,8 +6593,17 @@
       <c r="BV110" s="9" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="111" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
+      <c r="BZ110" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="CC110" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="CD110" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="111" spans="1:84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>112</v>
       </c>
@@ -5835,7 +6627,7 @@
       <c r="AP111" s="7"/>
       <c r="AQ111" s="7"/>
       <c r="AR111" s="7"/>
-      <c r="AT111" t="s">
+      <c r="AT111" s="23" t="s">
         <v>49</v>
       </c>
       <c r="BQ111" s="9"/>
@@ -5846,8 +6638,12 @@
       <c r="BV111" s="9"/>
       <c r="BW111" s="9"/>
       <c r="BX111" s="9"/>
-    </row>
-    <row r="112" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="CC111" s="9"/>
+      <c r="CD111" s="9"/>
+      <c r="CE111" s="9"/>
+      <c r="CF111" s="9"/>
+    </row>
+    <row r="112" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>113</v>
       </c>
@@ -5862,13 +6658,13 @@
       <c r="AP112" s="7"/>
       <c r="AQ112" s="7"/>
       <c r="AR112" s="7"/>
-      <c r="AX112" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY112" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ112" t="s">
+      <c r="AX112" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY112" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ112" s="24" t="s">
         <v>49</v>
       </c>
       <c r="BQ112" s="9" t="s">
@@ -5889,8 +6685,17 @@
       <c r="BV112" s="9" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="113" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="BZ112" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="CC112" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="CD112" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="113" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>114</v>
       </c>
@@ -5914,25 +6719,25 @@
       <c r="AP113" s="7"/>
       <c r="AQ113" s="7"/>
       <c r="AR113" s="7"/>
-      <c r="AT113" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU113" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV113" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW113" t="s">
-        <v>49</v>
-      </c>
-      <c r="AX113" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY113" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ113" t="s">
+      <c r="AT113" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU113" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV113" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW113" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AX113" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY113" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ113" s="24" t="s">
         <v>49</v>
       </c>
       <c r="BA113" t="s">
@@ -5956,8 +6761,17 @@
       <c r="BR113" s="9" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="114" spans="1:76" x14ac:dyDescent="0.2">
+      <c r="BZ113" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="CC113" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="CD113" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="114" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>115</v>
       </c>
@@ -5984,16 +6798,16 @@
       <c r="AP114" s="7"/>
       <c r="AQ114" s="7"/>
       <c r="AR114" s="7"/>
-      <c r="AT114" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU114" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV114" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW114" t="s">
+      <c r="AT114" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU114" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV114" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW114" s="23" t="s">
         <v>49</v>
       </c>
       <c r="BA114" t="s">
@@ -6012,7 +6826,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="115" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>116</v>
       </c>
@@ -6042,8 +6856,12 @@
       <c r="BV115" s="9"/>
       <c r="BW115" s="9"/>
       <c r="BX115" s="9"/>
-    </row>
-    <row r="116" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
+      <c r="CC115" s="9"/>
+      <c r="CD115" s="9"/>
+      <c r="CE115" s="9"/>
+      <c r="CF115" s="9"/>
+    </row>
+    <row r="116" spans="1:84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>118</v>
       </c>
@@ -6060,7 +6878,7 @@
       <c r="AP116" s="7"/>
       <c r="AQ116" s="7"/>
       <c r="AR116" s="7"/>
-      <c r="AT116" t="s">
+      <c r="AT116" s="23" t="s">
         <v>49</v>
       </c>
       <c r="BB116" t="s">
@@ -6077,8 +6895,12 @@
       <c r="BV116" s="9"/>
       <c r="BW116" s="9"/>
       <c r="BX116" s="9"/>
-    </row>
-    <row r="117" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
+      <c r="CC116" s="9"/>
+      <c r="CD116" s="9"/>
+      <c r="CE116" s="9"/>
+      <c r="CF116" s="9"/>
+    </row>
+    <row r="117" spans="1:84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>119</v>
       </c>
@@ -6108,8 +6930,12 @@
       <c r="BV117" s="9"/>
       <c r="BW117" s="9"/>
       <c r="BX117" s="9"/>
-    </row>
-    <row r="118" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
+      <c r="CC117" s="9"/>
+      <c r="CD117" s="9"/>
+      <c r="CE117" s="9"/>
+      <c r="CF117" s="9"/>
+    </row>
+    <row r="118" spans="1:84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>120</v>
       </c>
@@ -6139,8 +6965,12 @@
       <c r="BV118" s="9"/>
       <c r="BW118" s="9"/>
       <c r="BX118" s="9"/>
-    </row>
-    <row r="119" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
+      <c r="CC118" s="9"/>
+      <c r="CD118" s="9"/>
+      <c r="CE118" s="9"/>
+      <c r="CF118" s="9"/>
+    </row>
+    <row r="119" spans="1:84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>121</v>
       </c>
@@ -6170,8 +7000,12 @@
       <c r="BV119" s="9"/>
       <c r="BW119" s="9"/>
       <c r="BX119" s="9"/>
-    </row>
-    <row r="120" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
+      <c r="CC119" s="9"/>
+      <c r="CD119" s="9"/>
+      <c r="CE119" s="9"/>
+      <c r="CF119" s="9"/>
+    </row>
+    <row r="120" spans="1:84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>122</v>
       </c>
@@ -6208,19 +7042,19 @@
       <c r="AR120" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AS120" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT120" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU120" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV120" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW120" t="s">
+      <c r="AS120" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT120" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU120" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV120" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW120" s="23" t="s">
         <v>49</v>
       </c>
       <c r="BA120" t="s">
@@ -6246,9 +7080,13 @@
       <c r="BV120" s="9"/>
       <c r="BW120" s="9"/>
       <c r="BX120" s="9"/>
-    </row>
-    <row r="121" spans="1:76" x14ac:dyDescent="0.2">
-      <c r="A121" s="12">
+      <c r="CC120" s="9"/>
+      <c r="CD120" s="9"/>
+      <c r="CE120" s="9"/>
+      <c r="CF120" s="9"/>
+    </row>
+    <row r="121" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A121" s="11">
         <v>123</v>
       </c>
       <c r="D121" s="4" t="s">
@@ -6287,19 +7125,19 @@
       <c r="AR121" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AS121" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT121" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU121" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV121" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW121" s="4" t="s">
+      <c r="AS121" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT121" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU121" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV121" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW121" s="17" t="s">
         <v>49</v>
       </c>
       <c r="BA121" s="4" t="s">
@@ -6318,8 +7156,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="122" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="12">
+    <row r="122" spans="1:84" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="11">
         <v>124</v>
       </c>
       <c r="D122" t="s">
@@ -6355,19 +7193,19 @@
       <c r="AR122" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AS122" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT122" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU122" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV122" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW122" t="s">
+      <c r="AS122" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT122" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU122" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV122" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW122" s="23" t="s">
         <v>49</v>
       </c>
       <c r="BA122" t="s">
@@ -6402,9 +7240,13 @@
       <c r="BV122" s="9"/>
       <c r="BW122" s="9"/>
       <c r="BX122" s="9"/>
-    </row>
-    <row r="123" spans="1:76" x14ac:dyDescent="0.2">
-      <c r="A123" s="12">
+      <c r="CC122" s="9"/>
+      <c r="CD122" s="9"/>
+      <c r="CE122" s="9"/>
+      <c r="CF122" s="9"/>
+    </row>
+    <row r="123" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A123" s="11">
         <v>125</v>
       </c>
       <c r="D123" s="9" t="s">
@@ -6418,13 +7260,13 @@
       <c r="AP123" s="7"/>
       <c r="AQ123" s="7"/>
       <c r="AR123" s="7"/>
-      <c r="AX123" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY123" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ123" s="9" t="s">
+      <c r="AX123" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY123" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ123" s="26" t="s">
         <v>49</v>
       </c>
       <c r="BF123" s="9" t="s">
@@ -6469,9 +7311,30 @@
       <c r="BX123" s="9" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="124" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="12">
+      <c r="BZ123" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="CA123" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="CB123" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="CC123" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="CD123" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE123" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF123" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="124" spans="1:84" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="11">
         <v>126</v>
       </c>
       <c r="D124" s="10" t="s">
@@ -6503,9 +7366,13 @@
       <c r="BV124" s="9"/>
       <c r="BW124" s="9"/>
       <c r="BX124" s="9"/>
-    </row>
-    <row r="125" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="12">
+      <c r="CC124" s="9"/>
+      <c r="CD124" s="9"/>
+      <c r="CE124" s="9"/>
+      <c r="CF124" s="9"/>
+    </row>
+    <row r="125" spans="1:84" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="11">
         <v>127</v>
       </c>
       <c r="D125" s="10" t="s">
@@ -6537,9 +7404,13 @@
       <c r="BV125" s="9"/>
       <c r="BW125" s="9"/>
       <c r="BX125" s="9"/>
-    </row>
-    <row r="126" spans="1:76" x14ac:dyDescent="0.2">
-      <c r="A126" s="12">
+      <c r="CC125" s="9"/>
+      <c r="CD125" s="9"/>
+      <c r="CE125" s="9"/>
+      <c r="CF125" s="9"/>
+    </row>
+    <row r="126" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A126" s="11">
         <v>128</v>
       </c>
       <c r="D126" s="4" t="s">
@@ -6576,13 +7447,13 @@
         <v>51</v>
       </c>
       <c r="AR126" s="7"/>
-      <c r="AS126" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT126" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AX126" s="4" t="s">
+      <c r="AS126" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT126" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="AX126" s="17" t="s">
         <v>49</v>
       </c>
       <c r="BB126" s="4" t="s">
@@ -6606,9 +7477,12 @@
       <c r="BU126" s="9" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="127" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="12">
+      <c r="CC126" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="127" spans="1:84" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="11">
         <v>129</v>
       </c>
       <c r="D127" s="10" t="s">
@@ -6645,9 +7519,13 @@
       <c r="BV127" s="9"/>
       <c r="BW127" s="9"/>
       <c r="BX127" s="9"/>
-    </row>
-    <row r="128" spans="1:76" x14ac:dyDescent="0.2">
-      <c r="A128" s="12">
+      <c r="CC127" s="9"/>
+      <c r="CD127" s="9"/>
+      <c r="CE127" s="9"/>
+      <c r="CF127" s="9"/>
+    </row>
+    <row r="128" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A128" s="11">
         <v>130</v>
       </c>
       <c r="D128" s="4" t="s">
@@ -6686,19 +7564,19 @@
       <c r="AR128" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AS128" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT128" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU128" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV128" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW128" s="4" t="s">
+      <c r="AS128" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT128" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU128" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV128" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW128" s="17" t="s">
         <v>49</v>
       </c>
       <c r="BA128" s="4" t="s">
@@ -6729,7 +7607,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="129" spans="1:76" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:84" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>131</v>
       </c>
@@ -6756,6 +7634,13 @@
       </c>
       <c r="BW129" s="9"/>
       <c r="BX129" s="9"/>
+      <c r="CA129" t="s">
+        <v>50</v>
+      </c>
+      <c r="CC129" s="9"/>
+      <c r="CD129" s="9"/>
+      <c r="CE129" s="9"/>
+      <c r="CF129" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Dot NET/VS Projects/VS Projects Templates.xlsx
+++ b/Dot NET/VS Projects/VS Projects Templates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ronniekleinfeld/Dev/White-Paper/Dot NET/VS Projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44CCA764-1203-1F45-B06A-70809F363BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FC7395-453C-244A-B860-3EE2005143D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21000" xr2:uid="{E69DFE7B-62AC-9547-98A7-0DA9D773F21C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="21040" windowHeight="21000" xr2:uid="{E69DFE7B-62AC-9547-98A7-0DA9D773F21C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -519,9 +519,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -542,6 +539,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -859,10 +859,10 @@
   <dimension ref="A1:CF129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="BY23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="3" topLeftCell="BT57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BZ74" sqref="BZ74"/>
+      <selection pane="bottomRight" activeCell="CF93" sqref="CF93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -876,15 +876,15 @@
     <col min="16" max="22" width="5.33203125" customWidth="1"/>
     <col min="23" max="28" width="6.33203125" customWidth="1"/>
     <col min="29" max="44" width="5.1640625" customWidth="1"/>
-    <col min="45" max="45" width="5.1640625" style="22" customWidth="1"/>
-    <col min="46" max="51" width="5.1640625" style="23" customWidth="1"/>
-    <col min="52" max="52" width="5.1640625" style="24" customWidth="1"/>
+    <col min="45" max="45" width="5.1640625" style="21" customWidth="1"/>
+    <col min="46" max="51" width="5.1640625" style="22" customWidth="1"/>
+    <col min="52" max="52" width="5.1640625" style="23" customWidth="1"/>
     <col min="53" max="68" width="5.1640625" customWidth="1"/>
     <col min="69" max="71" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="5.1640625" customWidth="1"/>
     <col min="73" max="75" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="76" max="76" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="5.1640625" style="23" customWidth="1"/>
+    <col min="78" max="78" width="5.1640625" style="22" customWidth="1"/>
     <col min="79" max="80" width="5.1640625" customWidth="1"/>
     <col min="81" max="83" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="84" max="84" width="5.33203125" bestFit="1" customWidth="1"/>
@@ -897,12 +897,12 @@
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
       <c r="H1" s="2">
         <v>2013</v>
       </c>
@@ -1014,28 +1014,28 @@
       <c r="AR1" s="2">
         <v>2022</v>
       </c>
-      <c r="AS1" s="13">
+      <c r="AS1" s="12">
         <v>2013</v>
       </c>
-      <c r="AT1" s="14">
+      <c r="AT1" s="13">
         <v>2015</v>
       </c>
-      <c r="AU1" s="14">
+      <c r="AU1" s="13">
         <v>2017</v>
       </c>
-      <c r="AV1" s="14">
+      <c r="AV1" s="13">
         <v>2019</v>
       </c>
-      <c r="AW1" s="14">
+      <c r="AW1" s="13">
         <v>2022</v>
       </c>
-      <c r="AX1" s="14">
+      <c r="AX1" s="13">
         <v>2017</v>
       </c>
-      <c r="AY1" s="14">
+      <c r="AY1" s="13">
         <v>2022</v>
       </c>
-      <c r="AZ1" s="15" t="s">
+      <c r="AZ1" s="14" t="s">
         <v>117</v>
       </c>
       <c r="BA1" s="2">
@@ -1110,7 +1110,7 @@
       <c r="BX1" s="2">
         <v>2022</v>
       </c>
-      <c r="BZ1" s="14">
+      <c r="BZ1" s="13">
         <v>2022</v>
       </c>
       <c r="CA1" s="2">
@@ -1244,28 +1244,28 @@
       <c r="AR2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AS2" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT2" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU2" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV2" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW2" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="AX2" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY2" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ2" s="15" t="s">
+      <c r="AS2" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT2" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU2" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV2" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW2" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AX2" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY2" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ2" s="14" t="s">
         <v>49</v>
       </c>
       <c r="BA2" s="2" t="s">
@@ -1340,7 +1340,7 @@
       <c r="BX2" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="BZ2" s="14" t="s">
+      <c r="BZ2" s="13" t="s">
         <v>49</v>
       </c>
       <c r="CA2" s="2" t="s">
@@ -1474,28 +1474,28 @@
       <c r="AR3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AS3" s="13" t="s">
+      <c r="AS3" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="AT3" s="14" t="s">
+      <c r="AT3" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="AU3" s="14" t="s">
+      <c r="AU3" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="AV3" s="14" t="s">
+      <c r="AV3" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="AW3" s="14" t="s">
+      <c r="AW3" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="AX3" s="14" t="s">
+      <c r="AX3" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="AY3" s="14" t="s">
+      <c r="AY3" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="AZ3" s="15" t="s">
+      <c r="AZ3" s="14" t="s">
         <v>86</v>
       </c>
       <c r="BA3" s="2" t="s">
@@ -1570,7 +1570,7 @@
       <c r="BX3" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="BZ3" s="14" t="s">
+      <c r="BZ3" s="13" t="s">
         <v>86</v>
       </c>
       <c r="CA3" s="2" t="s">
@@ -1621,15 +1621,15 @@
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
-      <c r="AS4" s="16"/>
-      <c r="AT4" s="17"/>
-      <c r="AU4" s="17"/>
-      <c r="AV4" s="17"/>
-      <c r="AW4" s="17"/>
-      <c r="AX4" s="17"/>
-      <c r="AY4" s="17"/>
-      <c r="AZ4" s="18"/>
-      <c r="BZ4" s="17"/>
+      <c r="AS4" s="15"/>
+      <c r="AT4" s="16"/>
+      <c r="AU4" s="16"/>
+      <c r="AV4" s="16"/>
+      <c r="AW4" s="16"/>
+      <c r="AX4" s="16"/>
+      <c r="AY4" s="16"/>
+      <c r="AZ4" s="17"/>
+      <c r="BZ4" s="16"/>
     </row>
     <row r="5" spans="1:84" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
@@ -1657,15 +1657,15 @@
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
-      <c r="AS5" s="16"/>
-      <c r="AT5" s="17"/>
-      <c r="AU5" s="17"/>
-      <c r="AV5" s="17"/>
-      <c r="AW5" s="17"/>
-      <c r="AX5" s="17"/>
-      <c r="AY5" s="17"/>
-      <c r="AZ5" s="18"/>
-      <c r="BZ5" s="17"/>
+      <c r="AS5" s="15"/>
+      <c r="AT5" s="16"/>
+      <c r="AU5" s="16"/>
+      <c r="AV5" s="16"/>
+      <c r="AW5" s="16"/>
+      <c r="AX5" s="16"/>
+      <c r="AY5" s="16"/>
+      <c r="AZ5" s="17"/>
+      <c r="BZ5" s="16"/>
     </row>
     <row r="6" spans="1:84" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
@@ -1697,15 +1697,15 @@
         <v>70</v>
       </c>
       <c r="O6" s="8"/>
-      <c r="AS6" s="19"/>
-      <c r="AT6" s="20"/>
-      <c r="AU6" s="20"/>
-      <c r="AV6" s="20"/>
-      <c r="AW6" s="20"/>
-      <c r="AX6" s="20"/>
-      <c r="AY6" s="20"/>
-      <c r="AZ6" s="21"/>
-      <c r="BZ6" s="20"/>
+      <c r="AS6" s="18"/>
+      <c r="AT6" s="19"/>
+      <c r="AU6" s="19"/>
+      <c r="AV6" s="19"/>
+      <c r="AW6" s="19"/>
+      <c r="AX6" s="19"/>
+      <c r="AY6" s="19"/>
+      <c r="AZ6" s="20"/>
+      <c r="BZ6" s="19"/>
     </row>
     <row r="7" spans="1:84" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
@@ -1733,15 +1733,15 @@
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
-      <c r="AS7" s="16"/>
-      <c r="AT7" s="17"/>
-      <c r="AU7" s="17"/>
-      <c r="AV7" s="17"/>
-      <c r="AW7" s="17"/>
-      <c r="AX7" s="17"/>
-      <c r="AY7" s="17"/>
-      <c r="AZ7" s="18"/>
-      <c r="BZ7" s="17"/>
+      <c r="AS7" s="15"/>
+      <c r="AT7" s="16"/>
+      <c r="AU7" s="16"/>
+      <c r="AV7" s="16"/>
+      <c r="AW7" s="16"/>
+      <c r="AX7" s="16"/>
+      <c r="AY7" s="16"/>
+      <c r="AZ7" s="17"/>
+      <c r="BZ7" s="16"/>
     </row>
     <row r="8" spans="1:84" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
@@ -1775,15 +1775,15 @@
       <c r="O8" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="AS8" s="19"/>
-      <c r="AT8" s="20"/>
-      <c r="AU8" s="20"/>
-      <c r="AV8" s="20"/>
-      <c r="AW8" s="20"/>
-      <c r="AX8" s="20"/>
-      <c r="AY8" s="20"/>
-      <c r="AZ8" s="21"/>
-      <c r="BZ8" s="20"/>
+      <c r="AS8" s="18"/>
+      <c r="AT8" s="19"/>
+      <c r="AU8" s="19"/>
+      <c r="AV8" s="19"/>
+      <c r="AW8" s="19"/>
+      <c r="AX8" s="19"/>
+      <c r="AY8" s="19"/>
+      <c r="AZ8" s="20"/>
+      <c r="BZ8" s="19"/>
     </row>
     <row r="9" spans="1:84" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
@@ -1808,15 +1808,15 @@
       <c r="S9" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="AS9" s="16"/>
-      <c r="AT9" s="17"/>
-      <c r="AU9" s="17"/>
-      <c r="AV9" s="17"/>
-      <c r="AW9" s="17"/>
-      <c r="AX9" s="17"/>
-      <c r="AY9" s="17"/>
-      <c r="AZ9" s="18"/>
-      <c r="BZ9" s="17"/>
+      <c r="AS9" s="15"/>
+      <c r="AT9" s="16"/>
+      <c r="AU9" s="16"/>
+      <c r="AV9" s="16"/>
+      <c r="AW9" s="16"/>
+      <c r="AX9" s="16"/>
+      <c r="AY9" s="16"/>
+      <c r="AZ9" s="17"/>
+      <c r="BZ9" s="16"/>
     </row>
     <row r="10" spans="1:84" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
@@ -1838,15 +1838,15 @@
       <c r="S10" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="AS10" s="16"/>
-      <c r="AT10" s="17"/>
-      <c r="AU10" s="17"/>
-      <c r="AV10" s="17"/>
-      <c r="AW10" s="17"/>
-      <c r="AX10" s="17"/>
-      <c r="AY10" s="17"/>
-      <c r="AZ10" s="18"/>
-      <c r="BZ10" s="17"/>
+      <c r="AS10" s="15"/>
+      <c r="AT10" s="16"/>
+      <c r="AU10" s="16"/>
+      <c r="AV10" s="16"/>
+      <c r="AW10" s="16"/>
+      <c r="AX10" s="16"/>
+      <c r="AY10" s="16"/>
+      <c r="AZ10" s="17"/>
+      <c r="BZ10" s="16"/>
     </row>
     <row r="11" spans="1:84" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
@@ -1874,15 +1874,15 @@
       <c r="U11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="AS11" s="19"/>
-      <c r="AT11" s="20"/>
-      <c r="AU11" s="20"/>
-      <c r="AV11" s="20"/>
-      <c r="AW11" s="20"/>
-      <c r="AX11" s="20"/>
-      <c r="AY11" s="20"/>
-      <c r="AZ11" s="21"/>
-      <c r="BZ11" s="20"/>
+      <c r="AS11" s="18"/>
+      <c r="AT11" s="19"/>
+      <c r="AU11" s="19"/>
+      <c r="AV11" s="19"/>
+      <c r="AW11" s="19"/>
+      <c r="AX11" s="19"/>
+      <c r="AY11" s="19"/>
+      <c r="AZ11" s="20"/>
+      <c r="BZ11" s="19"/>
     </row>
     <row r="12" spans="1:84" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
@@ -1913,15 +1913,15 @@
       <c r="V12" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="AS12" s="19"/>
-      <c r="AT12" s="20"/>
-      <c r="AU12" s="20"/>
-      <c r="AV12" s="20"/>
-      <c r="AW12" s="20"/>
-      <c r="AX12" s="20"/>
-      <c r="AY12" s="20"/>
-      <c r="AZ12" s="21"/>
-      <c r="BZ12" s="20"/>
+      <c r="AS12" s="18"/>
+      <c r="AT12" s="19"/>
+      <c r="AU12" s="19"/>
+      <c r="AV12" s="19"/>
+      <c r="AW12" s="19"/>
+      <c r="AX12" s="19"/>
+      <c r="AY12" s="19"/>
+      <c r="AZ12" s="20"/>
+      <c r="BZ12" s="19"/>
     </row>
     <row r="13" spans="1:84" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
@@ -1946,15 +1946,15 @@
       <c r="Z13" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AS13" s="16"/>
-      <c r="AT13" s="17"/>
-      <c r="AU13" s="17"/>
-      <c r="AV13" s="17"/>
-      <c r="AW13" s="17"/>
-      <c r="AX13" s="17"/>
-      <c r="AY13" s="17"/>
-      <c r="AZ13" s="18"/>
-      <c r="BZ13" s="17"/>
+      <c r="AS13" s="15"/>
+      <c r="AT13" s="16"/>
+      <c r="AU13" s="16"/>
+      <c r="AV13" s="16"/>
+      <c r="AW13" s="16"/>
+      <c r="AX13" s="16"/>
+      <c r="AY13" s="16"/>
+      <c r="AZ13" s="17"/>
+      <c r="BZ13" s="16"/>
     </row>
     <row r="14" spans="1:84" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
@@ -1976,15 +1976,15 @@
       <c r="Z14" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AS14" s="16"/>
-      <c r="AT14" s="17"/>
-      <c r="AU14" s="17"/>
-      <c r="AV14" s="17"/>
-      <c r="AW14" s="17"/>
-      <c r="AX14" s="17"/>
-      <c r="AY14" s="17"/>
-      <c r="AZ14" s="18"/>
-      <c r="BZ14" s="17"/>
+      <c r="AS14" s="15"/>
+      <c r="AT14" s="16"/>
+      <c r="AU14" s="16"/>
+      <c r="AV14" s="16"/>
+      <c r="AW14" s="16"/>
+      <c r="AX14" s="16"/>
+      <c r="AY14" s="16"/>
+      <c r="AZ14" s="17"/>
+      <c r="BZ14" s="16"/>
     </row>
     <row r="15" spans="1:84" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
@@ -2006,15 +2006,15 @@
       <c r="Z15" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AS15" s="16"/>
-      <c r="AT15" s="17"/>
-      <c r="AU15" s="17"/>
-      <c r="AV15" s="17"/>
-      <c r="AW15" s="17"/>
-      <c r="AX15" s="17"/>
-      <c r="AY15" s="17"/>
-      <c r="AZ15" s="18"/>
-      <c r="BZ15" s="17"/>
+      <c r="AS15" s="15"/>
+      <c r="AT15" s="16"/>
+      <c r="AU15" s="16"/>
+      <c r="AV15" s="16"/>
+      <c r="AW15" s="16"/>
+      <c r="AX15" s="16"/>
+      <c r="AY15" s="16"/>
+      <c r="AZ15" s="17"/>
+      <c r="BZ15" s="16"/>
     </row>
     <row r="16" spans="1:84" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
@@ -2036,15 +2036,15 @@
       <c r="Z16" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AS16" s="16"/>
-      <c r="AT16" s="17"/>
-      <c r="AU16" s="17"/>
-      <c r="AV16" s="17"/>
-      <c r="AW16" s="17"/>
-      <c r="AX16" s="17"/>
-      <c r="AY16" s="17"/>
-      <c r="AZ16" s="18"/>
-      <c r="BZ16" s="17"/>
+      <c r="AS16" s="15"/>
+      <c r="AT16" s="16"/>
+      <c r="AU16" s="16"/>
+      <c r="AV16" s="16"/>
+      <c r="AW16" s="16"/>
+      <c r="AX16" s="16"/>
+      <c r="AY16" s="16"/>
+      <c r="AZ16" s="17"/>
+      <c r="BZ16" s="16"/>
     </row>
     <row r="17" spans="1:84" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
@@ -2069,15 +2069,15 @@
       <c r="AA17" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="AS17" s="19"/>
-      <c r="AT17" s="20"/>
-      <c r="AU17" s="20"/>
-      <c r="AV17" s="20"/>
-      <c r="AW17" s="20"/>
-      <c r="AX17" s="20"/>
-      <c r="AY17" s="20"/>
-      <c r="AZ17" s="21"/>
-      <c r="BZ17" s="20"/>
+      <c r="AS17" s="18"/>
+      <c r="AT17" s="19"/>
+      <c r="AU17" s="19"/>
+      <c r="AV17" s="19"/>
+      <c r="AW17" s="19"/>
+      <c r="AX17" s="19"/>
+      <c r="AY17" s="19"/>
+      <c r="AZ17" s="20"/>
+      <c r="BZ17" s="19"/>
     </row>
     <row r="18" spans="1:84" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
@@ -2099,15 +2099,15 @@
       <c r="Z18" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AS18" s="16"/>
-      <c r="AT18" s="17"/>
-      <c r="AU18" s="17"/>
-      <c r="AV18" s="17"/>
-      <c r="AW18" s="17"/>
-      <c r="AX18" s="17"/>
-      <c r="AY18" s="17"/>
-      <c r="AZ18" s="18"/>
-      <c r="BZ18" s="17"/>
+      <c r="AS18" s="15"/>
+      <c r="AT18" s="16"/>
+      <c r="AU18" s="16"/>
+      <c r="AV18" s="16"/>
+      <c r="AW18" s="16"/>
+      <c r="AX18" s="16"/>
+      <c r="AY18" s="16"/>
+      <c r="AZ18" s="17"/>
+      <c r="BZ18" s="16"/>
     </row>
     <row r="19" spans="1:84" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
@@ -2135,15 +2135,15 @@
       <c r="AB19" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="AS19" s="19"/>
-      <c r="AT19" s="20"/>
-      <c r="AU19" s="20"/>
-      <c r="AV19" s="20"/>
-      <c r="AW19" s="20"/>
-      <c r="AX19" s="20"/>
-      <c r="AY19" s="20"/>
-      <c r="AZ19" s="21"/>
-      <c r="BZ19" s="20"/>
+      <c r="AS19" s="18"/>
+      <c r="AT19" s="19"/>
+      <c r="AU19" s="19"/>
+      <c r="AV19" s="19"/>
+      <c r="AW19" s="19"/>
+      <c r="AX19" s="19"/>
+      <c r="AY19" s="19"/>
+      <c r="AZ19" s="20"/>
+      <c r="BZ19" s="19"/>
     </row>
     <row r="20" spans="1:84" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
@@ -2171,15 +2171,15 @@
       <c r="AB20" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="AS20" s="19"/>
-      <c r="AT20" s="20"/>
-      <c r="AU20" s="20"/>
-      <c r="AV20" s="20"/>
-      <c r="AW20" s="20"/>
-      <c r="AX20" s="20"/>
-      <c r="AY20" s="20"/>
-      <c r="AZ20" s="21"/>
-      <c r="BZ20" s="20"/>
+      <c r="AS20" s="18"/>
+      <c r="AT20" s="19"/>
+      <c r="AU20" s="19"/>
+      <c r="AV20" s="19"/>
+      <c r="AW20" s="19"/>
+      <c r="AX20" s="19"/>
+      <c r="AY20" s="19"/>
+      <c r="AZ20" s="20"/>
+      <c r="BZ20" s="19"/>
     </row>
     <row r="21" spans="1:84" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
@@ -2204,15 +2204,15 @@
       <c r="AF21" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="AS21" s="16"/>
-      <c r="AT21" s="17"/>
-      <c r="AU21" s="17"/>
-      <c r="AV21" s="17"/>
-      <c r="AW21" s="17"/>
-      <c r="AX21" s="17"/>
-      <c r="AY21" s="17"/>
-      <c r="AZ21" s="18"/>
-      <c r="BZ21" s="17"/>
+      <c r="AS21" s="15"/>
+      <c r="AT21" s="16"/>
+      <c r="AU21" s="16"/>
+      <c r="AV21" s="16"/>
+      <c r="AW21" s="16"/>
+      <c r="AX21" s="16"/>
+      <c r="AY21" s="16"/>
+      <c r="AZ21" s="17"/>
+      <c r="BZ21" s="16"/>
     </row>
     <row r="22" spans="1:84" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
@@ -2237,15 +2237,15 @@
       <c r="AH22" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="AS22" s="19"/>
-      <c r="AT22" s="20"/>
-      <c r="AU22" s="20"/>
-      <c r="AV22" s="20"/>
-      <c r="AW22" s="20"/>
-      <c r="AX22" s="20"/>
-      <c r="AY22" s="20"/>
-      <c r="AZ22" s="21"/>
-      <c r="BZ22" s="20"/>
+      <c r="AS22" s="18"/>
+      <c r="AT22" s="19"/>
+      <c r="AU22" s="19"/>
+      <c r="AV22" s="19"/>
+      <c r="AW22" s="19"/>
+      <c r="AX22" s="19"/>
+      <c r="AY22" s="19"/>
+      <c r="AZ22" s="20"/>
+      <c r="BZ22" s="19"/>
     </row>
     <row r="23" spans="1:84" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
@@ -2267,15 +2267,15 @@
       <c r="AF23" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="AS23" s="16"/>
-      <c r="AT23" s="17"/>
-      <c r="AU23" s="17"/>
-      <c r="AV23" s="17"/>
-      <c r="AW23" s="17"/>
-      <c r="AX23" s="17"/>
-      <c r="AY23" s="17"/>
-      <c r="AZ23" s="18"/>
-      <c r="BZ23" s="17"/>
+      <c r="AS23" s="15"/>
+      <c r="AT23" s="16"/>
+      <c r="AU23" s="16"/>
+      <c r="AV23" s="16"/>
+      <c r="AW23" s="16"/>
+      <c r="AX23" s="16"/>
+      <c r="AY23" s="16"/>
+      <c r="AZ23" s="17"/>
+      <c r="BZ23" s="16"/>
     </row>
     <row r="24" spans="1:84" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
@@ -2297,15 +2297,15 @@
       <c r="AF24" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="AS24" s="16"/>
-      <c r="AT24" s="17"/>
-      <c r="AU24" s="17"/>
-      <c r="AV24" s="17"/>
-      <c r="AW24" s="17"/>
-      <c r="AX24" s="17"/>
-      <c r="AY24" s="17"/>
-      <c r="AZ24" s="18"/>
-      <c r="BZ24" s="17"/>
+      <c r="AS24" s="15"/>
+      <c r="AT24" s="16"/>
+      <c r="AU24" s="16"/>
+      <c r="AV24" s="16"/>
+      <c r="AW24" s="16"/>
+      <c r="AX24" s="16"/>
+      <c r="AY24" s="16"/>
+      <c r="AZ24" s="17"/>
+      <c r="BZ24" s="16"/>
     </row>
     <row r="25" spans="1:84" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
@@ -2330,15 +2330,15 @@
       <c r="AG25" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="AS25" s="19"/>
-      <c r="AT25" s="20"/>
-      <c r="AU25" s="20"/>
-      <c r="AV25" s="20"/>
-      <c r="AW25" s="20"/>
-      <c r="AX25" s="20"/>
-      <c r="AY25" s="20"/>
-      <c r="AZ25" s="21"/>
-      <c r="BZ25" s="20"/>
+      <c r="AS25" s="18"/>
+      <c r="AT25" s="19"/>
+      <c r="AU25" s="19"/>
+      <c r="AV25" s="19"/>
+      <c r="AW25" s="19"/>
+      <c r="AX25" s="19"/>
+      <c r="AY25" s="19"/>
+      <c r="AZ25" s="20"/>
+      <c r="BZ25" s="19"/>
     </row>
     <row r="26" spans="1:84" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
@@ -2360,15 +2360,15 @@
       <c r="AF26" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="AS26" s="16"/>
-      <c r="AT26" s="17"/>
-      <c r="AU26" s="17"/>
-      <c r="AV26" s="17"/>
-      <c r="AW26" s="17"/>
-      <c r="AX26" s="17"/>
-      <c r="AY26" s="17"/>
-      <c r="AZ26" s="18"/>
-      <c r="BZ26" s="17"/>
+      <c r="AS26" s="15"/>
+      <c r="AT26" s="16"/>
+      <c r="AU26" s="16"/>
+      <c r="AV26" s="16"/>
+      <c r="AW26" s="16"/>
+      <c r="AX26" s="16"/>
+      <c r="AY26" s="16"/>
+      <c r="AZ26" s="17"/>
+      <c r="BZ26" s="16"/>
     </row>
     <row r="27" spans="1:84" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
@@ -2396,15 +2396,15 @@
       <c r="AH27" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="AS27" s="19"/>
-      <c r="AT27" s="20"/>
-      <c r="AU27" s="20"/>
-      <c r="AV27" s="20"/>
-      <c r="AW27" s="20"/>
-      <c r="AX27" s="20"/>
-      <c r="AY27" s="20"/>
-      <c r="AZ27" s="21"/>
-      <c r="BZ27" s="20"/>
+      <c r="AS27" s="18"/>
+      <c r="AT27" s="19"/>
+      <c r="AU27" s="19"/>
+      <c r="AV27" s="19"/>
+      <c r="AW27" s="19"/>
+      <c r="AX27" s="19"/>
+      <c r="AY27" s="19"/>
+      <c r="AZ27" s="20"/>
+      <c r="BZ27" s="19"/>
     </row>
     <row r="28" spans="1:84" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
@@ -2432,15 +2432,15 @@
       <c r="AH28" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="AS28" s="19"/>
-      <c r="AT28" s="20"/>
-      <c r="AU28" s="20"/>
-      <c r="AV28" s="20"/>
-      <c r="AW28" s="20"/>
-      <c r="AX28" s="20"/>
-      <c r="AY28" s="20"/>
-      <c r="AZ28" s="21"/>
-      <c r="BZ28" s="20"/>
+      <c r="AS28" s="18"/>
+      <c r="AT28" s="19"/>
+      <c r="AU28" s="19"/>
+      <c r="AV28" s="19"/>
+      <c r="AW28" s="19"/>
+      <c r="AX28" s="19"/>
+      <c r="AY28" s="19"/>
+      <c r="AZ28" s="20"/>
+      <c r="BZ28" s="19"/>
     </row>
     <row r="29" spans="1:84" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
@@ -2483,28 +2483,28 @@
       <c r="AR29" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AS29" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT29" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU29" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV29" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW29" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="AX29" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY29" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ29" s="21" t="s">
+      <c r="AS29" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT29" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU29" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV29" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW29" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="AX29" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY29" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ29" s="20" t="s">
         <v>49</v>
       </c>
       <c r="BA29" s="7" t="s">
@@ -2579,7 +2579,7 @@
       <c r="BX29" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="BZ29" s="20" t="s">
+      <c r="BZ29" s="19" t="s">
         <v>49</v>
       </c>
       <c r="CA29" s="7" t="s">
@@ -2638,19 +2638,19 @@
       <c r="AR30" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AS30" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT30" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU30" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV30" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW30" s="23" t="s">
+      <c r="AS30" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT30" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU30" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV30" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW30" s="22" t="s">
         <v>49</v>
       </c>
       <c r="BA30" t="s">
@@ -2711,13 +2711,13 @@
       <c r="AP31" s="7"/>
       <c r="AQ31" s="7"/>
       <c r="AR31" s="7"/>
-      <c r="AX31" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY31" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ31" s="26" t="s">
+      <c r="AX31" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY31" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ31" s="25" t="s">
         <v>49</v>
       </c>
       <c r="BF31" s="9" t="s">
@@ -2762,7 +2762,7 @@
       <c r="BX31" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="BZ31" s="25" t="s">
+      <c r="BZ31" s="24" t="s">
         <v>49</v>
       </c>
       <c r="CA31" s="9" t="s">
@@ -2796,7 +2796,7 @@
       <c r="AP32" s="7"/>
       <c r="AQ32" s="7"/>
       <c r="AR32" s="7"/>
-      <c r="AY32" s="23" t="s">
+      <c r="AY32" s="22" t="s">
         <v>49</v>
       </c>
       <c r="BQ32" s="9"/>
@@ -2809,7 +2809,7 @@
       <c r="BX32" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="BZ32" s="23" t="s">
+      <c r="BZ32" s="22" t="s">
         <v>49</v>
       </c>
       <c r="CC32" s="9"/>
@@ -2831,13 +2831,13 @@
       <c r="AP33" s="7"/>
       <c r="AQ33" s="7"/>
       <c r="AR33" s="7"/>
-      <c r="AX33" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY33" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ33" s="24" t="s">
+      <c r="AX33" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY33" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ33" s="23" t="s">
         <v>49</v>
       </c>
       <c r="BF33" t="s">
@@ -2879,7 +2879,7 @@
       <c r="BX33" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="BZ33" s="23" t="s">
+      <c r="BZ33" s="22" t="s">
         <v>49</v>
       </c>
       <c r="CA33" t="s">
@@ -2938,25 +2938,25 @@
       <c r="AR34" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AS34" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT34" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU34" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV34" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW34" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AX34" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY34" s="23" t="s">
+      <c r="AS34" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT34" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU34" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV34" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW34" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AX34" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY34" s="22" t="s">
         <v>49</v>
       </c>
       <c r="BA34" t="s">
@@ -3021,7 +3021,7 @@
       <c r="BX34" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="BZ34" s="23" t="s">
+      <c r="BZ34" s="22" t="s">
         <v>49</v>
       </c>
       <c r="CA34" t="s">
@@ -3055,13 +3055,13 @@
       <c r="AP35" s="7"/>
       <c r="AQ35" s="7"/>
       <c r="AR35" s="7"/>
-      <c r="AX35" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY35" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ35" s="24" t="s">
+      <c r="AX35" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY35" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ35" s="23" t="s">
         <v>49</v>
       </c>
       <c r="BF35" t="s">
@@ -3088,7 +3088,7 @@
       <c r="BX35" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="BZ35" s="23" t="s">
+      <c r="BZ35" s="22" t="s">
         <v>49</v>
       </c>
       <c r="CC35" s="9" t="s">
@@ -3114,13 +3114,13 @@
       <c r="AP36" s="7"/>
       <c r="AQ36" s="7"/>
       <c r="AR36" s="7"/>
-      <c r="AX36" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY36" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ36" s="24" t="s">
+      <c r="AX36" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY36" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ36" s="23" t="s">
         <v>49</v>
       </c>
       <c r="BQ36" s="9" t="s">
@@ -3135,7 +3135,7 @@
       <c r="BV36" s="9"/>
       <c r="BW36" s="9"/>
       <c r="BX36" s="9"/>
-      <c r="BZ36" s="23" t="s">
+      <c r="BZ36" s="22" t="s">
         <v>49</v>
       </c>
       <c r="CC36" s="9" t="s">
@@ -3159,7 +3159,7 @@
       <c r="AP37" s="7"/>
       <c r="AQ37" s="7"/>
       <c r="AR37" s="7"/>
-      <c r="AX37" s="23" t="s">
+      <c r="AX37" s="22" t="s">
         <v>49</v>
       </c>
       <c r="BQ37" s="9" t="s">
@@ -3191,13 +3191,13 @@
       <c r="AP38" s="7"/>
       <c r="AQ38" s="7"/>
       <c r="AR38" s="7"/>
-      <c r="AX38" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY38" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ38" s="24" t="s">
+      <c r="AX38" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY38" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ38" s="23" t="s">
         <v>49</v>
       </c>
       <c r="BQ38" s="9" t="s">
@@ -3212,7 +3212,7 @@
       <c r="BV38" s="9"/>
       <c r="BW38" s="9"/>
       <c r="BX38" s="9"/>
-      <c r="BZ38" s="23" t="s">
+      <c r="BZ38" s="22" t="s">
         <v>49</v>
       </c>
       <c r="CC38" s="9" t="s">
@@ -3236,13 +3236,13 @@
       <c r="AP39" s="7"/>
       <c r="AQ39" s="7"/>
       <c r="AR39" s="7"/>
-      <c r="AX39" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY39" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ39" s="24" t="s">
+      <c r="AX39" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY39" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ39" s="23" t="s">
         <v>49</v>
       </c>
       <c r="BQ39" s="9" t="s">
@@ -3257,7 +3257,7 @@
       <c r="BV39" s="9"/>
       <c r="BW39" s="9"/>
       <c r="BX39" s="9"/>
-      <c r="BZ39" s="23" t="s">
+      <c r="BZ39" s="22" t="s">
         <v>49</v>
       </c>
       <c r="CC39" s="9" t="s">
@@ -3368,13 +3368,13 @@
       <c r="AP43" s="7"/>
       <c r="AQ43" s="7"/>
       <c r="AR43" s="7"/>
-      <c r="AX43" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY43" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ43" s="24" t="s">
+      <c r="AX43" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY43" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ43" s="23" t="s">
         <v>49</v>
       </c>
       <c r="BQ43" s="9" t="s">
@@ -3395,7 +3395,7 @@
       <c r="BX43" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="BZ43" s="23" t="s">
+      <c r="BZ43" s="22" t="s">
         <v>49</v>
       </c>
       <c r="CC43" s="9" t="s">
@@ -3827,19 +3827,19 @@
       <c r="AR57" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AS57" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT57" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU57" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV57" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW57" s="23" t="s">
+      <c r="AS57" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT57" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU57" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV57" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW57" s="22" t="s">
         <v>49</v>
       </c>
       <c r="BA57" t="s">
@@ -3898,19 +3898,19 @@
       <c r="AR58" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AS58" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT58" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU58" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV58" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW58" s="17" t="s">
+      <c r="AS58" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT58" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU58" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV58" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW58" s="16" t="s">
         <v>49</v>
       </c>
       <c r="BA58" s="4" t="s">
@@ -3969,19 +3969,19 @@
       <c r="AR59" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AS59" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT59" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU59" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV59" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW59" s="17" t="s">
+      <c r="AS59" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT59" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU59" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV59" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW59" s="16" t="s">
         <v>49</v>
       </c>
       <c r="BA59" s="4" t="s">
@@ -4030,19 +4030,19 @@
       <c r="AP60" s="7"/>
       <c r="AQ60" s="7"/>
       <c r="AR60" s="7"/>
-      <c r="AS60" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT60" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU60" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV60" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW60" s="17" t="s">
+      <c r="AS60" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT60" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU60" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV60" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW60" s="16" t="s">
         <v>49</v>
       </c>
       <c r="BA60" s="4" t="s">
@@ -4144,19 +4144,19 @@
       <c r="AR62" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AS62" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT62" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU62" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV62" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW62" s="17" t="s">
+      <c r="AS62" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT62" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU62" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV62" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW62" s="16" t="s">
         <v>49</v>
       </c>
       <c r="BA62" s="4" t="s">
@@ -4213,10 +4213,10 @@
         <v>51</v>
       </c>
       <c r="AR63" s="7"/>
-      <c r="AS63" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT63" s="23" t="s">
+      <c r="AS63" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT63" s="22" t="s">
         <v>49</v>
       </c>
       <c r="BA63" s="4"/>
@@ -4290,7 +4290,7 @@
       <c r="AP65" s="7"/>
       <c r="AQ65" s="7"/>
       <c r="AR65" s="7"/>
-      <c r="AY65" s="23" t="s">
+      <c r="AY65" s="22" t="s">
         <v>49</v>
       </c>
       <c r="BA65" t="s">
@@ -4316,7 +4316,7 @@
       <c r="BV65" s="9"/>
       <c r="BW65" s="9"/>
       <c r="BX65" s="9"/>
-      <c r="BZ65" s="23" t="s">
+      <c r="BZ65" s="22" t="s">
         <v>49</v>
       </c>
       <c r="CC65" s="9"/>
@@ -4336,7 +4336,7 @@
       <c r="AP66" s="7"/>
       <c r="AQ66" s="7"/>
       <c r="AR66" s="7"/>
-      <c r="AY66" s="23" t="s">
+      <c r="AY66" s="22" t="s">
         <v>49</v>
       </c>
       <c r="BQ66" s="9"/>
@@ -4347,7 +4347,7 @@
       <c r="BV66" s="9"/>
       <c r="BW66" s="9"/>
       <c r="BX66" s="9"/>
-      <c r="BZ66" s="23" t="s">
+      <c r="BZ66" s="22" t="s">
         <v>49</v>
       </c>
       <c r="CC66" s="9"/>
@@ -4367,7 +4367,7 @@
       <c r="AP67" s="7"/>
       <c r="AQ67" s="7"/>
       <c r="AR67" s="7"/>
-      <c r="AY67" s="23" t="s">
+      <c r="AY67" s="22" t="s">
         <v>49</v>
       </c>
       <c r="BQ67" s="9"/>
@@ -4378,7 +4378,7 @@
       <c r="BV67" s="9"/>
       <c r="BW67" s="9"/>
       <c r="BX67" s="9"/>
-      <c r="BZ67" s="23" t="s">
+      <c r="BZ67" s="22" t="s">
         <v>49</v>
       </c>
       <c r="CC67" s="9"/>
@@ -4398,7 +4398,7 @@
       <c r="AP68" s="7"/>
       <c r="AQ68" s="7"/>
       <c r="AR68" s="7"/>
-      <c r="AY68" s="23" t="s">
+      <c r="AY68" s="22" t="s">
         <v>49</v>
       </c>
       <c r="BQ68" s="9"/>
@@ -4409,7 +4409,7 @@
       <c r="BV68" s="9"/>
       <c r="BW68" s="9"/>
       <c r="BX68" s="9"/>
-      <c r="BZ68" s="23" t="s">
+      <c r="BZ68" s="22" t="s">
         <v>49</v>
       </c>
       <c r="CC68" s="9"/>
@@ -4454,19 +4454,19 @@
       <c r="AR69" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AS69" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT69" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU69" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV69" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW69" s="23" t="s">
+      <c r="AS69" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT69" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU69" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV69" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW69" s="22" t="s">
         <v>49</v>
       </c>
       <c r="BA69" t="s">
@@ -4534,19 +4534,19 @@
       <c r="AR70" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AS70" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT70" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU70" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV70" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW70" s="23" t="s">
+      <c r="AS70" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT70" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU70" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV70" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW70" s="22" t="s">
         <v>49</v>
       </c>
       <c r="BA70" t="s">
@@ -4614,19 +4614,19 @@
       <c r="AR71" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AS71" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT71" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU71" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV71" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW71" s="23" t="s">
+      <c r="AS71" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT71" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU71" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV71" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW71" s="22" t="s">
         <v>49</v>
       </c>
       <c r="BA71" t="s">
@@ -4728,19 +4728,19 @@
       <c r="AR73" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AS73" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT73" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU73" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV73" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW73" s="23" t="s">
+      <c r="AS73" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT73" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU73" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV73" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW73" s="22" t="s">
         <v>49</v>
       </c>
       <c r="BA73" t="s">
@@ -4794,28 +4794,28 @@
       <c r="AM74" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AS74" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT74" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU74" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV74" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW74" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="AX74" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY74" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ74" s="21" t="s">
+      <c r="AS74" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT74" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU74" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV74" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW74" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="AX74" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY74" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ74" s="20" t="s">
         <v>49</v>
       </c>
       <c r="BA74" s="7" t="s">
@@ -4851,7 +4851,7 @@
       <c r="BV74" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="BZ74" s="20" t="s">
+      <c r="BZ74" s="19" t="s">
         <v>49</v>
       </c>
       <c r="CA74" s="7" t="s">
@@ -4885,10 +4885,10 @@
       <c r="AP75" s="7"/>
       <c r="AQ75" s="7"/>
       <c r="AR75" s="7"/>
-      <c r="AS75" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT75" s="23" t="s">
+      <c r="AS75" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT75" s="22" t="s">
         <v>49</v>
       </c>
       <c r="BB75" t="s">
@@ -4937,28 +4937,28 @@
       <c r="AP76" s="7"/>
       <c r="AQ76" s="7"/>
       <c r="AR76" s="7"/>
-      <c r="AS76" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT76" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU76" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV76" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW76" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AX76" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY76" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ76" s="24" t="s">
+      <c r="AS76" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT76" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU76" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV76" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW76" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AX76" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY76" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ76" s="23" t="s">
         <v>49</v>
       </c>
       <c r="BA76" t="s">
@@ -4976,7 +4976,7 @@
       <c r="BE76" t="s">
         <v>50</v>
       </c>
-      <c r="BZ76" s="23" t="s">
+      <c r="BZ76" s="22" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5001,7 +5001,7 @@
       <c r="AP77" s="7"/>
       <c r="AQ77" s="7"/>
       <c r="AR77" s="7"/>
-      <c r="AT77" s="23" t="s">
+      <c r="AT77" s="22" t="s">
         <v>49</v>
       </c>
       <c r="BQ77" s="9"/>
@@ -5097,7 +5097,7 @@
       <c r="AP80" s="7"/>
       <c r="AQ80" s="7"/>
       <c r="AR80" s="7"/>
-      <c r="AY80" s="23" t="s">
+      <c r="AY80" s="22" t="s">
         <v>49</v>
       </c>
       <c r="BQ80" s="9"/>
@@ -5108,7 +5108,7 @@
       <c r="BV80" s="9"/>
       <c r="BW80" s="9"/>
       <c r="BX80" s="9"/>
-      <c r="BZ80" s="23" t="s">
+      <c r="BZ80" s="22" t="s">
         <v>49</v>
       </c>
       <c r="CC80" s="9"/>
@@ -5128,7 +5128,7 @@
       <c r="AP81" s="7"/>
       <c r="AQ81" s="7"/>
       <c r="AR81" s="7"/>
-      <c r="AY81" s="23" t="s">
+      <c r="AY81" s="22" t="s">
         <v>49</v>
       </c>
       <c r="BQ81" s="9"/>
@@ -5139,7 +5139,7 @@
       <c r="BV81" s="9"/>
       <c r="BW81" s="9"/>
       <c r="BX81" s="9"/>
-      <c r="BZ81" s="23" t="s">
+      <c r="BZ81" s="22" t="s">
         <v>49</v>
       </c>
       <c r="CC81" s="9"/>
@@ -5159,7 +5159,7 @@
       <c r="AP82" s="7"/>
       <c r="AQ82" s="7"/>
       <c r="AR82" s="7"/>
-      <c r="AY82" s="23" t="s">
+      <c r="AY82" s="22" t="s">
         <v>49</v>
       </c>
       <c r="BQ82" s="9"/>
@@ -5170,7 +5170,7 @@
       <c r="BV82" s="9"/>
       <c r="BW82" s="9"/>
       <c r="BX82" s="9"/>
-      <c r="BZ82" s="23" t="s">
+      <c r="BZ82" s="22" t="s">
         <v>49</v>
       </c>
       <c r="CC82" s="9"/>
@@ -5190,7 +5190,7 @@
       <c r="AP83" s="7"/>
       <c r="AQ83" s="7"/>
       <c r="AR83" s="7"/>
-      <c r="AY83" s="23" t="s">
+      <c r="AY83" s="22" t="s">
         <v>49</v>
       </c>
       <c r="BQ83" s="9"/>
@@ -5201,7 +5201,7 @@
       <c r="BV83" s="9"/>
       <c r="BW83" s="9"/>
       <c r="BX83" s="9"/>
-      <c r="BZ83" s="23" t="s">
+      <c r="BZ83" s="22" t="s">
         <v>49</v>
       </c>
       <c r="CC83" s="9"/>
@@ -5241,16 +5241,16 @@
         <v>51</v>
       </c>
       <c r="AR84" s="7"/>
-      <c r="AS84" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT84" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU84" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV84" s="23" t="s">
+      <c r="AS84" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT84" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU84" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV84" s="22" t="s">
         <v>49</v>
       </c>
       <c r="BA84" t="s">
@@ -5316,28 +5316,28 @@
         <v>51</v>
       </c>
       <c r="AR85" s="7"/>
-      <c r="AS85" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT85" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU85" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV85" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW85" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AX85" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY85" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ85" s="24" t="s">
+      <c r="AS85" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT85" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU85" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV85" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW85" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AX85" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY85" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ85" s="23" t="s">
         <v>49</v>
       </c>
       <c r="BA85" t="s">
@@ -5355,7 +5355,7 @@
       <c r="BE85" t="s">
         <v>50</v>
       </c>
-      <c r="BZ85" s="23" t="s">
+      <c r="BZ85" s="22" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5383,10 +5383,10 @@
       <c r="AP86" s="7"/>
       <c r="AQ86" s="7"/>
       <c r="AR86" s="7"/>
-      <c r="AS86" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT86" s="23" t="s">
+      <c r="AS86" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT86" s="22" t="s">
         <v>49</v>
       </c>
       <c r="BB86" t="s">
@@ -5420,16 +5420,16 @@
       <c r="AP87" s="7"/>
       <c r="AQ87" s="7"/>
       <c r="AR87" s="7"/>
-      <c r="AX87" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY87" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ87" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="BZ87" s="23" t="s">
+      <c r="AX87" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY87" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ87" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="BZ87" s="22" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5468,10 +5468,10 @@
         <v>51</v>
       </c>
       <c r="AR88" s="7"/>
-      <c r="AS88" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT88" s="23" t="s">
+      <c r="AS88" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT88" s="22" t="s">
         <v>49</v>
       </c>
       <c r="BB88" t="s">
@@ -5557,7 +5557,7 @@
       <c r="AP90" s="7"/>
       <c r="AQ90" s="7"/>
       <c r="AR90" s="7"/>
-      <c r="AT90" s="23" t="s">
+      <c r="AT90" s="22" t="s">
         <v>49</v>
       </c>
       <c r="BQ90" s="9"/>
@@ -5698,19 +5698,19 @@
       <c r="AR95" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AS95" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT95" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU95" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV95" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW95" s="23" t="s">
+      <c r="AS95" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT95" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU95" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV95" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW95" s="22" t="s">
         <v>49</v>
       </c>
       <c r="BA95" t="s">
@@ -5762,25 +5762,25 @@
       <c r="AP96" s="7"/>
       <c r="AQ96" s="7"/>
       <c r="AR96" s="7"/>
-      <c r="AS96" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT96" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU96" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV96" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW96" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY96" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ96" s="24" t="s">
+      <c r="AS96" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT96" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU96" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV96" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW96" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY96" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ96" s="23" t="s">
         <v>49</v>
       </c>
       <c r="BA96" t="s">
@@ -5798,7 +5798,7 @@
       <c r="BE96" t="s">
         <v>50</v>
       </c>
-      <c r="BZ96" s="23" t="s">
+      <c r="BZ96" s="22" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5817,7 +5817,7 @@
       <c r="AP97" s="7"/>
       <c r="AQ97" s="7"/>
       <c r="AR97" s="7"/>
-      <c r="AX97" s="23" t="s">
+      <c r="AX97" s="22" t="s">
         <v>49</v>
       </c>
       <c r="BQ97" s="9" t="s">
@@ -5869,7 +5869,7 @@
       <c r="AP98" s="7"/>
       <c r="AQ98" s="7"/>
       <c r="AR98" s="7"/>
-      <c r="AT98" s="23" t="s">
+      <c r="AT98" s="22" t="s">
         <v>49</v>
       </c>
       <c r="BQ98" s="9"/>
@@ -5912,28 +5912,28 @@
       <c r="AP99" s="7"/>
       <c r="AQ99" s="7"/>
       <c r="AR99" s="7"/>
-      <c r="AS99" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT99" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU99" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV99" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW99" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AX99" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY99" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ99" s="24" t="s">
+      <c r="AS99" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT99" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU99" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV99" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW99" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AX99" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY99" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ99" s="23" t="s">
         <v>49</v>
       </c>
       <c r="BA99" t="s">
@@ -5951,7 +5951,7 @@
       <c r="BE99" t="s">
         <v>50</v>
       </c>
-      <c r="BZ99" s="23" t="s">
+      <c r="BZ99" s="22" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5982,22 +5982,22 @@
       <c r="AP100" s="7"/>
       <c r="AQ100" s="7"/>
       <c r="AR100" s="7"/>
-      <c r="AS100" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT100" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU100" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV100" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW100" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AX100" s="23" t="s">
+      <c r="AS100" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT100" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU100" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV100" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW100" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AX100" s="22" t="s">
         <v>49</v>
       </c>
       <c r="BQ100" s="9" t="s">
@@ -6034,22 +6034,22 @@
       <c r="AP101" s="7"/>
       <c r="AQ101" s="7"/>
       <c r="AR101" s="7"/>
-      <c r="AS101" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT101" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU101" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV101" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW101" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AX101" s="23" t="s">
+      <c r="AS101" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT101" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU101" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV101" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW101" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AX101" s="22" t="s">
         <v>49</v>
       </c>
       <c r="BQ101" s="9" t="s">
@@ -6086,28 +6086,28 @@
       <c r="AP102" s="7"/>
       <c r="AQ102" s="7"/>
       <c r="AR102" s="7"/>
-      <c r="AS102" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT102" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU102" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV102" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW102" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AX102" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY102" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ102" s="24" t="s">
+      <c r="AS102" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT102" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU102" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV102" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW102" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AX102" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY102" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ102" s="23" t="s">
         <v>49</v>
       </c>
       <c r="BA102" t="s">
@@ -6131,7 +6131,7 @@
       <c r="BR102" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="BZ102" s="23" t="s">
+      <c r="BZ102" s="22" t="s">
         <v>49</v>
       </c>
       <c r="CC102" s="9" t="s">
@@ -6153,13 +6153,13 @@
       <c r="AP103" s="7"/>
       <c r="AQ103" s="7"/>
       <c r="AR103" s="7"/>
-      <c r="AX103" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY103" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ103" s="24" t="s">
+      <c r="AX103" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY103" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ103" s="23" t="s">
         <v>49</v>
       </c>
       <c r="BQ103" s="9" t="s">
@@ -6168,7 +6168,7 @@
       <c r="BR103" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="BZ103" s="23" t="s">
+      <c r="BZ103" s="22" t="s">
         <v>49</v>
       </c>
       <c r="CC103" s="9" t="s">
@@ -6199,16 +6199,16 @@
       <c r="AP104" s="7"/>
       <c r="AQ104" s="7"/>
       <c r="AR104" s="7"/>
-      <c r="AT104" s="23" t="s">
+      <c r="AT104" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="AU104" s="23" t="s">
+      <c r="AU104" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="AV104" s="23" t="s">
+      <c r="AV104" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="AW104" s="23" t="s">
+      <c r="AW104" s="22" t="s">
         <v>82</v>
       </c>
       <c r="BQ104" s="9"/>
@@ -6251,28 +6251,28 @@
       <c r="AP105" s="7"/>
       <c r="AQ105" s="7"/>
       <c r="AR105" s="7"/>
-      <c r="AS105" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT105" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU105" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV105" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW105" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AX105" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY105" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ105" s="24" t="s">
+      <c r="AS105" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT105" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU105" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV105" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW105" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AX105" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY105" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ105" s="23" t="s">
         <v>49</v>
       </c>
       <c r="BA105" t="s">
@@ -6296,7 +6296,7 @@
       <c r="BR105" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="BZ105" s="23" t="s">
+      <c r="BZ105" s="22" t="s">
         <v>49</v>
       </c>
       <c r="CC105" s="9" t="s">
@@ -6318,7 +6318,7 @@
       <c r="AP106" s="7"/>
       <c r="AQ106" s="7"/>
       <c r="AR106" s="7"/>
-      <c r="AX106" s="23" t="s">
+      <c r="AX106" s="22" t="s">
         <v>49</v>
       </c>
       <c r="BQ106" s="9" t="s">
@@ -6365,28 +6365,28 @@
       <c r="AP107" s="7"/>
       <c r="AQ107" s="7"/>
       <c r="AR107" s="7"/>
-      <c r="AS107" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT107" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU107" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV107" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW107" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AX107" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY107" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ107" s="24" t="s">
+      <c r="AS107" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT107" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU107" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV107" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW107" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AX107" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY107" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ107" s="23" t="s">
         <v>49</v>
       </c>
       <c r="BA107" t="s">
@@ -6410,7 +6410,7 @@
       <c r="BR107" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="BZ107" s="23" t="s">
+      <c r="BZ107" s="22" t="s">
         <v>49</v>
       </c>
       <c r="CC107" s="9" t="s">
@@ -6447,13 +6447,13 @@
       <c r="AP108" s="7"/>
       <c r="AQ108" s="7"/>
       <c r="AR108" s="7"/>
-      <c r="AS108" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT108" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY108" s="23" t="s">
+      <c r="AS108" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT108" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY108" s="22" t="s">
         <v>49</v>
       </c>
       <c r="BQ108" s="9"/>
@@ -6464,7 +6464,7 @@
       <c r="BV108" s="9"/>
       <c r="BW108" s="9"/>
       <c r="BX108" s="9"/>
-      <c r="BZ108" s="23" t="s">
+      <c r="BZ108" s="22" t="s">
         <v>49</v>
       </c>
       <c r="CC108" s="9"/>
@@ -6484,13 +6484,13 @@
       <c r="AP109" s="7"/>
       <c r="AQ109" s="7"/>
       <c r="AR109" s="7"/>
-      <c r="AX109" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY109" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ109" s="24" t="s">
+      <c r="AX109" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY109" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ109" s="23" t="s">
         <v>49</v>
       </c>
       <c r="BQ109" s="9" t="s">
@@ -6499,7 +6499,7 @@
       <c r="BR109" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="BZ109" s="23" t="s">
+      <c r="BZ109" s="22" t="s">
         <v>49</v>
       </c>
       <c r="CC109" s="9" t="s">
@@ -6536,28 +6536,28 @@
       <c r="AP110" s="7"/>
       <c r="AQ110" s="7"/>
       <c r="AR110" s="7"/>
-      <c r="AS110" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT110" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU110" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV110" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW110" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AX110" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY110" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ110" s="24" t="s">
+      <c r="AS110" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT110" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU110" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV110" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW110" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AX110" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY110" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ110" s="23" t="s">
         <v>49</v>
       </c>
       <c r="BA110" t="s">
@@ -6593,7 +6593,7 @@
       <c r="BV110" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="BZ110" s="23" t="s">
+      <c r="BZ110" s="22" t="s">
         <v>49</v>
       </c>
       <c r="CC110" s="9" t="s">
@@ -6627,7 +6627,7 @@
       <c r="AP111" s="7"/>
       <c r="AQ111" s="7"/>
       <c r="AR111" s="7"/>
-      <c r="AT111" s="23" t="s">
+      <c r="AT111" s="22" t="s">
         <v>49</v>
       </c>
       <c r="BQ111" s="9"/>
@@ -6658,13 +6658,13 @@
       <c r="AP112" s="7"/>
       <c r="AQ112" s="7"/>
       <c r="AR112" s="7"/>
-      <c r="AX112" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY112" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ112" s="24" t="s">
+      <c r="AX112" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY112" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ112" s="23" t="s">
         <v>49</v>
       </c>
       <c r="BQ112" s="9" t="s">
@@ -6685,7 +6685,7 @@
       <c r="BV112" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="BZ112" s="23" t="s">
+      <c r="BZ112" s="22" t="s">
         <v>49</v>
       </c>
       <c r="CC112" s="9" t="s">
@@ -6719,25 +6719,25 @@
       <c r="AP113" s="7"/>
       <c r="AQ113" s="7"/>
       <c r="AR113" s="7"/>
-      <c r="AT113" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU113" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV113" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW113" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AX113" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY113" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ113" s="24" t="s">
+      <c r="AT113" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU113" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV113" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW113" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AX113" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY113" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ113" s="23" t="s">
         <v>49</v>
       </c>
       <c r="BA113" t="s">
@@ -6761,7 +6761,7 @@
       <c r="BR113" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="BZ113" s="23" t="s">
+      <c r="BZ113" s="22" t="s">
         <v>49</v>
       </c>
       <c r="CC113" s="9" t="s">
@@ -6798,16 +6798,16 @@
       <c r="AP114" s="7"/>
       <c r="AQ114" s="7"/>
       <c r="AR114" s="7"/>
-      <c r="AT114" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU114" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV114" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW114" s="23" t="s">
+      <c r="AT114" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU114" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV114" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW114" s="22" t="s">
         <v>49</v>
       </c>
       <c r="BA114" t="s">
@@ -6878,7 +6878,7 @@
       <c r="AP116" s="7"/>
       <c r="AQ116" s="7"/>
       <c r="AR116" s="7"/>
-      <c r="AT116" s="23" t="s">
+      <c r="AT116" s="22" t="s">
         <v>49</v>
       </c>
       <c r="BB116" t="s">
@@ -7042,19 +7042,19 @@
       <c r="AR120" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AS120" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT120" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU120" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV120" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW120" s="23" t="s">
+      <c r="AS120" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT120" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU120" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV120" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW120" s="22" t="s">
         <v>49</v>
       </c>
       <c r="BA120" t="s">
@@ -7125,19 +7125,19 @@
       <c r="AR121" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AS121" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT121" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU121" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV121" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW121" s="17" t="s">
+      <c r="AS121" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT121" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU121" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV121" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW121" s="16" t="s">
         <v>49</v>
       </c>
       <c r="BA121" s="4" t="s">
@@ -7193,19 +7193,19 @@
       <c r="AR122" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AS122" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT122" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU122" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV122" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW122" s="23" t="s">
+      <c r="AS122" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT122" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU122" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV122" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW122" s="22" t="s">
         <v>49</v>
       </c>
       <c r="BA122" t="s">
@@ -7260,13 +7260,13 @@
       <c r="AP123" s="7"/>
       <c r="AQ123" s="7"/>
       <c r="AR123" s="7"/>
-      <c r="AX123" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY123" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ123" s="26" t="s">
+      <c r="AX123" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY123" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ123" s="25" t="s">
         <v>49</v>
       </c>
       <c r="BF123" s="9" t="s">
@@ -7311,7 +7311,7 @@
       <c r="BX123" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="BZ123" s="25" t="s">
+      <c r="BZ123" s="24" t="s">
         <v>49</v>
       </c>
       <c r="CA123" s="9" t="s">
@@ -7447,13 +7447,13 @@
         <v>51</v>
       </c>
       <c r="AR126" s="7"/>
-      <c r="AS126" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT126" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="AX126" s="17" t="s">
+      <c r="AS126" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT126" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AX126" s="16" t="s">
         <v>49</v>
       </c>
       <c r="BB126" s="4" t="s">
@@ -7564,19 +7564,19 @@
       <c r="AR128" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AS128" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT128" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU128" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV128" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW128" s="17" t="s">
+      <c r="AS128" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT128" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU128" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV128" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW128" s="16" t="s">
         <v>49</v>
       </c>
       <c r="BA128" s="4" t="s">
